--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -52,18 +52,9 @@
     <t xml:space="preserve">                  "Id": "chart conclusion"</t>
   </si>
   <si>
-    <t xml:space="preserve">                                "Id": "chart conclusion"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                  "Id": "chart conclusion"</t>
   </si>
   <si>
-    <t xml:space="preserve">                                "Id": "memo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart correct non-causal conclusion"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                      "Id": "chart wrong non-causal conclusion"</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t xml:space="preserve">                                "Id": "chart correct causal explain step by step"</t>
   </si>
   <si>
-    <t xml:space="preserve">                              "Id": "chart conclusion"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    "Id": "chart non-causal"</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>I see.</t>
   </si>
   <si>
-    <t>Ok, got it. So you think that {{.TargetFactor.FactorName}} really does not make a difference to performance. Now, suppose someone disagrees with you and thinks that {{.TargetFactor.FactorName}} does make a difference to performance in space, what would you say to them?</t>
-  </si>
-  <si>
     <t>Ok. Now, let's look again at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
   </si>
   <si>
@@ -169,15 +154,6 @@
     <t>Ok. So it seems that having different levels for {{.TargetFactor.FactorName}} give you different performance.</t>
   </si>
   <si>
-    <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} does make a difference to performance?</t>
-  </si>
-  <si>
-    <t>Ok, let me make sure I got that. Let's look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
-  </si>
-  <si>
-    <t>Ok, no problem. Let's see if we can figure it out together. Let's look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
-  </si>
-  <si>
     <t>So, what do you think? What does this tell you about whether {{.TargetFactor.FactorName}} makes a difference to performance?</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance?</t>
   </si>
   <si>
-    <t>makes a difference?</t>
-  </si>
-  <si>
     <t>Ok. I see. So for {{.TargetFactor.FactorName}}, which level do you think is best to have for performance?</t>
   </si>
   <si>
@@ -256,30 +229,12 @@
     <t>correct. see any differences?</t>
   </si>
   <si>
-    <t>non-causal. someone disagree.</t>
-  </si>
-  <si>
-    <t>correct. best and worst performance?</t>
-  </si>
-  <si>
     <t>hint. is there best level? best level?</t>
   </si>
   <si>
     <t>hint. have different performance.</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>record. see chart. makes a difference?</t>
   </si>
   <si>
@@ -406,18 +361,6 @@
     <t xml:space="preserve">                                "Id": "chart wrong non-causal different levels"</t>
   </si>
   <si>
-    <t xml:space="preserve">                            "Id": "chart correct non-causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart correct non-causal challenge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart correct non-causal conclusion see difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart correct non-causal explain not sure"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                "Id": "chart non-causal refers to chart"</t>
   </si>
   <si>
@@ -478,9 +421,6 @@
     <t>non-causal.correct.Q_someone_disagree.1</t>
   </si>
   <si>
-    <t>??Add</t>
-  </si>
-  <si>
     <t>non-causal.Q_why.2</t>
   </si>
   <si>
@@ -599,6 +539,30 @@
   </si>
   <si>
     <t>non-causal.assume_chart.2</t>
+  </si>
+  <si>
+    <t>non-causal.wrong.help.correct.MC_is_causal.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                "Id": "chart wrong non-causal correct best leve chart conclusion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  "Id": "chart not sure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  "Id": "chart wrong non-causal conclusion"</t>
+  </si>
+  <si>
+    <t>non-causal.wrong.help.correct.wrong.Q_best_worst.2.1.2</t>
+  </si>
+  <si>
+    <t>Ok. Now, Let's look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} for {{.TargetFactor.FactorName}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    "Id": "chart conclusion step by step"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  "Id": "chart correct causal explain step by step double check"</t>
   </si>
 </sst>
 </file>
@@ -630,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +703,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -749,7 +731,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="979">
+  <cellStyleXfs count="1149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1729,8 +1711,178 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1750,10 +1902,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="979">
+  <cellStyles count="1149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2243,6 +2397,91 @@
     <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2732,6 +2971,91 @@
     <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3061,10 +3385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3073,1131 +3397,822 @@
     <col min="2" max="2" width="52.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" style="18" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="B6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" customFormat="1">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="16" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" s="16" customFormat="1">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" s="16" customFormat="1">
+      <c r="A22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" customFormat="1">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" customFormat="1">
+      <c r="A25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" customFormat="1">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="28" spans="1:4" customFormat="1">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1">
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:4" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>191</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C29" s="18"/>
       <c r="D29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" customFormat="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>144</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C30" s="18"/>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" customFormat="1">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="16" customFormat="1">
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B33" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="B34" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
         <v>42</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="16" customFormat="1">
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="18" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="16" customFormat="1">
+      <c r="A50" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="16" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" s="16" customFormat="1">
-      <c r="A49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>164</v>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="16" customFormat="1">
-      <c r="A61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" s="16" customFormat="1">
-      <c r="A62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" s="16" customFormat="1">
-      <c r="A63" s="9" t="s">
-        <v>178</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="18"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="16" customFormat="1">
-      <c r="C66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" s="16" customFormat="1">
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" s="16" customFormat="1">
-      <c r="C68" s="18"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="C69" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="D70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" s="16" customFormat="1">
-      <c r="C76" s="18"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="16" customFormat="1">
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="1:8" s="16" customFormat="1">
-      <c r="C82" s="18"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+      <c r="C70" s="16"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" t="s">
-        <v>52</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" t="s">
-        <v>43</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="16" customFormat="1">
-      <c r="C90" s="18"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" s="16" customFormat="1">
-      <c r="C92" s="18"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" t="s">
-        <v>54</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" t="s">
-        <v>55</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" t="s">
-        <v>57</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
+      <c r="C71" s="16"/>
+      <c r="F71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4228,100 +4243,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>98</v>
+        <v>147</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>96</v>
+        <v>153</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4329,27 +4344,27 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>97</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4357,27 +4372,27 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4385,29 +4400,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>191</v>
+        <v>158</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25660" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="25660" windowHeight="14900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="workflowText.csv" sheetId="6" r:id="rId1"/>
+    <sheet name="Phase 3 in progress" sheetId="5" r:id="rId2"/>
+    <sheet name="Phase 2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,86 +21,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                  "Id": "chart correct non-causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "chart wrong causal conclusion try again"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "chart conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart wrong causal conclusion see difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart wrong causal conclusion lost"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "memo done"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart correct causal explain step by step double check"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "Id": "chart causal step by step assume refers to chart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  "Id": "chart conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      "Id": "chart wrong non-causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      "Id": "chart correct non-causal explain step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "Id": "chart refers to records"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart wrong causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart correct causal explain step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "Id": "chart non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart non-causal"</t>
-  </si>
-  <si>
     <t>Ok, I see. Based on the chart, you think that people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} and those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}} have the same performance.</t>
   </si>
   <si>
-    <t>So you think that people with these different levels of {{.TargetFactor.FactorName}} perform about the same.,</t>
-  </si>
-  <si>
     <t>Ok. Let me make sure I got that. If you look at all of the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$length := len $factor.Levels}}{{range $i, $v := $factor.Levels}}{{if gt $i 0}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v}}{{end}} for {{.TargetFactor.FactorName}}, do you see any differences in the performance between the people who have different levels of {{.TargetFactor.FactorName}}?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                              "Id": "chart wrong causal conclusion try again still wrong chart causal try again"</t>
-  </si>
-  <si>
     <t>I see. Now, Let me ask you, if those who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} for {{.TargetFactor.FactorName}} have the same kind of performance as those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}, does it make a difference what level of {{.TargetFactor.FactorName}} one has? Would it make a difference to their performance?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                  "Id":"chart wrong causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                  "Id": "chart wrong causal conclusion try again chart non-causal"</t>
-  </si>
-  <si>
     <t>Ok. So, if you look at the chart, does it look like people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} would do better or worse or about the same as those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}}?</t>
   </si>
   <si>
@@ -124,9 +59,6 @@
     <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} makes no difference to performance?</t>
   </si>
   <si>
-    <t>Ok, great. Now, let's write down what you found out here as a memo to the foundation. Don't forget to click \"Enter\" to submit it.</t>
-  </si>
-  <si>
     <t>Great! Thank you for the memo to the foundation. Let's move on to the next factor then.</t>
   </si>
   <si>
@@ -163,9 +95,6 @@
     <t>Ok, Let's look some more together. So, when you look at the chart, does it look like people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} would have better or worse or about the same performance as those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}}?</t>
   </si>
   <si>
-    <t xml:space="preserve"> "So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance?"</t>
-  </si>
-  <si>
     <t>So you think that people with these different levels of {{.TargetFactor.FactorName}} will perform differently.</t>
   </si>
   <si>
@@ -175,394 +104,1042 @@
     <t>Ok. I see. So for {{.TargetFactor.FactorName}}, which level do you think is best to have for performance?</t>
   </si>
   <si>
-    <t>non-causal. what is it about the chart that tells you?</t>
-  </si>
-  <si>
-    <t>non-causal. what makes you decide?</t>
-  </si>
-  <si>
-    <t>help. best and worst performance?</t>
-  </si>
-  <si>
-    <t>wrong. best and worst performance?</t>
-  </si>
-  <si>
-    <t>have same performance. does it make a difference what level. makes a difference?</t>
-  </si>
-  <si>
-    <t>causal. what makes you decide?</t>
-  </si>
-  <si>
     <t>I am not sure if I got that. So, you think {{.TargetFactor.FactorName}} makes a difference to performance. Now, what is it about the chart that tells you that {{.TargetFactor.FactorName}} matters to the performance?</t>
   </si>
   <si>
-    <t>causal. what is it about the chart that tells you?</t>
-  </si>
-  <si>
-    <t>help. MC: better or worse or the same?</t>
-  </si>
-  <si>
-    <t>correct. MC: better or worse or the same or not sure?</t>
-  </si>
-  <si>
-    <t>what makes you decide?</t>
-  </si>
-  <si>
-    <t>wrong. see any differences?</t>
-  </si>
-  <si>
-    <t>correct. have same performance.</t>
-  </si>
-  <si>
-    <t>correct. anything special about [0] level?</t>
-  </si>
-  <si>
-    <t>correct. best level?</t>
-  </si>
-  <si>
-    <t>wrong. best performance for [1] level?</t>
-  </si>
-  <si>
-    <t>wrong. anything special about [0] level?</t>
-  </si>
-  <si>
-    <t>correct. see any differences?</t>
-  </si>
-  <si>
-    <t>hint. is there best level? best level?</t>
-  </si>
-  <si>
-    <t>hint. have different performance.</t>
-  </si>
-  <si>
-    <t>record. see chart. makes a difference?</t>
-  </si>
-  <si>
     <t>causal</t>
   </si>
   <si>
-    <t>record. see chart. what does chart tells you?</t>
-  </si>
-  <si>
-    <t>MC: makes a difference?</t>
-  </si>
-  <si>
-    <t>have same performance. MC: makes a difference?</t>
-  </si>
-  <si>
-    <t>what does this tell you? MC: makes a difference?</t>
-  </si>
-  <si>
-    <t>have different performance. MC: makes a difference?</t>
-  </si>
-  <si>
-    <t>causal.Q_why.1</t>
-  </si>
-  <si>
-    <t>causal.assume_chart.1</t>
-  </si>
-  <si>
-    <t>causal.record.see_chart.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.Q_is_diff.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.wrong.Q_best_worst.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.Q_best_worst.1</t>
-  </si>
-  <si>
-    <t>MC_is_causal</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.wrong.Q_does_level_matter.1.1.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.wrong.MC_is_diff.1.1.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.correct.1.1.2</t>
-  </si>
-  <si>
     <t>non-causal</t>
   </si>
   <si>
-    <t>causal.wrong.correct.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Id": "show chart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Id": "chart conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "Id": "chart causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "Id": "chart causal explain unclear"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      "Id": "chart wrong causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart wrong causal conclusion see no difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong causal conclusion lost"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      "Id": "chart wrong causal conclusion try again"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                            "Id": "chart wrong causal conclusion try again chart non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                            "Id": "chart wrong causal conclusion try again still wrong chart causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong causal conclusion see difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong causal conclusion see the same try again"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      "Id": "chart correct causal explain step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "Id": "chart correct causal explain step by step double check"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart correct causal correct best level"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart correct causal correct best level challenge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "memo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "not best levels"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "Id": "chart non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "Id": "chart non-causal explain unclear"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "Id": "chart wrong non-causal explain step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart wrong non-causal wrong best levels"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart wrong non-causal different levels"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "Id": "chart non-causal refers to chart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          "Id": "chart not sure"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              "Id": "chart conclusion step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "Id": "chart causal step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          "Id": "chart causal step by step assume refers to chart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "Id": "chart not sure still"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          "Id": "chart non-causal maybe"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          "Id": "chart causal maybe"</t>
-  </si>
-  <si>
-    <t>causal.correct.Q_is_special_level_zero.1</t>
-  </si>
-  <si>
-    <t>causal.correct.MC_which_best_level.1</t>
-  </si>
-  <si>
-    <t>causal.correct.correct.Q_someone_disagree.1.1</t>
-  </si>
-  <si>
-    <t>causal.correct.correct.Q_how_chart_look_if_non-causal.1.1</t>
-  </si>
-  <si>
-    <t>causal.correct.correct.memo_done.1.1</t>
-  </si>
-  <si>
-    <t>causal.correct.wrong.Q_what_best_perf_level_one_1.2</t>
-  </si>
-  <si>
-    <t>causal.help.Q_what_about_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart wrong non-causal correct best level"</t>
-  </si>
-  <si>
     <t>Ok. So you think that having {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestLevel := index $factor.Levels 0}}{{$bestLevel.Text}} for {{.TargetFactor.FactorName}} is best for performance.</t>
   </si>
   <si>
-    <t>causal. correct. someone disagree?</t>
-  </si>
-  <si>
-    <t>correct. best level is.</t>
-  </si>
-  <si>
-    <t>non-causal.correct.Q_someone_disagree.1</t>
-  </si>
-  <si>
-    <t>non-causal.Q_why.2</t>
-  </si>
-  <si>
-    <t>non-causal.help.Q_what_about_chart.2</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.Q_is_special_level_zero.2</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.MC_is_and_which_best_level.2</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.correct.best_level.2.1</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.wrong.Q_best_worst.2.2</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.wrong.help.have_diff_perf.2.2</t>
-  </si>
-  <si>
-    <t>non-causal.correct.Q_is_diff.2</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.correct.1.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.wrong.Q_does_level_matter.1.2</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.wrong.MC_is_diff.1.2.1</t>
-  </si>
-  <si>
-    <t>non-causal.correct.correct.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart wrong causal conclusion see difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            "Id": "chart correct non-causal see no difference"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart wrong causal conclusion lost"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart wrong causal conclusion try again"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "chart correct non-causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong causal conclusion try again chart non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong causal conclusion try again still wrong chart causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "chart wrong causal conclusion try again still wrong chart causal try again"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      "Id":"chart wrong causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      "Id": "chart wrong causal conclusion try again chart non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              "Id": "chart correct non-causal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart correct non-causal conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart correct non-causal challenge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    "Id": "memo"</t>
-  </si>
-  <si>
-    <t>non-causal.correct.correct.Q_someone_disagree.2.3</t>
-  </si>
-  <si>
-    <t>non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3</t>
-  </si>
-  <si>
-    <t>help.Q_best_worst.3</t>
-  </si>
-  <si>
-    <t>help.MC_is_causal.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          "Id": "chart refers to records"</t>
-  </si>
-  <si>
-    <t>help.Q_why.3.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.help.same_perf.MC_is_diff.1.1</t>
-  </si>
-  <si>
-    <t>causal.wrong.correct.MC_is_same_perf_or_unsure.1</t>
-  </si>
-  <si>
-    <t>help.help.MC_is_same_perf.3.3</t>
-  </si>
-  <si>
-    <t>help.help.same_perf.MC_is_diff.3.3.1</t>
-  </si>
-  <si>
-    <t>help.help.not_same_perf.MC_is_diff.3.3.2</t>
-  </si>
-  <si>
     <t>Here is the chart for {{.TargetFactor.FactorName}}. Remember, other things may be contributing as well.</t>
   </si>
   <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>non-causal.assume_chart.2</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.correct.MC_is_causal.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                "Id": "chart wrong non-causal correct best leve chart conclusion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart not sure"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart wrong non-causal conclusion"</t>
-  </si>
-  <si>
-    <t>non-causal.wrong.help.correct.wrong.Q_best_worst.2.1.2</t>
-  </si>
-  <si>
     <t>Ok. Now, Let's look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} for {{.TargetFactor.FactorName}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    "Id": "chart conclusion step by step"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  "Id": "chart correct causal explain step by step double check"</t>
+    <t>Cov Phase</t>
+  </si>
+  <si>
+    <t>Prior beliefs</t>
+  </si>
+  <si>
+    <t>Before we get started, I want to know what your opinions are.</t>
+  </si>
+  <si>
+    <t>On the screen, tell me which of the factors you think will make a difference to the performance in space. When you are done, just hit "Enter".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    end prior beliefs</t>
+  </si>
+  <si>
+    <t>ANY_RESPONSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Prior beliefs levels</t>
+  </si>
+  <si>
+    <t>Ok, Now, for the factors that you thought would matter, tell me which level is best for performance.</t>
+  </si>
+  <si>
+    <t>Hit "Enter" when you are done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        end prior beliefs</t>
+  </si>
+  <si>
+    <t>Great. So we know that you think {{$length := len .Beliefs.CausalFactors }}{{if eq $length 4}}all factors matter{{else if .Beliefs.CausalFactors}}{{range $i, $v := .Beliefs.CausalFactors}}{{if $i}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v}}{{end}}{{if .Beliefs.HasMultipleCausalFactors}} matter{{- else}} matters{{- end}}{{- else}}none of the factors matters{{- end}} to performance in space.</t>
+  </si>
+  <si>
+    <t>Now, let's figure out whether those factors actually matter! Press "Enter" to continue when you are ready.</t>
+  </si>
+  <si>
+    <t>test record select</t>
+  </si>
+  <si>
+    <t>What I have in my database is a list of records of how the applicants performed. If you study the records carefully, you will be able to see which factors make a difference to performance and which don't.</t>
+  </si>
+  <si>
+    <t>Let's try it. On the screen, you can look for an applicant who you want to see. Just select a level for each factor, and the computer will find you an applicant who has all those levels and tell you his/her performance.</t>
+  </si>
+  <si>
+    <t>Ok, make your selection. Remember to click "Enter" when you are ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    test record result</t>
+  </si>
+  <si>
+    <t>You selected Record #{{.RecordNoOne.RecordNo}}, {{.RecordNoOne.RecordName}}. And you can see that the applicant's performance was {{.RecordNoOne.Performance}}.</t>
+  </si>
+  <si>
+    <t>Now that you know how to select a record, you can start figuring out whether each factor matters by looking through the records. Hit "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t>Select target factor</t>
+  </si>
+  <si>
+    <t>Which factor would you like to investigate now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    one or two records</t>
+  </si>
+  <si>
+    <t>Ok. Let's figure out whether {{.TargetFactor.FactorName}} matters.</t>
+  </si>
+  <si>
+    <t>How many records would you like to see? One or Two?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        choose one record</t>
+  </si>
+  <si>
+    <t>one record</t>
+  </si>
+  <si>
+    <t>Which record would you like to see?</t>
+  </si>
+  <si>
+    <t>On the screen, select a level for each factor, and the computer will find you an applicant with those levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            record result with no performance</t>
+  </si>
+  <si>
+    <t>So, you want to look at {{.RecordNoOne.RecordName}}, record #{{.RecordNoOne.RecordNo}}. Now, before I show you {{.RecordNoOne.FirstName}}'s performance. Can you tell me what you would be able to figure out by looking at this record?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                record with performance</t>
+  </si>
+  <si>
+    <t>Ok. The performance of the applicant you chose is {{.RecordNoOne.Performance}}. Now that you saw the performance. What did you find out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    is there enough information</t>
+  </si>
+  <si>
+    <t>Do you have enough information to say whether {{.TargetFactor.FactorName}} makes a difference to performance in space? Yes or No?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        enough information</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>What do you think {{.RecordNoOne.FirstName}}'s performance would have been if {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            will performance change</t>
+  </si>
+  <si>
+    <t>Do you think performance will go up, go down, or be the same?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                are you sure</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>Ok. Do you know for sure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    test it out</t>
+  </si>
+  <si>
+    <t>Why don't you test it out? Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        select record to compare</t>
+  </si>
+  <si>
+    <t>What record would you need to test what the performance would be if {{.RecordNoOne.FirstName}}'s {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead? Select a record on the screen that can help you find out if you were right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            one more same record selection</t>
+  </si>
+  <si>
+    <t>Two records non-varying</t>
+  </si>
+  <si>
+    <t>You selected the same record twice.</t>
+  </si>
+  <si>
+    <t>You looked at Record #{{.RecordNoOne.RecordNo}} and saw that {{.RecordNoOne.FirstName}}'s performance was {{.RecordNoOne.Performance}}. Why don't you try to find a different record to find out what {{.RecordNoOne.FirstName}}'s performance would have been if {{.RecordNoOne.FirstName}}'s {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead? Press "Enter" when you are ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                select record to compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            one more record result with performance</t>
+  </si>
+  <si>
+    <t>So, you want to compare {{.RecordNoOne.RecordName}}, record #{{.RecordNoOne.RecordNo}} with {{.RecordNoTwo.RecordName}}, record #{{.RecordNoTwo.RecordNo}}. You can see that {{.RecordNoOne.FirstName}} has {{.RecordNoOne.Performance}} and {{.RecordNoTwo.FirstName}} has {{.RecordNoTwo.Performance}}. Now that you saw their performances. What did you find out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                two records conclusion</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        not enough information</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Ok, let's see how we can figure out whether {{.TargetFactor.FactorName}} makes a difference to performance in space.</t>
+  </si>
+  <si>
+    <t>What do you think {{.RecordNoOne.FirstName}}'s performance would have been if {{.RecordNoOne.FirstName}}'s {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            are you sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        choose two records</t>
+  </si>
+  <si>
+    <t>two records</t>
+  </si>
+  <si>
+    <t>Which records would you like to see?</t>
+  </si>
+  <si>
+    <t>On the screen, choose the records you want that will help you figure out whether {{.TargetFactor.FactorName}} makes a difference to performance in space. Select a level for each factor, and the computer will find you the applicants with those levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            two same records selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            two record results with no performance</t>
+  </si>
+  <si>
+    <t>So, you want to look at {{.RecordNoOne.RecordName}}, record #{{.RecordNoOne.RecordNo}} and {{.RecordNoTwo.RecordName}}, record #{{.RecordNoTwo.RecordNo}}. Now, before I show you the applicants' performances. Tell me, what are you going to find out by comparing these two records?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                two records with performance</t>
+  </si>
+  <si>
+    <t>Ok. The grades of the applicants you chose are {{.RecordNoOne.Performance}} and {{.RecordNoTwo.Performance}}. Now that you saw their performances. What did you find out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    two records conclusion</t>
+  </si>
+  <si>
+    <t>Does {{.TargetFactor.FactorName}} make a difference to performance in space? Yes or No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        two records causal</t>
+  </si>
+  <si>
+    <t>Ok. So you think that {{.TargetFactor.FactorName}} makes a difference to performance in space. What makes you say that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            target non-varying selection</t>
+  </si>
+  <si>
+    <t>Target factor non-varying</t>
+  </si>
+  <si>
+    <t>I see. But what do you think {{.RecordNoOne.FirstName}}'s performance would have been if {{.RecordNoOne.FirstName}} had {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead for {{.TargetFactor.FactorName}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                will performance change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            two records uncontrolled causal</t>
+  </si>
+  <si>
+    <t>Two records uncontrolled</t>
+  </si>
+  <si>
+    <t>That may be true. But can we really tell for sure that {{.TargetFactor.FactorName}} makes a difference to performance? Couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? Can you really know for sure that {{.TargetFactor.FactorName}}  gave {{.RecordNoOne.FirstName}} a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records uncontrolled sure causal</t>
+  </si>
+  <si>
+    <t>Ok. Now, let's look for more records and see what we find. Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    choose two records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records uncontrolled unsure causal</t>
+  </si>
+  <si>
+    <t>How can we be 100% sure? Can you find a better record to compare {{.RecordNoOne.FirstName}} with so that we know whether {{.TargetFactor.FactorName}} really makes a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>What would we need? Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    select a better record to compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            two records controlled causal check causal</t>
+  </si>
+  <si>
+    <t>Two records controlled</t>
+  </si>
+  <si>
+    <t>Ok, so what would {{.RecordNoOne.FirstName}}'s performance likely have been if {{.RecordNoOne.FirstName}} had {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead for {{.TargetFactor.FactorName}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                controlled wrong causal conclusion</t>
+  </si>
+  <si>
+    <t>But {{.RecordNoOne.FirstName}} has the same grade as {{.RecordNoTwo.FirstName}}. How can you tell that {{.TargetFactor.FactorName}} makes a difference to performance if they have the same grade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    controlled not sure try again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records controlled causal challenge</t>
+  </si>
+  <si>
+    <t>I see. But does it have to be {{.TargetFactor.FactorName}} that is making the difference? Could someone say that {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}} because {{.RecordNoOne.FirstName}} has {{$otherFactorId := index .NonVaryingFactorIds 0}}{{$otherFactor := index .RecordNoOne.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    controlled are you sure</t>
+  </si>
+  <si>
+    <t>Ok. Can you be sure that {{.TargetFactor.FactorName}} makes a difference to performance in space then?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        controlled sure</t>
+  </si>
+  <si>
+    <t>I see! Ok. Now, Suppose someone disagrees with you and doesn't think that {{.TargetFactor.FactorName}} makes a difference to performance in space. What would you say to them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            memo</t>
+  </si>
+  <si>
+    <t>Ok, great, so you are sure then.</t>
+  </si>
+  <si>
+    <t>Ok. Let's write down what you found out here as a memo to the foundation. Don't forget to click "Enter" to submit it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                memo done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        controlled not sure</t>
+  </si>
+  <si>
+    <t>No problem. Tell me what makes you feel unsure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            controlled not sure try again</t>
+  </si>
+  <si>
+    <t>Ok. Got it. How about we try and look at some other records and see if you can be more sure? Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                choose two records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        two records noncausal</t>
+  </si>
+  <si>
+    <t>Ok. So you think that {{.TargetFactor.FactorName}} does not make a difference to performance. What makes you say that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            target non-varying selection non-causal</t>
+  </si>
+  <si>
+    <t>I see. But what do you think {{.RecordNoOne.FirstName}}'s performance would have been if {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead? Would the performance still be the same?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            two records uncontrolled non-causal</t>
+  </si>
+  <si>
+    <t>That may be true. But {{.TargetFactor.FactorName}} and {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.FactorName}} are both different in the two records. {{if eq .RecordNoOne.Performance .RecordNoTwo.Performance}}Can you really know why their grades are the same? {{end}}Maybe one makes the grade go up and the other makes it go down so they offset each other? Can you really know for sure that {{.TargetFactor.FactorName}} does not make a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                enough information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            two records controlled non-causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                controlled wrong non-causal conclusion</t>
+  </si>
+  <si>
+    <t>But {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}. What do you think maybe giving {{.RecordNoOne.FirstName}} a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                controlled non-causal sure</t>
+  </si>
+  <si>
+    <t>I see! Ok. Now, Suppose someone disagrees with you and thinks that {{.TargetFactor.FactorName}} really does make a difference to performance in space. What would you say to them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        two records causal unsure</t>
+  </si>
+  <si>
+    <t>It's ok that you are not sure wheather {{.TargetFactor.FactorName}} makes a difference to performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal unsure target non-varying selection</t>
+  </si>
+  <si>
+    <t>Let's talk about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            two records target varying causal unsure</t>
+  </si>
+  <si>
+    <t>Let's look at these records again. What do you think these records tell us?</t>
+  </si>
+  <si>
+    <t>Do you think that, Yes, they do show that {{.TargetFactor.FactorName}} makes a difference to performance in space? Or No, these records really show that {{.TargetFactor.FactorName}} does not matter? Or you just can't tell with these records?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records maybe causal</t>
+  </si>
+  <si>
+    <t>Ok. So you think that these records show that {{.TargetFactor.FactorName}} may make a difference.</t>
+  </si>
+  <si>
+    <t>Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    two records uncontrolled maybe causal</t>
+  </si>
+  <si>
+    <t>What about these records that tells you {{.TargetFactor.FactorName}} makes a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        two records uncontrolled maybe causal question</t>
+  </si>
+  <si>
+    <t>That may be true. But couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? How can we be 100% sure? Let's see if you can find a better record to compare {{.RecordNoOne.FirstName}} with so that we know whether {{.TargetFactor.FactorName}} really makes a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            select a better record to compare</t>
+  </si>
+  <si>
+    <t>Select a record on the screen to compare {{.RecordNoOne.FirstName}} with so that we know what {{.RecordNoOne.FirstName}}'s performance would have been if {{.RecordNoOne.FirstName}}'s {{.TargetFactor.FactorName}} was {{$factorId := .TargetFactor.FactorId}}{{$factor := index .RecordNoOne.FactorLevels $factorId}}{{$factor.OppositeLevel}} instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                one more same record selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                one more record result with performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    two records controlled maybe causal</t>
+  </si>
+  <si>
+    <t>What about these records that tells you {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        controlled wrong causal conclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        two records controlled maybe causal challenge</t>
+  </si>
+  <si>
+    <t>I see. Does it have to be {{.TargetFactor.FactorName}} that is making the difference? Could someone say that {{.RecordNoOne.FirstName}} has a different grade from {{.RecordNoTwo.FirstName}} because {{.RecordNoOne.FirstName}} has {{$otherFactorId := index .RecordNoOne.NonVaryingFactorIds 0}}{{$otherFactor := index .RecordNoOne.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            two records controlled causal check causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records maybe non-causal</t>
+  </si>
+  <si>
+    <t>Ok. So you think that these records show that {{.TargetFactor.FactorName}} does not make a difference to performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    two records uncontrolled maybe non-causal</t>
+  </si>
+  <si>
+    <t>What about these records that tells you {{.TargetFactor.FactorName}} does not make a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        two records uncontrolled maybe non-causal question</t>
+  </si>
+  <si>
+    <t>How can we be 100% sure? Let's see if you can find a better record to compare {{.RecordNoOne.FirstName}} with so that we know whether {{.TargetFactor.FactorName}} really makes a difference to performance in space?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    two records controlled maybe non-causal</t>
+  </si>
+  <si>
+    <t>What about these records that tells you {{.TargetFactor.FactorName}} does not make a difference?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        controlled wrong non-causal conclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        two records controlled maybe non-causal challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                two records no conclusion</t>
+  </si>
+  <si>
+    <t>Ok. So you don't think these records help us figure out whether {{.TargetFactor.FactorName}} makes a difference to performance in space.</t>
+  </si>
+  <si>
+    <t>What is it about these records that makes it hard to decide whether {{.TargetFactor.FactorName}} makes a difference? What do you think we would need instead to figure out whether {{.TargetFactor.FactorName}} makes a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    pick new record instead</t>
+  </si>
+  <si>
+    <t>Let's pick some new records and see then. Press "Enter" when you are ready to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        choose two records</t>
+  </si>
+  <si>
+    <t>Chart Phase</t>
+  </si>
+  <si>
+    <t>intro to chart</t>
+  </si>
+  <si>
+    <t>Good job with your investigation so far!</t>
+  </si>
+  <si>
+    <t>You have looked at different records to figure out which factors matter to performance in space. But so far, we only looked at one or two applicants at a time. Let me ask you, do you think an organization should make their decisions based on what we see in just one or two people? What might be a problem with that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    intro need chart</t>
+  </si>
+  <si>
+    <t>Yeah. It would probably be a good idea if we can see if what we found before is actually true for a lot of people. Then we would really be able to make a good decision.</t>
+  </si>
+  <si>
+    <t>But it's a little hard to see the records side by side if there are a lot of them. Luckily, there is a way for us to see them better. Press "Enter" to continue and I will show you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        intro show all</t>
+  </si>
+  <si>
+    <t>You see, this chart here shows all of the applicants. Each diamond is the same as one record you saw before. Do you see that they have different performance levels? What are performance levels you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            intro unclear highlight performance axis</t>
+  </si>
+  <si>
+    <t>Ok. So on the left side of the chart, you can see a list of performance levels, from A to E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                intro highlight one record performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            intro unsure highlight performance axis</t>
+  </si>
+  <si>
+    <t>NOT_SURE_RESPONSE</t>
+  </si>
+  <si>
+    <t>Look to the left side of the chart. Do you see a list of performance levels? What are the performances you see on this chart?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                intro unclear highlight performance axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            intro highlight performance axis</t>
+  </si>
+  <si>
+    <t>list performance</t>
+  </si>
+  <si>
+    <t>Good. So on the left side of the chart, you can see a list of performance levels, from A to E.</t>
+  </si>
+  <si>
+    <t>Great. Now, let's look at the chart more closely. Can you click on one of the diamonds that has a B performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    intro highlight one record y-axis</t>
+  </si>
+  <si>
+    <t>Ok, try looking to the left side of the chart, what performance level is this record on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        intro highlight one record explain</t>
+  </si>
+  <si>
+    <t>You selected Record #{{.Record.RecordNo}} with performance {{.Record.Performance}}. Just like all the cases you have looked at before. You can see the levels of this person's Fitness, Parents' Health, and other factors. Can you tell me what the education level of this applicant is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro highlight one record explain everything</t>
+  </si>
+  <si>
+    <t>Record #{{.Record.RecordNo}} with performance {{.Record.Performance}} has {{.Record.FactorLevels.education.SelectedLevel}} for Education. What did you see this person's level of Fitness is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro fitness only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro fitness only</t>
+  </si>
+  <si>
+    <t>selected level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        intro highlight one record</t>
+  </si>
+  <si>
+    <t>selected performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    intro highlight one record</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>You got it. You selected Record #{{.Record.RecordNo}}. Just like all the cases you have looked at before. You can see the levels of this person's Fitness, Parents' Health, and other factors. What is the Education level of this applicant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        intro highlight one record education wrong</t>
+  </si>
+  <si>
+    <t>Seems like you are having trouble finding the information. Let's try a different one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro highlight one record try another record</t>
+  </si>
+  <si>
+    <t>Can you click on one of the diamonds that has a C performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro highlight one record y-axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro highlight one record</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        intro fitness only</t>
+  </si>
+  <si>
+    <t>Good. Now, let's look at a different chart. Here, we changed the chart so that we see only some of the people. Can you tell me what level of Fitness do all of these people have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro fitness only average wrong</t>
+  </si>
+  <si>
+    <t>Look at the bottom of the chart. What level of Fitness does it say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro fitness only why diff performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro fitness only why diff performance</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Ok, good. They all have Average Fitness. So why do you think that even though all of these people have Average Fitness but they have different performance? For example, some have B and some have E. Why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro fitness only explain diff performance</t>
+  </si>
+  <si>
+    <t>Ok. So, maybe because other things are also making a difference. Let's make sure we understand what's going on here.</t>
+  </si>
+  <si>
+    <t>Here, I have selected two of the diamonds to show you these records. Take a look at these two records. What are the levels of their Fitness?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    intro fitness only diff performance same fitness level</t>
+  </si>
+  <si>
+    <t>Look to the bottom of the chart, what does it say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        intro fitness only explain more diff performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    intro fitness only explain more diff performance</t>
+  </si>
+  <si>
+    <t>Ok. So they both have Average. But they have different performances. What might be giving them different performances here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        intro fitness only explain more more diff performance</t>
+  </si>
+  <si>
+    <t>Take a look at the two records more closely and you can see that, even though they have the same Fitness, other things could be different. What do you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            intro fitness only confirm explain diff performance</t>
+  </si>
+  <si>
+    <t>Ok, good. So we can see that, here, their levels of Education and Parents' Health are both different. So that might be a reason why their performance are different.</t>
+  </si>
+  <si>
+    <t>Now that we understand how to read the charts, let's use these charts to investigate which factors make a difference and see if we come to the same conclusions as before. Press "Enter" when you are ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        intro fitness only confirm explain diff performance</t>
+  </si>
+  <si>
+    <t>other things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                intro fitness only why again diff performance</t>
+  </si>
+  <si>
+    <t>Seems like you are not sure. That's ok. So we know that they all have Average Fitness but that they still have different performance. What could be a reason why these people have different performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    intro fitness only explain diff performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            intro fitness only average unclear</t>
+  </si>
+  <si>
+    <t>UNCLEAR_RESPONSE</t>
+  </si>
+  <si>
+    <t>I am not really sure if I got that. Look at the bottom of the chart. What level of Fitness does it say? You may also want to check your spelling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    show chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            causal.Q_why.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                causal.help.Q_what_about_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.wrong.correct.MC_is_same_perf_or_unsure.1</t>
+  </si>
+  <si>
+    <t>no difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.wrong.help.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.wrong.help.same_perf.MC_is_diff.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.wrong.help.wrong.Q_does_level_matter.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.wrong.help.wrong.MC_is_diff.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            causal.wrong.help.correct.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.wrong.help.correct.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        non-causal.correct.correct.Q_someone_disagree.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.wrong.wrong.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.correct.correct.2.3</t>
+  </si>
+  <si>
+    <t>the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.correct.correct.Q_someone_disagree.2.3</t>
+  </si>
+  <si>
+    <t>Ok, so it looks like you think that {{.TargetFactor.FactorName}} really does not make a difference to performance. Now, suppose someone disagrees with you and thinks that {{.TargetFactor.FactorName}} does make a difference to performance in space, what would you say to them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3</t>
+  </si>
+  <si>
+    <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} does make a difference to performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.wrong.wrong.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.wrong.help.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.correct.Q_is_special_level_zero.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.correct.MC_which_best_level.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.correct.correct.Q_someone_disagree.1.1</t>
+  </si>
+  <si>
+    <t>best level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.correct.correct.Q_how_chart_look_if_non-causal.1.1</t>
+  </si>
+  <si>
+    <t>Ok, great. Now, let's write down what you found out here as a memo to the foundation. Don't forget to click "Enter" to submit it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        memo done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.correct.wrong.Q_what_best_perf_level_one_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.correct.MC_which_best_level.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                causal.assume_chart.1</t>
+  </si>
+  <si>
+    <t>maybe about chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                causal.record.see_chart.1</t>
+  </si>
+  <si>
+    <t>maybe about record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                non-causal.help.Q_what_about_chart.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    non-causal.wrong.Q_is_special_level_zero.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        non-causal.wrong.help.MC_is_and_which_best_level.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.wrong.help.correct.best_level.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.wrong.help.correct.MC_is_causal.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.correct.MC_which_best_level.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    non-causal.wrong.help.correct.wrong.Q_best_worst.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        help.MC_is_causal.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    help.Q_best_worst.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.wrong.help.wrong.Q_best_worst.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.wrong.help.wrong.help.have_diff_perf.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    non-causal.correct.Q_is_diff.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                non-causal.assume_chart.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            help.Q_best_worst.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                help.MC_is_causal.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    help.Q_why.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.assume_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.correct.Q_is_special_level_zero.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.record.see_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    help.help.MC_is_same_perf.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        help.help.same_perf.MC_is_diff.3.3.1</t>
+  </si>
+  <si>
+    <t>So you think that people with these different levels of {{.TargetFactor.FactorName}} perform about the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.Q_why.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        help.help.not_same_perf.MC_is_diff.3.3.2</t>
+  </si>
+  <si>
+    <t>You’ve worked hard to figure out what factors mattered to the applicants’ performance. Now, let’s make a summary for what you have figured out so that you can make use of that information later. If you cannot remember what you figured out and needed to look at a particular chart at any time, just click on the button that will show the chart for the factor.</t>
+  </si>
+  <si>
+    <t>Ok, Now, for the factors that you thought would matter, tell me which level is best for performance. Again, if you cannot remember what you figured out and needed to look at a particular chart at any time, just click on the button that will show the chart for the factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        end_summary</t>
+  </si>
+  <si>
+    <t>finding_summary</t>
+  </si>
+  <si>
+    <t>Here is a chart for {{.TargetFactor.FactorName}}. What do you think? Does {{.TargetFactor.FactorName}} make a difference?</t>
+  </si>
+  <si>
+    <t>What you have selected seems to be different from your previous memos, let's look at some of the charts again together to refresh our memory.</t>
+  </si>
+  <si>
+    <t>Ok, remind me what made you decide that?</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>has more wrong factor</t>
+  </si>
+  <si>
+    <t>no more wrong factor</t>
+  </si>
+  <si>
+    <t>Great. Let's look at this other factor.</t>
+  </si>
+  <si>
+    <t>Ok, so you think that {{.TargetFactor.FactorName}} {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{if $factor.IsBeliefCausal}}makes{{else}}does not make{{end}} a difference to performance. What makes you decide that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wrong.diff_from_memos.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            wrong.correct.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                wrong.next_wrong_factor.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            wrong.wrong.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    all_correct.Q_best_levels.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wrong.show_chart.MC_is_factor_causal.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                all_correct.Q_best_levels.2</t>
+  </si>
+  <si>
+    <t>Ok. Let me make sure I got that. Now, if you look at the chart, does it look like people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} would do better or worse or about the same as those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                wrong.wrong.MC_is_same_perf.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong.wrong.correct.1.2.2</t>
+  </si>
+  <si>
+    <t>I see. Let's look at this more carefully together.</t>
+  </si>
+  <si>
+    <t>Look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong.wrong.wrong.Q_best_worst.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong.wrong.wrong.MC_is_causal.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             wrong.wrong.wrong.correct.1.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong.next_wrong_factor.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                all_correct.Q_best_levels.2</t>
+  </si>
+  <si>
+    <t>Ok, so you think that {{.TargetFactor.FactorName}} {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{if $factor.IsBeliefCausal}}makes{{else}}does not make{{end}} a difference to performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    wrong.wrong.wrong.MC_is_causal.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             wrong.wrong.wrong.wrong.1.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong.wrong.wrong.wrong.causal.1.2.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong.wrong.wrong.wrong.non-causal.1.2.1.2.1</t>
+  </si>
+  <si>
+    <t>Now, remember that when you look at the different levels of {{.TargetFactor.FactorName}} on the chart before, you noticed that those who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, their best performance was A but those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} did not get any A performance. So, you thought that having different levels for {{.TargetFactor.FactorName}} would give you different performance.</t>
+  </si>
+  <si>
+    <t>Now, remember that when you look at the different levels of {{.TargetFactor.FactorName}} on the chart before, you noticed that the best was always A and the worst was always E for the levels? So, you thought that it didn't really matter which level to have for {{.TargetFactor.FactorName}}.</t>
+  </si>
+  <si>
+    <t>Great. So you found that {{$length := len .Beliefs.CausalFactors }}{{if eq $length 4}}all factors matter{{else if .Beliefs.CausalFactors}}{{range $i, $v := .Beliefs.CausalFactors}}{{if $i}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v}}{{end}}{{if .Beliefs.HasMultipleCausalFactors}} matter{{- else}} matters{{- end}}{{- else}}none of the factors matters{{- end}} to performance in space.</t>
+  </si>
+  <si>
+    <t>You’ve worked hard to figure out what factors mattered to the applicants’ performance. Now, you can use your knowledge to predict how well they will do. I have some new applicants here. Can you predict how well they will do? Then you can choose a best team of five.</t>
   </si>
 </sst>
 </file>
@@ -594,132 +1171,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000090"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -731,7 +1188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1149">
+  <cellStyleXfs count="1253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1881,33 +2338,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1149">
+  <cellStyles count="1253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2482,6 +3021,58 @@
     <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3056,6 +3647,58 @@
     <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3385,834 +4028,2567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="90.5" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D76" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>245</v>
+      </c>
+      <c r="E112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" t="s">
+        <v>273</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" t="s">
+        <v>283</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" t="s">
+        <v>303</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>306</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>308</v>
+      </c>
+      <c r="C160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>309</v>
+      </c>
+      <c r="C161" t="s">
+        <v>294</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" t="s">
+        <v>38</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" t="s">
+        <v>301</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>318</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>320</v>
+      </c>
+      <c r="C178" t="s">
+        <v>273</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" t="s">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>322</v>
+      </c>
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>323</v>
+      </c>
+      <c r="C181" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>324</v>
+      </c>
+      <c r="C182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>328</v>
+      </c>
+      <c r="C186" t="s">
+        <v>273</v>
+      </c>
+      <c r="D186" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" t="s">
+        <v>283</v>
+      </c>
+      <c r="D187" t="s">
+        <v>330</v>
+      </c>
+      <c r="E187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" customFormat="1">
-      <c r="A18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" customFormat="1">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="16" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" s="16" customFormat="1">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" s="16" customFormat="1">
-      <c r="A22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" customFormat="1">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" customFormat="1">
-      <c r="A25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" customFormat="1">
-      <c r="A26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" customFormat="1">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" customFormat="1">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" customFormat="1">
-      <c r="A29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" customFormat="1">
-      <c r="A30" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190">
         <v>6</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" customFormat="1">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" customFormat="1">
-      <c r="A32" s="8" t="s">
+      <c r="B190" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
         <v>7</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="16" customFormat="1">
-      <c r="A50" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="F71"/>
+      <c r="B191" t="s">
+        <v>331</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>332</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4227,202 +6603,1717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="4" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <pane ySplit="2960" topLeftCell="A106" activePane="bottomLeft"/>
+      <selection activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="M130" sqref="M130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="39.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>268</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s">
+        <v>273</v>
+      </c>
+      <c r="L45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" t="s">
+        <v>283</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>286</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>288</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>289</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="K60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>292</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+      <c r="K63" t="s">
+        <v>294</v>
+      </c>
+      <c r="L63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>299</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+      <c r="K69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" t="s">
+        <v>303</v>
+      </c>
+      <c r="L70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="K71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="K73" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="K75" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="K76" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="K80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+      <c r="K81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>315</v>
+      </c>
+      <c r="K82" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="K83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="K84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>318</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="K86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="K87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>290</v>
+      </c>
+      <c r="K88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>319</v>
+      </c>
+      <c r="K89" t="s">
+        <v>301</v>
+      </c>
+      <c r="L89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>307</v>
+      </c>
+      <c r="K90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>318</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>302</v>
+      </c>
+      <c r="K92" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="K93" t="s">
+        <v>273</v>
+      </c>
+      <c r="L93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+      <c r="K94" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>322</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>323</v>
+      </c>
+      <c r="K96" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="K97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>326</v>
+      </c>
+      <c r="K99" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>327</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>328</v>
+      </c>
+      <c r="K101" t="s">
+        <v>273</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>329</v>
+      </c>
+      <c r="K102" t="s">
+        <v>283</v>
+      </c>
+      <c r="L102" t="s">
+        <v>330</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>332</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="K105" t="s">
+        <v>38</v>
+      </c>
+      <c r="L105" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="M105" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="K106" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>337</v>
+      </c>
+      <c r="L109" t="s">
+        <v>334</v>
+      </c>
+      <c r="M109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>347</v>
+      </c>
+      <c r="K110" t="s">
+        <v>38</v>
+      </c>
+      <c r="L110" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="B111" t="s">
+        <v>352</v>
+      </c>
+      <c r="K111" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>171</v>
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="K112" t="s">
+        <v>341</v>
+      </c>
+      <c r="L112" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>349</v>
+      </c>
+      <c r="K113" t="s">
+        <v>343</v>
+      </c>
+      <c r="L113" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+      <c r="K114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>350</v>
+      </c>
+      <c r="K115" t="s">
+        <v>342</v>
+      </c>
+      <c r="L115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>355</v>
+      </c>
+      <c r="K116" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>359</v>
+      </c>
+      <c r="K117" t="s">
+        <v>342</v>
+      </c>
+      <c r="L117" t="s">
+        <v>357</v>
+      </c>
+      <c r="M117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>360</v>
+      </c>
+      <c r="K118" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>361</v>
+      </c>
+      <c r="K119" t="s">
+        <v>341</v>
+      </c>
+      <c r="L119" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="K120" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>363</v>
+      </c>
+      <c r="K121" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>366</v>
+      </c>
+      <c r="K122" t="s">
+        <v>342</v>
+      </c>
+      <c r="L122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>365</v>
+      </c>
+      <c r="K124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>368</v>
+      </c>
+      <c r="K125" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>365</v>
+      </c>
+      <c r="K126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="K127" t="s">
+        <v>341</v>
+      </c>
+      <c r="L127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="K128" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>351</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>335</v>
+      </c>
+      <c r="M129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>336</v>
+      </c>
+      <c r="K130" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130" t="s">
+        <v>371</v>
+      </c>
+      <c r="M130" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25660" windowHeight="14900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2800" yWindow="120" windowWidth="23080" windowHeight="14800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="workflowText.csv" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="377">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -1043,9 +1043,6 @@
     <t>What you have selected seems to be different from your previous memos, let's look at some of the charts again together to refresh our memory.</t>
   </si>
   <si>
-    <t>Ok, remind me what made you decide that?</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
@@ -1079,9 +1076,6 @@
     <t xml:space="preserve">    all_correct.Q_best_levels.2</t>
   </si>
   <si>
-    <t xml:space="preserve">        wrong.show_chart.MC_is_factor_causal.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">                all_correct.Q_best_levels.2</t>
   </si>
   <si>
@@ -1091,55 +1085,73 @@
     <t xml:space="preserve">                wrong.wrong.MC_is_same_perf.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">                    wrong.wrong.correct.1.2.2</t>
-  </si>
-  <si>
-    <t>I see. Let's look at this more carefully together.</t>
-  </si>
-  <si>
     <t>Look at the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, what are the best and worst performance for these people? And what about the people who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}? what are the best and worst performance for those people?</t>
   </si>
   <si>
-    <t xml:space="preserve">                    wrong.wrong.wrong.Q_best_worst.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        wrong.wrong.wrong.MC_is_causal.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             wrong.wrong.wrong.correct.1.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                wrong.next_wrong_factor.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                all_correct.Q_best_levels.2</t>
-  </si>
-  <si>
     <t>Ok, so you think that {{.TargetFactor.FactorName}} {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{if $factor.IsBeliefCausal}}makes{{else}}does not make{{end}} a difference to performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    wrong.wrong.wrong.MC_is_causal.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             wrong.wrong.wrong.wrong.1.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                wrong.wrong.wrong.wrong.causal.1.2.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                wrong.wrong.wrong.wrong.non-causal.1.2.1.2.1</t>
-  </si>
-  <si>
     <t>Now, remember that when you look at the different levels of {{.TargetFactor.FactorName}} on the chart before, you noticed that those who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}}, their best performance was A but those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} did not get any A performance. So, you thought that having different levels for {{.TargetFactor.FactorName}} would give you different performance.</t>
   </si>
   <si>
     <t>Now, remember that when you look at the different levels of {{.TargetFactor.FactorName}} on the chart before, you noticed that the best was always A and the worst was always E for the levels? So, you thought that it didn't really matter which level to have for {{.TargetFactor.FactorName}}.</t>
   </si>
   <si>
-    <t>Great. So you found that {{$length := len .Beliefs.CausalFactors }}{{if eq $length 4}}all factors matter{{else if .Beliefs.CausalFactors}}{{range $i, $v := .Beliefs.CausalFactors}}{{if $i}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v}}{{end}}{{if .Beliefs.HasMultipleCausalFactors}} matter{{- else}} matters{{- end}}{{- else}}none of the factors matters{{- end}} to performance in space.</t>
-  </si>
-  <si>
-    <t>You’ve worked hard to figure out what factors mattered to the applicants’ performance. Now, you can use your knowledge to predict how well they will do. I have some new applicants here. Can you predict how well they will do? Then you can choose a best team of five.</t>
+    <t>Ok, looks like you have changed your mind on {{.TargetFactor.FactorName}}. That is fine. Now, tell me again, what made you decide that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        wrong.wrong.wrong.MC_is_causal.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    all_correct.Q_best_levels.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    wrong.next_wrong_factor.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong.wrong.non-causal.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong.wrong.wrong.Q_best_worst.1.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            wrong.wrong.wrong.MC_is_causal.1.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong.wrong.wrong.correct.1.2.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong.wrong.wrong.wrong.1.2.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    wrong.wrong.wrong.wrong.causal.1.2.1.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    wrong.wrong.wrong.wrong.non-causal.1.2.1.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong.wrong.causal.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong.wrong.correct.1.2.1.2</t>
+  </si>
+  <si>
+    <t>Ok. Let's look at this more carefully together.</t>
+  </si>
+  <si>
+    <t>So you think that their performance would be the same.</t>
+  </si>
+  <si>
+    <t>So you think that their performance would be different.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wrong.show_chart.MC_is_causal.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   wrong.show_chart.MC_is_causal.1</t>
+  </si>
+  <si>
+    <t>Great. Now you are ready for the next step. Press \"Enter\" to continue.</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1200,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1253">
+  <cellStyleXfs count="1395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2446,7 +2600,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1253">
+  <cellStyles count="1395">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3073,6 +3227,77 @@
     <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3699,6 +3924,77 @@
     <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6626,275 +6922,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A2:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <pane ySplit="2960" topLeftCell="A106" activePane="bottomLeft"/>
-      <selection activeCell="B84" sqref="B84"/>
-      <selection pane="bottomLeft" activeCell="M130" sqref="M130"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="860" topLeftCell="A126" activePane="bottomLeft"/>
+      <selection activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="39.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="M4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>208</v>
+      </c>
+      <c r="L8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K15" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K17" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K19" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K20" t="s">
         <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6902,376 +7187,376 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
         <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="M27" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
-      </c>
-      <c r="M31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s">
-        <v>208</v>
-      </c>
-      <c r="L33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
-      </c>
-      <c r="L35" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="K36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" t="s">
-        <v>53</v>
+      <c r="K37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
-      </c>
-      <c r="K42" t="s">
-        <v>38</v>
+        <v>267</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K43" t="s">
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
-      </c>
-      <c r="K48" t="s">
-        <v>38</v>
+        <v>275</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
+        <v>276</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -7279,121 +7564,121 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
+      <c r="L52" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
-      </c>
-      <c r="K53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" t="s">
-        <v>8</v>
+        <v>280</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" t="s">
         <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>274</v>
-      </c>
-      <c r="K54" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K55" t="s">
-        <v>283</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K56" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="L56" t="s">
-        <v>285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K57" t="s">
         <v>38</v>
       </c>
       <c r="L57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K58" t="s">
         <v>38</v>
+      </c>
+      <c r="L58" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K59" t="s">
         <v>38</v>
@@ -7404,130 +7689,130 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K60" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>9</v>
+        <v>290</v>
+      </c>
+      <c r="K61" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
-      </c>
-      <c r="K62" t="s">
-        <v>38</v>
+        <v>291</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K63" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K64" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="L64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="K65" t="s">
         <v>38</v>
       </c>
       <c r="L65" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="K66" t="s">
         <v>38</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K67" t="s">
         <v>38</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K68" t="s">
         <v>38</v>
+      </c>
+      <c r="L68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K69" t="s">
-        <v>301</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -7535,122 +7820,122 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s">
-        <v>303</v>
-      </c>
-      <c r="L70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K71" t="s">
-        <v>38</v>
+        <v>303</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>16</v>
+        <v>304</v>
+      </c>
+      <c r="K72" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
-      </c>
-      <c r="K73" t="s">
-        <v>38</v>
+        <v>305</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K74" t="s">
         <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K75" t="s">
         <v>38</v>
       </c>
       <c r="L75" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K76" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="L76" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K77" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>311</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="K78" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -7658,99 +7943,99 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
-      </c>
-      <c r="K80" t="s">
-        <v>38</v>
+        <v>312</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K81" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K83" t="s">
         <v>38</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K84" t="s">
         <v>38</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>2</v>
+        <v>317</v>
+      </c>
+      <c r="K85" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
-      </c>
-      <c r="K86" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -7758,10 +8043,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="K87" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7769,35 +8054,35 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K88" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="K89" t="s">
-        <v>301</v>
-      </c>
-      <c r="L89" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K90" t="s">
-        <v>38</v>
+        <v>301</v>
+      </c>
+      <c r="L90" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -7805,88 +8090,88 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>318</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="K91" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
-      </c>
-      <c r="K92" t="s">
-        <v>303</v>
+        <v>318</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="K93" t="s">
-        <v>273</v>
-      </c>
-      <c r="L93" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K94" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="K95" t="s">
+        <v>38</v>
       </c>
       <c r="L95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>323</v>
-      </c>
-      <c r="K96" t="s">
-        <v>38</v>
+        <v>322</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>323</v>
+      </c>
+      <c r="K97" t="s">
+        <v>38</v>
+      </c>
+      <c r="L97" t="s">
         <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>324</v>
-      </c>
-      <c r="K97" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -7894,32 +8179,32 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
-      </c>
-      <c r="K98" t="b">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="K98" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
-      </c>
-      <c r="K99" t="s">
-        <v>303</v>
+        <v>325</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
-      </c>
-      <c r="K100" t="b">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="K100" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -7927,41 +8212,41 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>328</v>
-      </c>
-      <c r="K101" t="s">
-        <v>273</v>
-      </c>
-      <c r="L101" t="s">
-        <v>23</v>
+        <v>327</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K102" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L102" t="s">
-        <v>330</v>
-      </c>
-      <c r="M102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>331</v>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="K103" t="s">
+        <v>283</v>
+      </c>
+      <c r="L103" t="s">
+        <v>330</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -7969,38 +8254,38 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
-      </c>
-      <c r="K105" t="s">
-        <v>38</v>
-      </c>
-      <c r="L105" t="s">
-        <v>24</v>
-      </c>
-      <c r="M105" t="s">
-        <v>25</v>
+        <v>332</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
+        <v>333</v>
+      </c>
+      <c r="K106" t="s">
+        <v>38</v>
+      </c>
+      <c r="L106" t="s">
+        <v>24</v>
+      </c>
+      <c r="M106" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -8008,80 +8293,77 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
+        <v>331</v>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
         <v>332</v>
       </c>
-      <c r="K107" t="b">
+      <c r="K108" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>337</v>
-      </c>
-      <c r="L109" t="s">
-        <v>334</v>
-      </c>
-      <c r="M109" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
-      </c>
-      <c r="K110" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="L110" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="M110" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K111" t="s">
         <v>38</v>
       </c>
       <c r="L111" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="K112" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="L112" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K113" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L113" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -8089,24 +8371,24 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
-      </c>
-      <c r="K114" t="s">
+        <v>348</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="K115" t="s">
-        <v>342</v>
-      </c>
-      <c r="L115" t="s">
-        <v>346</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -8114,108 +8396,108 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
-      </c>
-      <c r="K116" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L117" t="s">
-        <v>357</v>
-      </c>
-      <c r="M117" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K118" t="s">
         <v>38</v>
       </c>
       <c r="L118" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K119" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="L119" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K120" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="L120" t="s">
+        <v>371</v>
+      </c>
+      <c r="M120" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K121" t="s">
-        <v>344</v>
+        <v>38</v>
+      </c>
+      <c r="L121" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K122" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L122" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K123" t="s">
-        <v>28</v>
-      </c>
-      <c r="L123" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -8223,10 +8505,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K124" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -8234,13 +8516,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K125" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="L125" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -8248,72 +8530,141 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K126" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="L126" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K127" t="s">
-        <v>341</v>
-      </c>
-      <c r="L127" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L128" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="s">
-        <v>335</v>
-      </c>
-      <c r="M129" t="s">
-        <v>41</v>
+        <v>359</v>
+      </c>
+      <c r="K129" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>370</v>
+      </c>
+      <c r="K130" t="s">
+        <v>340</v>
+      </c>
+      <c r="L130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>364</v>
+      </c>
+      <c r="K131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>369</v>
+      </c>
+      <c r="K132" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>363</v>
+      </c>
+      <c r="K133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="K134" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>350</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>335</v>
+      </c>
+      <c r="M135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
         <v>2</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B136" t="s">
         <v>336</v>
       </c>
-      <c r="K130" t="s">
-        <v>38</v>
-      </c>
-      <c r="L130" t="s">
-        <v>371</v>
-      </c>
-      <c r="M130" t="s">
-        <v>372</v>
+      <c r="K136" t="s">
+        <v>38</v>
+      </c>
+      <c r="L136" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="120" windowWidth="23080" windowHeight="14800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="6" r:id="rId1"/>
+    <sheet name="workflowText.csv" sheetId="10" r:id="rId1"/>
     <sheet name="Phase 3 in progress" sheetId="5" r:id="rId2"/>
     <sheet name="Phase 2" sheetId="7" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="399">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">        end prior beliefs</t>
   </si>
   <si>
-    <t>Great. So we know that you think {{$length := len .Beliefs.CausalFactors }}{{if eq $length 4}}all factors matter{{else if .Beliefs.CausalFactors}}{{range $i, $v := .Beliefs.CausalFactors}}{{if $i}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v}}{{end}}{{if .Beliefs.HasMultipleCausalFactors}} matter{{- else}} matters{{- end}}{{- else}}none of the factors matters{{- end}} to performance in space.</t>
-  </si>
-  <si>
     <t>Now, let's figure out whether those factors actually matter! Press "Enter" to continue when you are ready.</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t xml:space="preserve">            record result with no performance</t>
   </si>
   <si>
-    <t>So, you want to look at {{.RecordNoOne.RecordName}}, record #{{.RecordNoOne.RecordNo}}. Now, before I show you {{.RecordNoOne.FirstName}}'s performance. Can you tell me what you would be able to figure out by looking at this record?</t>
-  </si>
-  <si>
     <t xml:space="preserve">                record with performance</t>
   </si>
   <si>
@@ -362,9 +356,6 @@
     <t>Two records uncontrolled</t>
   </si>
   <si>
-    <t>That may be true. But can we really tell for sure that {{.TargetFactor.FactorName}} makes a difference to performance? Couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? Can you really know for sure that {{.TargetFactor.FactorName}}  gave {{.RecordNoOne.FirstName}} a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade?</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                two records uncontrolled sure causal</t>
   </si>
   <si>
@@ -521,15 +512,9 @@
     <t xml:space="preserve">                                    two records uncontrolled maybe causal</t>
   </si>
   <si>
-    <t>What about these records that tells you {{.TargetFactor.FactorName}} makes a difference to performance?</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                        two records uncontrolled maybe causal question</t>
   </si>
   <si>
-    <t>That may be true. But couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? How can we be 100% sure? Let's see if you can find a better record to compare {{.RecordNoOne.FirstName}} with so that we know whether {{.TargetFactor.FactorName}} really makes a difference to performance?</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                            select a better record to compare</t>
   </si>
   <si>
@@ -569,9 +554,6 @@
     <t xml:space="preserve">                                    two records uncontrolled maybe non-causal</t>
   </si>
   <si>
-    <t>What about these records that tells you {{.TargetFactor.FactorName}} does not make a difference to performance?</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                        two records uncontrolled maybe non-causal question</t>
   </si>
   <si>
@@ -863,9 +845,6 @@
     <t xml:space="preserve">                                    causal.wrong.help.correct.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">                                        non-causal.correct.correct.Q_someone_disagree.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">                            causal.wrong.wrong.Q_best_worst.1</t>
   </si>
   <si>
@@ -875,21 +854,12 @@
     <t>the same</t>
   </si>
   <si>
-    <t xml:space="preserve">                                non-causal.correct.correct.Q_someone_disagree.2.3</t>
-  </si>
-  <si>
     <t>Ok, so it looks like you think that {{.TargetFactor.FactorName}} really does not make a difference to performance. Now, suppose someone disagrees with you and thinks that {{.TargetFactor.FactorName}} does make a difference to performance in space, what would you say to them?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3</t>
-  </si>
-  <si>
     <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} does make a difference to performance?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                        memo</t>
-  </si>
-  <si>
     <t xml:space="preserve">                        causal.wrong.wrong.Q_best_worst.1</t>
   </si>
   <si>
@@ -1152,6 +1122,102 @@
   </si>
   <si>
     <t>Great. Now you are ready for the next step. Press \"Enter\" to continue.</t>
+  </si>
+  <si>
+    <t>On the screen, tell me which of the factors you think will make a difference to performance in space. When you are done, just hit "Enter".</t>
+  </si>
+  <si>
+    <t>So, you want to look at {{.RecordNoOne.RecordName}}, record #{{.RecordNoOne.RecordNo}}. Now, before I show you {{.RecordNoOne.FirstName}}'s performance. What would you be able to figure out by looking at this record?</t>
+  </si>
+  <si>
+    <t>That may be true. But can we really tell for sure that {{.TargetFactor.FactorName}} makes a difference to performance in space? Couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? Can you really know for sure that {{.TargetFactor.FactorName}}  gave {{.RecordNoOne.FirstName}} a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade?</t>
+  </si>
+  <si>
+    <t>That may be true. But {{.TargetFactor.FactorName}} and {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.FactorName}} are both different in the two records. {{if eq .RecordNoOne.Performance .RecordNoTwo.Performance}}Can you really know why their grades are the same? {{end}}Maybe one makes the grade go up and the other makes it go down so they offset each other? Can you really know for sure that {{.TargetFactor.FactorName}} does not make a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>That may be true. But couldnâ€™t someone say that it is because {{.RecordNoTwo.FirstName}} has {{$otherFactorId := index .VaryingFactorIds 0}}{{$otherFactor := index .RecordNoTwo.FactorLevels $otherFactorId}}{{$otherFactor.SelectedLevel}} for {{$otherFactor.FactorName}} and that is why {{.RecordNoOne.FirstName}} has a {{if lt .RecordNoOne.PerformanceLevel .RecordNoTwo.PerformanceLevel}}higher{{else}}lower{{end}} grade than {{.RecordNoTwo.FirstName}}? How can we be 100% sure? Let's see if you can find a better record to compare {{.RecordNoOne.FirstName}} with so that we know whether {{.TargetFactor.FactorName}} really makes a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>What about these records that tells you {{.TargetFactor.FactorName}} does not make a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>You selected Record #{{.Record.RecordNo}} with performance {{.Record.Performance}}. Just like all the cases you have looked at before, you can see the levels of this person's Fitness, Parents' Health, and other factors. What is the education level of this applicant?</t>
+  </si>
+  <si>
+    <t>You got it. You selected Record #{{.Record.RecordNo}}. Just like all the cases you have looked at before, you can see the levels of this person's Fitness, Parents' Health, and other factors. What is the Education level of this applicant?</t>
+  </si>
+  <si>
+    <t>Good. Now, let's look at a different chart. Here, we changed the chart so that we see only some of the people. What level of Fitness do all of these people have?</t>
+  </si>
+  <si>
+    <t>Ok, good. They all have Average Fitness. So, why do you think all of these people have Average Fitness but they have different performance? For example, some have B and some have E. Why?</t>
+  </si>
+  <si>
+    <t>Ok, so we can see that, here, their levels of Education and Parents' Health are both different. So that might be a reason why their performance are different.</t>
+  </si>
+  <si>
+    <t>Seems like you are not sure. That's ok. So we know they all have Average Fitness but they still have different performance. What could be a reason why these people have different performance?</t>
+  </si>
+  <si>
+    <t>I am not sure if I got that. So, you think {{.TargetFactor.FactorName}} makes a difference to performance. Now, what is it about the chart that tells you that {{.TargetFactor.FactorName}} matters to performance in space?</t>
+  </si>
+  <si>
+    <t>So, what does this tell you? Overall, does {{.TargetFactor.FactorName}} make a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>I see. Now, Let me ask you, if those who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} for {{.TargetFactor.FactorName}} have the same kind of performance as those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}}, does it make a difference what level of {{.TargetFactor.FactorName}} one has? Would it make a difference to their performance in space?</t>
+  </si>
+  <si>
+    <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} does make a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>Ok. I see. So, based on what you see on the chart for {{.TargetFactor.FactorName}}, which level is best for performance in space?</t>
+  </si>
+  <si>
+    <t>Look carefully at the chart here. What does the chart tell us about whether {{.TargetFactor.FactorName}} matters or not to performance in space?</t>
+  </si>
+  <si>
+    <t>I am not sure if I got that. So, you think {{.TargetFactor.FactorName}} does not make a difference to performance. Now, what is it about the chart that tells you that {{.TargetFactor.FactorName}} does not matter to performance in space?</t>
+  </si>
+  <si>
+    <t>Ok. I see. So, based on what you see on the chart for {{.TargetFactor.FactorName}}, is there a level that is best to have for performance? If so, which level is best?</t>
+  </si>
+  <si>
+    <t>Youâ€™ve worked hard to figure out what factors mattered to the applicantsâ€™ performance. Now, letâ€™s make a summary for what you have figured out so that you can make use of that information later. If you cannot remember what you figured out and needed to look at a particular chart at any time, just click on the button that will show the chart for the factor.</t>
+  </si>
+  <si>
+    <t>On the screen, tell me which of the factors you found make a difference to performance in space. When you are done, just hit "Enter".</t>
+  </si>
+  <si>
+    <t>Ok. Let's look at this other factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong.show_chart.MC_is_causal.1</t>
+  </si>
+  <si>
+    <t>Great. Now you are ready for the next step. Press "Enter" to continue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     wrong.wrong.causal.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.correct.correct.MC_is_causal.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    non-causal.correct.correct.Q_someone_disagree.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.wrong.wrong.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        non-causal.correct.correct.MC_is_causal.2.3</t>
+  </si>
+  <si>
+    <t>Great. So we know that you think {{$length := len .Beliefs.CausalFactors }}{{if eq $length 4}}all factors matter{{else if .Beliefs.CausalFactors}}{{range $i, $v := .Beliefs.CausalFactors}}{{if $i}}{{if eq $length 2}} and {{else if gt $i 1}} and {{else}}, {{end}}{{end}}{{$v.Text}}{{end}}{{if .Beliefs.HasMultipleCausalFactors}} matter{{- else}} matters{{- end}}{{- else}}none of the factors matters{{- end}} to performance in space.</t>
   </si>
 </sst>
 </file>
@@ -1183,12 +1249,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1200,7 +1272,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1395">
+  <cellStyleXfs count="1433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2596,11 +2668,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1395">
+  <cellStyles count="1433">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3298,6 +3409,25 @@
     <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3995,6 +4125,25 @@
     <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4324,16 +4473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4352,7 +4500,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4394,10 +4542,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4405,16 +4553,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4422,16 +4570,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4439,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4450,16 +4598,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4467,16 +4615,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4484,13 +4632,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4498,13 +4646,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4512,13 +4660,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4526,13 +4674,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4540,13 +4688,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4554,13 +4702,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4568,13 +4716,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4582,13 +4730,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4596,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4613,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -4624,13 +4772,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4638,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -4649,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4660,10 +4808,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4671,16 +4819,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4688,7 +4836,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -4699,16 +4847,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4716,16 +4864,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4733,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -4744,13 +4892,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4758,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4772,13 +4920,13 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4786,13 +4934,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4800,13 +4948,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4814,7 +4962,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -4825,13 +4973,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4839,13 +4987,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4853,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -4864,16 +5012,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4881,7 +5029,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -4892,13 +5040,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4906,13 +5054,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4920,7 +5068,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -4931,13 +5079,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4945,13 +5093,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4959,13 +5107,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4973,16 +5121,16 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4990,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
@@ -5004,13 +5152,13 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5018,13 +5166,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5032,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
@@ -5043,13 +5191,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5057,13 +5205,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5071,7 +5219,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
@@ -5082,13 +5230,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5096,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -5107,13 +5255,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5121,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5135,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
         <v>38</v>
@@ -5146,13 +5294,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5160,7 +5308,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
@@ -5171,13 +5319,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5185,16 +5333,16 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5202,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
@@ -5213,16 +5361,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5230,16 +5378,16 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5247,13 +5395,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5261,16 +5409,16 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5278,13 +5426,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5292,10 +5440,10 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5303,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
@@ -5314,13 +5462,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5328,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
@@ -5339,13 +5487,13 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5353,7 +5501,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
@@ -5364,16 +5512,16 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5381,13 +5529,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5395,19 +5543,19 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5415,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
@@ -5426,13 +5574,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5440,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
@@ -5451,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5465,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
@@ -5476,16 +5624,16 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5493,13 +5641,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5507,7 +5655,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
@@ -5515,7 +5663,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5523,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5537,16 +5685,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5554,13 +5702,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5568,13 +5716,13 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5582,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -5593,13 +5741,13 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5607,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
         <v>38</v>
@@ -5618,13 +5766,13 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5632,13 +5780,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
         <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5646,13 +5794,13 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
         <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5660,13 +5808,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
         <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5674,13 +5822,13 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
         <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5688,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
         <v>38</v>
@@ -5699,10 +5847,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5710,10 +5858,10 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5721,13 +5869,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>228</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5735,13 +5883,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
         <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5749,13 +5897,13 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
         <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5763,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
         <v>38</v>
@@ -5774,10 +5922,10 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5785,13 +5933,13 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5799,13 +5947,13 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C109" t="s">
         <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5813,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C110" t="s">
         <v>38</v>
@@ -5824,13 +5972,13 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5838,16 +5986,16 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E112" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5855,13 +6003,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
         <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5869,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
         <v>38</v>
@@ -5880,13 +6028,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5894,13 +6042,13 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C116" t="s">
         <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5908,16 +6056,16 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="E117" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5925,10 +6073,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5936,13 +6084,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D119" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5950,7 +6098,7 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
         <v>38</v>
@@ -5961,13 +6109,13 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D121" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5975,7 +6123,7 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
         <v>38</v>
@@ -5986,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" t="s">
         <v>52</v>
-      </c>
-      <c r="D123" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5997,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C124" t="s">
         <v>38</v>
@@ -6011,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C125" t="s">
         <v>38</v>
@@ -6025,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -6039,13 +6187,13 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
         <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6053,7 +6201,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
         <v>38</v>
@@ -6067,10 +6215,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C129" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -6081,10 +6229,10 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -6095,7 +6243,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C131" t="s">
         <v>38</v>
@@ -6104,7 +6252,7 @@
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6112,13 +6260,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6126,13 +6274,13 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6140,7 +6288,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -6151,7 +6299,7 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -6162,7 +6310,7 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6176,10 +6324,10 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
-      </c>
-      <c r="C137" t="b">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="C137" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6187,7 +6335,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
         <v>38</v>
@@ -6201,7 +6349,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
         <v>38</v>
@@ -6212,10 +6360,10 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -6226,13 +6374,13 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6240,60 +6388,60 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
-      </c>
-      <c r="C142" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142" t="s">
-        <v>287</v>
+        <v>396</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" t="s">
-        <v>38</v>
+        <v>394</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
+      </c>
+      <c r="D144" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
+        <v>279</v>
+      </c>
+      <c r="C146" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6301,253 +6449,253 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
-      </c>
-      <c r="D147" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
-      </c>
-      <c r="C148" t="s">
-        <v>294</v>
+        <v>281</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="D150" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
         <v>38</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C154" t="s">
-        <v>301</v>
+        <v>38</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C155" t="s">
-        <v>303</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>305</v>
-      </c>
-      <c r="C157" t="b">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="C157" t="s">
+        <v>293</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
         <v>38</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" t="s">
-        <v>38</v>
+        <v>295</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
         <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C161" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C162" t="s">
         <v>38</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
-      </c>
-      <c r="C163" t="b">
-        <v>1</v>
+        <v>299</v>
+      </c>
+      <c r="C163" t="s">
+        <v>284</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>312</v>
-      </c>
-      <c r="C164" t="b">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
-      </c>
-      <c r="C165" t="s">
-        <v>38</v>
+        <v>301</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6555,85 +6703,88 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" t="s">
-        <v>273</v>
+        <v>302</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C167" t="s">
         <v>38</v>
-      </c>
-      <c r="D167" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C169" t="s">
         <v>38</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
-      </c>
-      <c r="C170" t="b">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="C170" t="s">
+        <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
-      </c>
-      <c r="C172" t="s">
-        <v>38</v>
+        <v>308</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6641,71 +6792,68 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C173" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C174" t="s">
-        <v>301</v>
-      </c>
-      <c r="D174" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
-      </c>
-      <c r="C176" t="b">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="C176" t="s">
+        <v>291</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C177" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>320</v>
-      </c>
-      <c r="C178" t="s">
-        <v>273</v>
-      </c>
-      <c r="D178" t="s">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6713,155 +6861,152 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
-      </c>
-      <c r="D179" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>310</v>
+      </c>
+      <c r="C180" t="s">
+        <v>267</v>
+      </c>
+      <c r="D180" t="s">
         <v>5</v>
-      </c>
-      <c r="B180" t="s">
-        <v>322</v>
-      </c>
-      <c r="C180" t="b">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C181" t="s">
         <v>38</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>324</v>
-      </c>
-      <c r="C182" t="s">
-        <v>38</v>
+        <v>312</v>
+      </c>
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>313</v>
+      </c>
+      <c r="C183" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" t="s">
         <v>7</v>
-      </c>
-      <c r="B183" t="s">
-        <v>325</v>
-      </c>
-      <c r="C183" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C184" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C186" t="s">
-        <v>273</v>
-      </c>
-      <c r="D186" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>329</v>
-      </c>
-      <c r="C187" t="s">
-        <v>283</v>
-      </c>
-      <c r="D187" t="s">
-        <v>330</v>
-      </c>
-      <c r="E187" t="s">
-        <v>25</v>
+        <v>317</v>
+      </c>
+      <c r="C187" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>331</v>
-      </c>
-      <c r="C188" t="b">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="C188" t="s">
+        <v>267</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
-      </c>
-      <c r="C189" t="b">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="C189" t="s">
+        <v>276</v>
+      </c>
+      <c r="D189" t="s">
+        <v>320</v>
+      </c>
+      <c r="E189" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
-      </c>
-      <c r="C190" t="s">
-        <v>38</v>
-      </c>
-      <c r="D190" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" t="s">
-        <v>25</v>
+        <v>321</v>
+      </c>
+      <c r="C190" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6869,26 +7014,410 @@
         <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>323</v>
+      </c>
+      <c r="C192" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
         <v>7</v>
       </c>
-      <c r="B192" t="s">
-        <v>332</v>
-      </c>
-      <c r="C192" t="b">
+      <c r="B193" t="s">
+        <v>321</v>
+      </c>
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>322</v>
+      </c>
+      <c r="C194" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>327</v>
+      </c>
+      <c r="D195" t="s">
+        <v>387</v>
+      </c>
+      <c r="E195" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>336</v>
+      </c>
+      <c r="C196" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>364</v>
+      </c>
+      <c r="C197" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>338</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>341</v>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>339</v>
+      </c>
+      <c r="C202" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>343</v>
+      </c>
+      <c r="C203" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>352</v>
+      </c>
+      <c r="C204" t="s">
+        <v>276</v>
+      </c>
+      <c r="D204" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>353</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>361</v>
+      </c>
+      <c r="E205" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>354</v>
+      </c>
+      <c r="C206" t="s">
+        <v>38</v>
+      </c>
+      <c r="D206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>355</v>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>351</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>350</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>357</v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>358</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>349</v>
+      </c>
+      <c r="C214" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>360</v>
+      </c>
+      <c r="C215" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>392</v>
+      </c>
+      <c r="C217" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>353</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>360</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>340</v>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>326</v>
+      </c>
+      <c r="C221" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6922,24 +7451,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M136"/>
+  <dimension ref="A2:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="860" topLeftCell="A126" activePane="bottomLeft"/>
+      <pane ySplit="860" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="C14" sqref="C14"/>
-      <selection pane="bottomLeft" activeCell="L136" sqref="L136"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6947,13 +7476,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6961,16 +7490,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6978,13 +7507,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6992,13 +7521,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7006,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -7017,13 +7546,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7031,7 +7560,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -7042,13 +7571,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7056,13 +7585,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7070,13 +7599,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7084,13 +7613,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7098,13 +7627,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7112,7 +7641,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K15" t="s">
         <v>38</v>
@@ -7123,10 +7652,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7134,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K17" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7145,13 +7674,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7159,13 +7688,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K19" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -7173,13 +7702,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -7187,7 +7716,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
         <v>38</v>
@@ -7198,10 +7727,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7209,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7223,13 +7752,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
         <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7237,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
@@ -7248,13 +7777,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7262,16 +7791,16 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7279,13 +7808,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7293,7 +7822,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -7304,13 +7833,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7318,13 +7847,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7332,16 +7861,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7349,10 +7878,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7360,13 +7889,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7374,7 +7903,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
@@ -7385,13 +7914,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -7399,7 +7928,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s">
         <v>38</v>
@@ -7410,10 +7939,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" t="s">
         <v>52</v>
-      </c>
-      <c r="L39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -7421,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
@@ -7435,7 +7964,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
@@ -7449,7 +7978,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -7463,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
         <v>38</v>
@@ -7477,7 +8006,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K44" t="s">
         <v>38</v>
@@ -7491,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K45" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
@@ -7505,10 +8034,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s">
         <v>5</v>
@@ -7519,7 +8048,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s">
         <v>38</v>
@@ -7536,7 +8065,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -7550,7 +8079,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s">
         <v>38</v>
@@ -7564,7 +8093,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -7575,7 +8104,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -7586,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -7595,15 +8124,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
+    <row r="53" spans="1:12" s="1" customFormat="1">
+      <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
-        <v>280</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
+      <c r="B53" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -7611,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K54" t="s">
         <v>38</v>
@@ -7625,7 +8154,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s">
         <v>38</v>
@@ -7636,88 +8165,88 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
+    <row r="57" spans="1:12" s="1" customFormat="1">
+      <c r="A57" s="1">
         <v>8</v>
       </c>
-      <c r="B57" t="s">
-        <v>284</v>
-      </c>
-      <c r="K57" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
+      <c r="B57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="1" customFormat="1">
+      <c r="A58" s="1">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
+      <c r="B58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="1" customFormat="1">
+      <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B59" t="s">
-        <v>288</v>
-      </c>
-      <c r="K59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>289</v>
-      </c>
-      <c r="K60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>290</v>
-      </c>
-      <c r="K61" t="s">
-        <v>208</v>
+      <c r="B60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="1" customFormat="1">
+      <c r="A61" s="1">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>9</v>
+        <v>279</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -7725,253 +8254,253 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K63" t="s">
-        <v>38</v>
-      </c>
-      <c r="L63" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
-      </c>
-      <c r="K64" t="s">
-        <v>294</v>
+        <v>281</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K65" t="s">
         <v>38</v>
       </c>
       <c r="L65" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="L66" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K67" t="s">
         <v>38</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="K68" t="s">
         <v>38</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K69" t="s">
         <v>38</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K70" t="s">
-        <v>301</v>
+        <v>38</v>
+      </c>
+      <c r="L70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="K71" t="s">
-        <v>303</v>
-      </c>
-      <c r="L71" t="s">
-        <v>14</v>
-      </c>
-      <c r="M71" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K72" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="K73" t="s">
+        <v>293</v>
       </c>
       <c r="L73" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M73" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K74" t="s">
         <v>38</v>
-      </c>
-      <c r="L74" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
-      </c>
-      <c r="K75" t="s">
-        <v>38</v>
+        <v>295</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K76" t="s">
         <v>38</v>
       </c>
       <c r="L76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K77" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="L77" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="K78" t="s">
         <v>38</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
+        <v>299</v>
+      </c>
+      <c r="K79" t="s">
+        <v>284</v>
+      </c>
+      <c r="L79" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
-      </c>
-      <c r="K80" t="b">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="K80" t="s">
+        <v>38</v>
       </c>
       <c r="L80" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>313</v>
-      </c>
-      <c r="K81" t="s">
-        <v>38</v>
+        <v>301</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7979,85 +8508,88 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>314</v>
-      </c>
-      <c r="K82" t="s">
-        <v>273</v>
+        <v>302</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K83" t="s">
         <v>38</v>
-      </c>
-      <c r="L83" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K84" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K85" t="s">
         <v>38</v>
+      </c>
+      <c r="L85" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
-      </c>
-      <c r="K86" t="b">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="K86" t="s">
+        <v>38</v>
       </c>
       <c r="L86" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K87" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
-      </c>
-      <c r="K88" t="s">
-        <v>38</v>
+        <v>308</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -8065,71 +8597,68 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K89" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="K90" t="s">
-        <v>301</v>
-      </c>
-      <c r="L90" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="K91" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="K92" t="s">
+        <v>291</v>
+      </c>
+      <c r="L92" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K93" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
-      </c>
-      <c r="K94" t="s">
-        <v>273</v>
-      </c>
-      <c r="L94" t="s">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8137,155 +8666,152 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K95" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>310</v>
+      </c>
+      <c r="K96" t="s">
+        <v>267</v>
+      </c>
+      <c r="L96" t="s">
         <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>322</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K97" t="s">
         <v>38</v>
       </c>
       <c r="L97" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
-      </c>
-      <c r="K98" t="s">
-        <v>38</v>
+        <v>312</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>313</v>
+      </c>
+      <c r="K99" t="s">
+        <v>38</v>
+      </c>
+      <c r="L99" t="s">
         <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>325</v>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K100" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K102" t="s">
-        <v>273</v>
-      </c>
-      <c r="L102" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>329</v>
-      </c>
-      <c r="K103" t="s">
-        <v>283</v>
-      </c>
-      <c r="L103" t="s">
-        <v>330</v>
-      </c>
-      <c r="M103" t="s">
-        <v>25</v>
+        <v>317</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="K104" t="s">
+        <v>267</v>
+      </c>
+      <c r="L104" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>332</v>
-      </c>
-      <c r="K105" t="b">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K105" t="s">
+        <v>276</v>
+      </c>
+      <c r="L105" t="s">
+        <v>320</v>
+      </c>
+      <c r="M105" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
-      </c>
-      <c r="K106" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" t="s">
-        <v>24</v>
-      </c>
-      <c r="M106" t="s">
-        <v>25</v>
+        <v>321</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -8293,102 +8819,105 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>323</v>
+      </c>
+      <c r="K108" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" t="s">
+        <v>24</v>
+      </c>
+      <c r="M108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
         <v>7</v>
       </c>
-      <c r="B108" t="s">
-        <v>332</v>
-      </c>
-      <c r="K108" t="b">
-        <v>0</v>
+      <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>322</v>
+      </c>
+      <c r="K110" t="b">
         <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>337</v>
-      </c>
-      <c r="L110" t="s">
-        <v>334</v>
-      </c>
-      <c r="M110" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111" t="s">
-        <v>346</v>
-      </c>
-      <c r="K111" t="s">
-        <v>38</v>
-      </c>
-      <c r="L111" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>374</v>
-      </c>
-      <c r="K112" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="L112" t="s">
-        <v>338</v>
+        <v>324</v>
+      </c>
+      <c r="M112" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K113" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="L113" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>348</v>
-      </c>
-      <c r="K114" t="b">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="K114" t="s">
+        <v>38</v>
       </c>
       <c r="L114" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="K115" t="s">
-        <v>38</v>
+        <v>330</v>
+      </c>
+      <c r="L115" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -8396,24 +8925,24 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K116" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="K117" t="s">
-        <v>341</v>
-      </c>
-      <c r="L117" t="s">
-        <v>345</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8421,108 +8950,108 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
-      </c>
-      <c r="K118" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="K119" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="L119" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="K120" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="L120" t="s">
-        <v>371</v>
-      </c>
-      <c r="M120" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K121" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="L121" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K122" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L122" t="s">
-        <v>355</v>
+        <v>361</v>
+      </c>
+      <c r="M122" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K123" t="s">
-        <v>342</v>
+        <v>38</v>
+      </c>
+      <c r="L123" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K124" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="L124" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K125" t="s">
-        <v>341</v>
-      </c>
-      <c r="L125" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -8530,24 +9059,24 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="K126" t="s">
-        <v>28</v>
-      </c>
-      <c r="L126" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K127" t="s">
-        <v>38</v>
+        <v>331</v>
+      </c>
+      <c r="L127" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -8555,13 +9084,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L128" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -8569,7 +9098,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K129" t="s">
         <v>38</v>
@@ -8577,24 +9106,24 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K130" t="s">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="L130" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="K131" t="s">
         <v>38</v>
@@ -8602,69 +9131,94 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K132" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="L132" t="s">
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K133" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K134" t="s">
-        <v>340</v>
+        <v>38</v>
+      </c>
+      <c r="L134" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>350</v>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
-        <v>335</v>
-      </c>
-      <c r="M135" t="s">
-        <v>41</v>
+        <v>353</v>
+      </c>
+      <c r="K135" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>360</v>
+      </c>
+      <c r="K136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>325</v>
+      </c>
+      <c r="M137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
         <v>2</v>
       </c>
-      <c r="B136" t="s">
-        <v>336</v>
-      </c>
-      <c r="K136" t="s">
-        <v>38</v>
-      </c>
-      <c r="L136" t="s">
-        <v>376</v>
+      <c r="B138" t="s">
+        <v>326</v>
+      </c>
+      <c r="K138" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="12" r:id="rId1"/>
-    <sheet name="workflowText edited" sheetId="11" r:id="rId2"/>
-    <sheet name="workflowText edited old" sheetId="10" r:id="rId3"/>
-    <sheet name="Phase 3 in progress" sheetId="5" r:id="rId4"/>
+    <sheet name="workflowText.csv" sheetId="17" r:id="rId1"/>
+    <sheet name="workflowText 3" sheetId="12" r:id="rId2"/>
+    <sheet name="workflowText edited 2" sheetId="11" r:id="rId3"/>
+    <sheet name="workflowText edited 1" sheetId="10" r:id="rId4"/>
+    <sheet name="Phase 3 in progress" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="418">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -1180,6 +1181,102 @@
   </si>
   <si>
     <t>Now, when you looked at the different levels of {{.TargetFactor.FactorName}} on the chart before, we saw that the best and worst performance were the different depending on which levels? If different levels of {{.TargetFactor.FactorName}} have different kind of performance, does it matterto performance what level of {{.TargetFactor.FactorName}} someone has?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        intro fitness only explain diff performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    talk.to.partner</t>
+  </si>
+  <si>
+    <t>So what do you think?</t>
+  </si>
+  <si>
+    <t>Be sure to talk with each other.</t>
+  </si>
+  <si>
+    <t>But it's a little hard to see the records side by side if there are a lot of them. Luckily, there is a better way for us to look at them. Press "Enter" to continue and I will show you.</t>
+  </si>
+  <si>
+    <t>You see, this chart here shows all of the applicants. Each diamond is just like a record you saw before. Do you see that they have different performance levels? What are performance levels you see?</t>
+  </si>
+  <si>
+    <t>Now, let's look at the chart more closely. Can you click on one of the diamonds that has a B performance?</t>
+  </si>
+  <si>
+    <t>You worked hard to figure out what factors matter to the applicantsâ€™ performance. Now, letâ€™s make a summary for what you found. On the screen, tell me which of the factors you found make a difference to performance in space.</t>
+  </si>
+  <si>
+    <t>If you don't remember what you decided, just click on one of the buttons for a factor to show the chart. When you are done, just hit "Enter".</t>
+  </si>
+  <si>
+    <t>Ok, so you found that Fitness, Parents' Health and Education matter but not Family Size and Home Climate. Now, for the ones that matter, tell me which level is best for performance.</t>
+  </si>
+  <si>
+    <t>If you need to look at a chart, just click on the button for the factor. Hit "Enter" when you are done.</t>
+  </si>
+  <si>
+    <t>So, what do you think?</t>
+  </si>
+  <si>
+    <t>Prediction Phase</t>
+  </si>
+  <si>
+    <t>Good job with the summary.</t>
+  </si>
+  <si>
+    <t>intro_prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    choose_factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wrong.diff_from_memos.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            end_choose_factors</t>
+  </si>
+  <si>
+    <t>Let's look at some of the charts again to double check that you have picked everything you need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        all_correct_causal.2</t>
+  </si>
+  <si>
+    <t>Now, look at the applicant on the screen. What do you think the applicant's performance will be?</t>
+  </si>
+  <si>
+    <t>start_prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MC_prediction</t>
+  </si>
+  <si>
+    <t>Great. Now you are ready to make some predictions. Press "Enter" to continue.</t>
+  </si>
+  <si>
+    <t>Let's take a look at an applicant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Now, I have some new applicants here. You can use what you found to predict how well they will do and pick a best team of five!</t>
+  </si>
+  <si>
+    <t>Before we get started, what information about the applicant would you need to predict his/her performance?</t>
+  </si>
+  <si>
+    <t>I can only tell you up to four things about the applicant. Which factors do you want to know about? Pick all of the ones you need so you can predict their performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>Ok, so you want to know about {{$length := len .RequestedFactors}}{{range $i, $v := .RequestedFactors}}{{if eq $i 2}}{{if eq $length 3}} and {{end}}{{else if eq $i 3}} and {{else if gt $i 0}} , {{end}}{{$v.Text}}{{end}}.</t>
+  </si>
+  <si>
+    <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetApplicant.Name}}.</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1337,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1509">
+  <cellStyleXfs count="1639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2757,7 +2984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1509">
+  <cellStyles count="1639">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3512,6 +3739,71 @@
     <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4266,6 +4558,71 @@
     <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4595,14 +4952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -5814,7 +6170,7 @@
         <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5828,7 +6184,7 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5906,7 +6262,7 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -6218,200 +6574,206 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
-      </c>
-      <c r="D121" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" t="s">
-        <v>41</v>
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
-      </c>
-      <c r="C124" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" t="b">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" t="s">
-        <v>27</v>
+        <v>244</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>2</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
-        <v>351</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
-      </c>
-      <c r="C132" t="b">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>352</v>
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
-      </c>
-      <c r="C133" t="s">
-        <v>27</v>
+        <v>252</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
-      </c>
-      <c r="C134" t="b">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6419,99 +6781,99 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
       </c>
-      <c r="D136" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>368</v>
-      </c>
-      <c r="C137" t="s">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>367</v>
-      </c>
-      <c r="C142" t="b">
-        <v>1</v>
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6519,46 +6881,46 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
-      </c>
-      <c r="C144" t="s">
-        <v>27</v>
+        <v>365</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>366</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
+      </c>
+      <c r="D145" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -6569,130 +6931,130 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
-      </c>
-      <c r="C148" t="b">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
-      </c>
-      <c r="C149" t="s">
-        <v>27</v>
+        <v>263</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C150" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6700,122 +7062,122 @@
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C157" t="s">
-        <v>275</v>
-      </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157" t="s">
-        <v>355</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>275</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
-      </c>
-      <c r="C159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
+        <v>276</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
-      </c>
-      <c r="C160" t="s">
-        <v>27</v>
+        <v>277</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C163" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="D164" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>283</v>
-      </c>
-      <c r="C165" t="b">
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6823,99 +7185,99 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C166" t="b">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>285</v>
-      </c>
-      <c r="C167" t="s">
-        <v>27</v>
+        <v>284</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
-      </c>
-      <c r="C172" t="b">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>2</v>
+        <v>289</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
-      </c>
-      <c r="C173" t="s">
-        <v>248</v>
+        <v>290</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6923,10 +7285,10 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6934,35 +7296,35 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
-      </c>
-      <c r="D176" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>273</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6970,88 +7332,88 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>290</v>
-      </c>
-      <c r="C178" t="b">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
-      </c>
-      <c r="C179" t="s">
-        <v>275</v>
+        <v>290</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
-        <v>250</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>292</v>
+      </c>
+      <c r="C181" t="s">
+        <v>250</v>
+      </c>
+      <c r="D181" t="s">
         <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>293</v>
-      </c>
-      <c r="C181" t="s">
-        <v>27</v>
-      </c>
-      <c r="D181" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
-      </c>
-      <c r="C182" t="b">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
-      </c>
-      <c r="C183" t="s">
-        <v>27</v>
+        <v>294</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7059,32 +7421,32 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
-      </c>
-      <c r="C185" t="b">
-        <v>1</v>
+        <v>296</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>298</v>
-      </c>
-      <c r="C186" t="s">
-        <v>275</v>
+        <v>297</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
-      </c>
-      <c r="C187" t="b">
-        <v>0</v>
+        <v>298</v>
+      </c>
+      <c r="C187" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7092,41 +7454,41 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
-      </c>
-      <c r="C188" t="s">
-        <v>250</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
+        <v>299</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C189" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D189" t="s">
-        <v>302</v>
-      </c>
-      <c r="E189" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>303</v>
-      </c>
-      <c r="C190" t="b">
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="C190" t="s">
+        <v>259</v>
+      </c>
+      <c r="D190" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7134,38 +7496,38 @@
         <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
-      </c>
-      <c r="C192" t="s">
-        <v>27</v>
-      </c>
-      <c r="D192" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" t="s">
-        <v>351</v>
+        <v>304</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>303</v>
-      </c>
-      <c r="C193" t="b">
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7173,200 +7535,200 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>304</v>
+      </c>
+      <c r="C195" t="b">
         <v>0</v>
-      </c>
-      <c r="B195" t="s">
-        <v>307</v>
-      </c>
-      <c r="D195" t="s">
-        <v>358</v>
-      </c>
-      <c r="E195" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>311</v>
-      </c>
-      <c r="C196" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="D196" t="s">
-        <v>309</v>
+        <v>393</v>
+      </c>
+      <c r="E196" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>312</v>
-      </c>
-      <c r="C198" t="b">
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>361</v>
-      </c>
-      <c r="C200" t="s">
-        <v>27</v>
+        <v>313</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
-      </c>
-      <c r="C201" t="b">
-        <v>1</v>
+        <v>361</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C202" t="b">
-        <v>0</v>
-      </c>
-      <c r="D202" t="s">
-        <v>310</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>318</v>
-      </c>
-      <c r="C203" t="s">
-        <v>27</v>
+        <v>314</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C204" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="D204" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
-      </c>
-      <c r="C205" t="b">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="C205" t="s">
+        <v>259</v>
       </c>
       <c r="D205" t="s">
-        <v>334</v>
-      </c>
-      <c r="E205" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>328</v>
-      </c>
-      <c r="C206" t="s">
-        <v>27</v>
+        <v>327</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>351</v>
+        <v>334</v>
+      </c>
+      <c r="E206" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>329</v>
-      </c>
-      <c r="C207" t="b">
-        <v>1</v>
+        <v>328</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C208" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7374,113 +7736,113 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C210" t="b">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
-        <v>320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>370</v>
-      </c>
-      <c r="C212" t="s">
-        <v>27</v>
+        <v>331</v>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>385</v>
+        <v>370</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>370</v>
-      </c>
-      <c r="C214" t="s">
-        <v>27</v>
+        <v>332</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>333</v>
-      </c>
-      <c r="C215" t="b">
-        <v>1</v>
-      </c>
-      <c r="D215" t="s">
-        <v>6</v>
+        <v>370</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
-      </c>
-      <c r="C216" t="s">
-        <v>27</v>
+        <v>333</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>351</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>371</v>
-      </c>
-      <c r="C217" t="b">
-        <v>0</v>
+        <v>372</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7488,35 +7850,35 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>363</v>
-      </c>
-      <c r="C219" t="s">
-        <v>27</v>
-      </c>
-      <c r="D219" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>327</v>
-      </c>
-      <c r="C220" t="b">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7524,41 +7886,183 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
       </c>
-      <c r="D222" t="s">
-        <v>381</v>
-      </c>
-      <c r="E222" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>315</v>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>395</v>
+      </c>
+      <c r="E223" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
         <v>2</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>306</v>
       </c>
-      <c r="C223" t="s">
-        <v>27</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>400</v>
+      </c>
+      <c r="D226" t="s">
+        <v>399</v>
+      </c>
+      <c r="E226" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>401</v>
+      </c>
+      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227" t="s">
+        <v>413</v>
+      </c>
+      <c r="E227" t="s">
+        <v>414</v>
+      </c>
+      <c r="F227" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>402</v>
+      </c>
+      <c r="C228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>415</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>405</v>
+      </c>
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>403</v>
+      </c>
+      <c r="C231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>407</v>
+      </c>
+      <c r="D232" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>408</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233" t="s">
+        <v>417</v>
+      </c>
+      <c r="E233" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>411</v>
+      </c>
+      <c r="C234" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7572,6 +8076,3004 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F224"/>
+  <sheetViews>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" t="s">
+        <v>248</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" t="s">
+        <v>259</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>263</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>270</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>274</v>
+      </c>
+      <c r="C158" t="s">
+        <v>275</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" t="s">
+        <v>266</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>261</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>262</v>
+      </c>
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177" t="s">
+        <v>273</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>279</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>290</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>292</v>
+      </c>
+      <c r="C181" t="s">
+        <v>250</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>294</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>297</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>298</v>
+      </c>
+      <c r="C187" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>299</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>300</v>
+      </c>
+      <c r="C189" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" t="s">
+        <v>259</v>
+      </c>
+      <c r="D190" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>303</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>304</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>304</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>307</v>
+      </c>
+      <c r="D196" t="s">
+        <v>358</v>
+      </c>
+      <c r="E196" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>312</v>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>313</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>361</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>316</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>314</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>318</v>
+      </c>
+      <c r="C204" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>326</v>
+      </c>
+      <c r="C205" t="s">
+        <v>259</v>
+      </c>
+      <c r="D205" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>334</v>
+      </c>
+      <c r="E206" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>328</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>329</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>325</v>
+      </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>324</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>330</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>331</v>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>370</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>332</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>370</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>333</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>372</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>371</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>329</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>363</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>327</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>333</v>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>315</v>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>381</v>
+      </c>
+      <c r="E223" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>306</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F223"/>
   <sheetViews>
@@ -10552,7 +14054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F232"/>
   <sheetViews>
@@ -13633,7 +17135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="19" r:id="rId1"/>
+    <sheet name="workflowText.csv" sheetId="21" r:id="rId1"/>
     <sheet name="template" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="426">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -55,9 +55,6 @@
     <t>I see. Now, how do you think the chart would look different if {{.TargetFactor.FactorName}} makes no difference to performance?</t>
   </si>
   <si>
-    <t>Great! Thank you for the memo to the foundation. Let's move on to the next factor then.</t>
-  </si>
-  <si>
     <t>I see. Let's look at the performance of all of the people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}}. What is the best performance those people have?</t>
   </si>
   <si>
@@ -1177,9 +1174,6 @@
     <t xml:space="preserve">        all_correct_causal.2</t>
   </si>
   <si>
-    <t>Now, look at the applicant on the screen. What do you think the applicant's performance will be?</t>
-  </si>
-  <si>
     <t>start_prediction</t>
   </si>
   <si>
@@ -1189,12 +1183,6 @@
     <t>Great. Now you are ready to make some predictions. Press "Enter" to continue.</t>
   </si>
   <si>
-    <t>Let's take a look at an applicant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
     <t>Now, I have some new applicants here. You can use what you found to predict how well they will do and pick a best team of five!</t>
   </si>
   <si>
@@ -1204,9 +1192,6 @@
     <t>I can only tell you up to four things about the applicant. Which factors do you want to know about? Pick all of the ones you need so you can predict their performance.</t>
   </si>
   <si>
-    <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetApplicant.Name}}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">            wrong.show_chart.MC_is_needed.1</t>
   </si>
   <si>
@@ -1288,7 +1273,31 @@
     <t xml:space="preserve">                         wrong.wrong.causal.1.2.2</t>
   </si>
   <si>
-    <t>Ok, so you want to know about {{$length := len .RequestedFactors}}{{range $i, $v := .RequestedFactors}}{{if eq $i 2}}{{if eq $length 3}} and {{else}}, {{end}}{{else if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}}.</t>
+    <t>Alright, you want to know about {{$length := len .RequestedFactors}}{{range $i, $v := .RequestedFactors}}{{if eq $i 2}}{{if eq $length 3}} and {{else}}, {{end}}{{else if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}}.</t>
+  </si>
+  <si>
+    <t>Great! Thank you for the memo to the foundation. Let's move on to the next thing then.</t>
+  </si>
+  <si>
+    <t>Let's take a look at Applicant #{{.TargetPrediction.RecordNo}},  {{.TargetPrediction.RecordName}}</t>
+  </si>
+  <si>
+    <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetPrediction.RecordName}}. What do you think {{.TargetPrediction.FirstName}}'s performance will be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        correct_perf.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        incorrect_perf.1</t>
+  </si>
+  <si>
+    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformanceLevel}}.</t>
+  </si>
+  <si>
+    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformanceLevel}}. Which of the four factors you have data on mattered to your prediction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1346,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1699">
+  <cellStyleXfs count="1719">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3041,7 +3070,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1699">
+  <cellStyles count="1719">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3891,6 +3920,16 @@
     <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4740,6 +4779,16 @@
     <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5069,18 +5118,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5088,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5102,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5113,16 +5159,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5130,16 +5176,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5147,16 +5193,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5164,16 +5210,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5181,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5192,16 +5238,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5209,16 +5255,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5226,13 +5272,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5240,13 +5286,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5254,13 +5300,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5268,13 +5314,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5282,13 +5328,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5296,13 +5342,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5310,13 +5356,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5324,13 +5370,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5338,16 +5384,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5355,10 +5401,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5366,13 +5412,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5380,10 +5426,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5391,10 +5437,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5402,10 +5448,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5413,16 +5459,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5430,10 +5476,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5441,16 +5487,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5458,16 +5504,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5475,10 +5521,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5486,13 +5532,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5500,13 +5546,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5514,13 +5560,13 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5528,13 +5574,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5542,13 +5588,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5556,10 +5602,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5567,13 +5613,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5581,13 +5627,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5595,10 +5641,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5606,16 +5652,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5623,10 +5669,10 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5634,13 +5680,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
         <v>107</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5648,13 +5694,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
         <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5662,10 +5708,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5673,13 +5719,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5687,13 +5733,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5701,13 +5747,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5715,16 +5761,16 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
       </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5732,13 +5778,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5746,13 +5792,13 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5760,13 +5806,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5774,10 +5820,10 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5785,13 +5831,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5799,13 +5845,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
         <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5813,10 +5859,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5824,13 +5870,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5838,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5849,13 +5895,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5863,13 +5909,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
         <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5877,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5888,13 +5934,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5902,10 +5948,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5913,13 +5959,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
         <v>141</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5927,16 +5973,16 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
         <v>143</v>
       </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" t="s">
-        <v>144</v>
-      </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5944,10 +5990,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5955,16 +6001,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>146</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5972,16 +6018,16 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
         <v>149</v>
-      </c>
-      <c r="E66" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5989,13 +6035,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6003,16 +6049,16 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6020,13 +6066,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
         <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6034,10 +6080,10 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6045,10 +6091,10 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6056,13 +6102,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6070,10 +6116,10 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6081,13 +6127,13 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6095,10 +6141,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6106,16 +6152,16 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6123,13 +6169,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6137,19 +6183,19 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
         <v>166</v>
       </c>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" t="s">
-        <v>167</v>
-      </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6157,10 +6203,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6168,13 +6214,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
         <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6182,10 +6228,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6193,13 +6239,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6207,10 +6253,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6218,16 +6264,16 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>173</v>
-      </c>
-      <c r="E84" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6235,13 +6281,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
         <v>175</v>
-      </c>
-      <c r="C85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6249,15 +6295,15 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6265,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
         <v>179</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>180</v>
-      </c>
-      <c r="E88" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -6279,16 +6325,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
         <v>182</v>
       </c>
-      <c r="C89" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" t="s">
-        <v>183</v>
-      </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6296,13 +6342,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -6310,13 +6356,13 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
         <v>185</v>
-      </c>
-      <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6324,10 +6370,10 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6335,13 +6381,13 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
         <v>188</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>189</v>
-      </c>
-      <c r="D93" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -6349,10 +6395,10 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -6360,13 +6406,13 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
         <v>192</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6374,13 +6420,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -6388,13 +6434,13 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
         <v>195</v>
-      </c>
-      <c r="C97" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -6402,13 +6448,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -6416,13 +6462,13 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
         <v>198</v>
-      </c>
-      <c r="C99" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -6430,10 +6476,10 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6441,10 +6487,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -6452,10 +6498,10 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
         <v>203</v>
-      </c>
-      <c r="C102" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -6463,13 +6509,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
         <v>205</v>
       </c>
-      <c r="C103" t="s">
-        <v>206</v>
-      </c>
       <c r="D103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -6477,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
         <v>207</v>
-      </c>
-      <c r="C104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -6491,13 +6537,13 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
         <v>209</v>
-      </c>
-      <c r="C105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -6505,10 +6551,10 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -6516,10 +6562,10 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
         <v>212</v>
-      </c>
-      <c r="C107" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -6527,13 +6573,13 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -6541,13 +6587,13 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
         <v>215</v>
-      </c>
-      <c r="C109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -6555,10 +6601,10 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -6566,13 +6612,13 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
         <v>218</v>
       </c>
-      <c r="C111" t="s">
-        <v>219</v>
-      </c>
       <c r="D111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -6580,16 +6626,16 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
         <v>220</v>
       </c>
-      <c r="C112" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>221</v>
-      </c>
-      <c r="E112" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -6597,13 +6643,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
         <v>223</v>
-      </c>
-      <c r="C113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6611,10 +6657,10 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -6622,13 +6668,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" t="s">
         <v>226</v>
-      </c>
-      <c r="C115" t="s">
-        <v>219</v>
-      </c>
-      <c r="D115" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -6636,13 +6682,13 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
         <v>228</v>
-      </c>
-      <c r="C116" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6650,16 +6696,16 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>340</v>
+      </c>
+      <c r="E117" t="s">
         <v>230</v>
-      </c>
-      <c r="C117" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" t="s">
-        <v>341</v>
-      </c>
-      <c r="E117" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6667,10 +6713,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
         <v>232</v>
-      </c>
-      <c r="C118" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6678,13 +6724,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6692,16 +6738,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
         <v>367</v>
       </c>
-      <c r="C120" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" t="s">
-        <v>368</v>
-      </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6709,10 +6755,10 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6720,13 +6766,13 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
         <v>235</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>236</v>
-      </c>
-      <c r="D122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6734,10 +6780,10 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6745,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
         <v>40</v>
-      </c>
-      <c r="D124" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6756,13 +6802,13 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6770,10 +6816,10 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
         <v>0</v>
@@ -6784,13 +6830,13 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6798,13 +6844,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6812,10 +6858,10 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
         <v>2</v>
@@ -6826,10 +6872,10 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
         <v>243</v>
-      </c>
-      <c r="C130" t="s">
-        <v>244</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -6840,10 +6886,10 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
         <v>245</v>
-      </c>
-      <c r="C131" t="s">
-        <v>246</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -6854,16 +6900,16 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6871,13 +6917,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6885,13 +6931,13 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6899,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -6910,7 +6956,7 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6921,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -6935,10 +6981,10 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6946,10 +6992,10 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -6960,10 +7006,10 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6971,10 +7017,10 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
         <v>254</v>
-      </c>
-      <c r="C141" t="s">
-        <v>255</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -6985,13 +7031,13 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6999,7 +7045,7 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
@@ -7010,13 +7056,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7024,13 +7070,13 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7038,10 +7084,10 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7049,10 +7095,10 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7060,10 +7106,10 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7071,7 +7117,7 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C149" t="b">
         <v>1</v>
@@ -7085,13 +7131,13 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7099,10 +7145,10 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
+        <v>260</v>
+      </c>
+      <c r="C151" t="s">
         <v>261</v>
-      </c>
-      <c r="C151" t="s">
-        <v>262</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
@@ -7113,10 +7159,10 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -7127,13 +7173,13 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7141,13 +7187,13 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7155,13 +7201,13 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -7169,10 +7215,10 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -7180,10 +7226,10 @@
         <v>4</v>
       </c>
       <c r="B157" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" t="s">
         <v>268</v>
-      </c>
-      <c r="C157" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -7191,16 +7237,16 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" t="s">
         <v>270</v>
       </c>
-      <c r="C158" t="s">
-        <v>271</v>
-      </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -7208,10 +7254,10 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -7219,13 +7265,13 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7233,13 +7279,13 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7247,10 +7293,10 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -7261,13 +7307,13 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7275,13 +7321,13 @@
         <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7289,13 +7335,13 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7303,7 +7349,7 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -7314,13 +7360,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7328,10 +7374,10 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7339,10 +7385,10 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7350,13 +7396,13 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7364,13 +7410,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7378,10 +7424,10 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7389,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C173" t="b">
         <v>0</v>
@@ -7403,10 +7449,10 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" t="s">
         <v>243</v>
-      </c>
-      <c r="C174" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7414,10 +7460,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7425,10 +7471,10 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7436,10 +7482,10 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D177" t="s">
         <v>6</v>
@@ -7450,10 +7496,10 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7461,7 +7507,7 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -7472,10 +7518,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
+        <v>269</v>
+      </c>
+      <c r="C180" t="s">
         <v>270</v>
-      </c>
-      <c r="C180" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7483,10 +7529,10 @@
         <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C181" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -7497,13 +7543,13 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7511,13 +7557,13 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -7525,10 +7571,10 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
         <v>6</v>
@@ -7539,10 +7585,10 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7550,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -7561,10 +7607,10 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7572,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -7583,13 +7629,13 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -7597,16 +7643,16 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" t="s">
+        <v>254</v>
+      </c>
+      <c r="D190" t="s">
         <v>297</v>
       </c>
-      <c r="C190" t="s">
-        <v>255</v>
-      </c>
-      <c r="D190" t="s">
-        <v>298</v>
-      </c>
       <c r="E190" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7614,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C191" t="b">
         <v>1</v>
@@ -7625,7 +7671,7 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -7636,16 +7682,16 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7653,7 +7699,7 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -7664,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -7675,13 +7721,13 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D196" t="s">
+        <v>371</v>
+      </c>
+      <c r="E196" t="s">
         <v>372</v>
-      </c>
-      <c r="E196" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7689,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7703,13 +7749,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7717,13 +7763,13 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C199" t="b">
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7731,13 +7777,13 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7745,10 +7791,10 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7756,7 +7802,7 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -7767,13 +7813,13 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7781,13 +7827,13 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7795,13 +7841,13 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C205" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D205" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7809,16 +7855,16 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E206" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7826,13 +7872,13 @@
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7840,13 +7886,13 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7854,7 +7900,7 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -7865,7 +7911,7 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -7876,13 +7922,13 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7890,13 +7936,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7904,10 +7950,10 @@
         <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7915,13 +7961,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7929,10 +7975,10 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7940,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -7954,13 +8000,13 @@
         <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7968,7 +8014,7 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
@@ -7979,7 +8025,7 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C219" t="b">
         <v>1</v>
@@ -7990,13 +8036,13 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8004,7 +8050,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C221" t="b">
         <v>0</v>
@@ -8015,7 +8061,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -8026,16 +8072,16 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
       </c>
       <c r="D223" t="s">
+        <v>373</v>
+      </c>
+      <c r="E223" t="s">
         <v>374</v>
-      </c>
-      <c r="E223" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8043,18 +8089,18 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D224" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8062,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D226" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E226" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8076,19 +8122,19 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D227" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E227" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8096,13 +8142,13 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8110,13 +8156,13 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8124,13 +8170,13 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8138,13 +8184,13 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8152,10 +8198,10 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8163,7 +8209,7 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C233" t="b">
         <v>1</v>
@@ -8174,13 +8220,13 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8188,13 +8234,13 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8202,13 +8248,13 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C236" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D236" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8216,16 +8262,16 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E237" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8233,13 +8279,13 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8247,13 +8293,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8261,7 +8307,7 @@
         <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
@@ -8272,7 +8318,7 @@
         <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -8283,13 +8329,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8297,13 +8343,13 @@
         <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C243" t="b">
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8311,10 +8357,10 @@
         <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8322,13 +8368,13 @@
         <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8336,10 +8382,10 @@
         <v>11</v>
       </c>
       <c r="B246" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8347,7 +8393,7 @@
         <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C247" t="b">
         <v>1</v>
@@ -8361,13 +8407,13 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8375,7 +8421,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -8386,7 +8432,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C250" t="b">
         <v>1</v>
@@ -8397,13 +8443,13 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8411,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
@@ -8422,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C253" t="b">
         <v>1</v>
@@ -8433,13 +8479,13 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8447,13 +8493,13 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8461,38 +8507,74 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D256" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>394</v>
-      </c>
-      <c r="E257" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>425</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>421</v>
+      </c>
+      <c r="C260" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>425</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="21" r:id="rId1"/>
-    <sheet name="template" sheetId="5" r:id="rId2"/>
+    <sheet name="workflowText.csv" sheetId="25" r:id="rId1"/>
+    <sheet name="workflowText Edit.csv" sheetId="22" r:id="rId2"/>
+    <sheet name="template" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="469">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -1282,9 +1283,6 @@
     <t>Let's take a look at Applicant #{{.TargetPrediction.RecordNo}},  {{.TargetPrediction.RecordName}}</t>
   </si>
   <si>
-    <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetPrediction.RecordName}}. What do you think {{.TargetPrediction.FirstName}}'s performance will be?</t>
-  </si>
-  <si>
     <t xml:space="preserve">        correct_perf.2</t>
   </si>
   <si>
@@ -1294,17 +1292,149 @@
     <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformanceLevel}}.</t>
   </si>
   <si>
-    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformanceLevel}}. Which of the four factors you have data on mattered to your prediction?</t>
-  </si>
-  <si>
     <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetPrediction.RecordName}}. How well do you think {{.TargetPrediction.FirstName}} will perform?</t>
+  </si>
+  <si>
+    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.Performance}}. Which of the four factors you have data on mattered to your prediction?</t>
+  </si>
+  <si>
+    <t>Be sure to choose all of the ones that mattered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            correct_perf.correct_factors.2.2</t>
+  </si>
+  <si>
+    <t>Got it. Let's look at some of the charts again to double check that you considered all the factors that mattered so that you made an accurate prediction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         correct_perf.correct_factors.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    correct_perf.wrong_factor.correct.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         correct_perf.next_wrong_factors.2.1.1</t>
+  </si>
+  <si>
+    <t>Let's look at this other factor.</t>
+  </si>
+  <si>
+    <t>So Fitness, Parents' Health and Education mattered to your prediction. Ok, got it.</t>
+  </si>
+  <si>
+    <t>Ok, looks like you have changed your mind and that {{.TargetFactor.FactorName}} mattered to your prediction. That is fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         correct_perf.wrong_factor.wrong.correct.2.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         correct_perf.wrong_factor.wrong.wrong.2.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                correct_perf.MC_mattered.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.MC_mattered.2.1</t>
+  </si>
+  <si>
+    <t>What do you think? Do we need to know about {{.TargetFactor.FactorName}} if you want to predict {{.TargetPrediction.FirstName}}'s performance in space? Would your prediction be accurate if you didn't know the level of {{.TargetFactor.FactorName} that {{.TargetPrediction.FirstName}} has?</t>
+  </si>
+  <si>
+    <t>Now, you {{if .TargetFactor.IsCausal}}did not pick{{else}}picked{{end}} {{.TargetFactor.FactorName}}. Here is the chart for it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            correct_perf.wrong_factors.show_chart.2.1</t>
+  </si>
+  <si>
+    <t>So you think that {{.TargetPrediction.FirstName}} would have {{if .TargetFactor.IsCausal}}a different{{else}}the same{{end}} performance if {{.TargetPrediction.FirstName}}'s {{.TargetFactor.FactorName}} has a different level.</t>
+  </si>
+  <si>
+    <t>Look at the chart more closely, do the people who have {{.TargetFactor.SelectedLevel}} and those who have {{.TargetFactor.OppositeLevel}} have similar or different performances?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
+  </si>
+  <si>
+    <t>{{.TargetPrediction.FirstName}} had {{.TargetFactor.SelectedLevel}} for {{.TargetFactor.FactorName}}. If {{.TargetPrediction.FirstName}} had {{.TargetFactor.OppositeLevel}} instead, what do you think would happen to {{.TargetPrediction.FirstName}}'s performance?</t>
+  </si>
+  <si>
+    <t>Click on the button for a factor if you want to see the chart again.</t>
+  </si>
+  <si>
+    <t>Ok. Let's look at some of the charts again to double check that you considered all the factors that mattered so that you made an accurate prediction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                correct_perf.next_wrong_factors.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    correct_perf.MC_mattered.2.1</t>
+  </si>
+  <si>
+    <t>Think about whether your prediction would be accurate if you didn't know the level of {{.TargetFactor.FactorName}} that {{.TargetPrediction.FirstName}}. Do we need to know about {{.TargetFactor.FactorName}} if you want to predict {{.TargetPrediction.FirstName}}'s performance in space?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
+  </si>
+  <si>
+    <t>{{.TargetPrediction.FirstName}} had {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} for {{.TargetFactor.FactorName}}. If {{.TargetPrediction.FirstName}} had {{$factor.OppositeLevel}} instead, what do you think would happen to {{.TargetPrediction.FirstName}}'s performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.wrong.2.1.2.2</t>
+  </si>
+  <si>
+    <t>Look at the chart more closely, do the people who have {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} and those who have {{$factor.OppositeLevel}} have similar or different performances?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.correct.2.1.2.1</t>
+  </si>
+  <si>
+    <t>So you think that {{.TargetPrediction.FirstName}} would have {{if .TargetFactor.IsCausal}}a different{{else}}the same{{end}} performance if {{.TargetPrediction.FirstName}}'s {{.TargetFactor.FactorName}} had a different level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                correct_perf.MC_mattered.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        correct_perf.wrong_factor.correct.2.1.1</t>
+  </si>
+  <si>
+    <t>Ok, looks like you have changed your mind and that {{.TargetFactor.FactorName}} {{if .TargetFactor.IsCausal}}mattered{{else}}did not mattter{{end}} to your prediction. That is fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.more_wrong_factor.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                correct_perf.next_wrong_factors.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            correct_perf.correct_factors.2.2</t>
+  </si>
+  <si>
+    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformance}}.</t>
+  </si>
+  <si>
+    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformance}}. Which of the four factors you have data on mattered to your prediction?</t>
+  </si>
+  <si>
+    <t>So Fitness, Parents' Health and Education mattered to your prediction for {{.TargetPrediction.RecordName}}'s performance. Ok, got it.</t>
+  </si>
+  <si>
+    <t>Let's look at another prediction. Press "Enter" to continue.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,13 +1458,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1346,7 +1489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1719">
+  <cellStyleXfs count="1855">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3066,11 +3209,149 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1719">
+  <cellStyles count="1855">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3930,6 +4211,74 @@
     <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4789,6 +5138,74 @@
     <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5118,7 +5535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8513,7 +8930,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>1</v>
       </c>
@@ -8524,57 +8941,228 @@
         <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>424</v>
+      </c>
+      <c r="E257" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>3</v>
       </c>
       <c r="B259" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>2</v>
       </c>
       <c r="B260" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C260" t="b">
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>466</v>
+      </c>
+      <c r="E260" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
+      </c>
+      <c r="D261" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>449</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>450</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>452</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" t="s">
+        <v>453</v>
+      </c>
+      <c r="E264" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>454</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266" t="s">
+        <v>456</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>457</v>
+      </c>
+      <c r="C267" t="b">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>8</v>
+      </c>
+      <c r="B268" t="s">
+        <v>459</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>460</v>
+      </c>
+      <c r="C269" t="b">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>7</v>
+      </c>
+      <c r="B270" t="s">
+        <v>462</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271" t="s">
+        <v>463</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>464</v>
+      </c>
+      <c r="C272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" t="b">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>467</v>
+      </c>
+      <c r="E273" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8588,6 +9176,3628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F272"/>
+  <sheetViews>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="D272" sqref="D272"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>340</v>
+      </c>
+      <c r="E117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>245</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>354</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>258</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>259</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>260</v>
+      </c>
+      <c r="C151" t="s">
+        <v>261</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>265</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>266</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>271</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>274</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>275</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>278</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>279</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>280</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>281</v>
+      </c>
+      <c r="C169" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>282</v>
+      </c>
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>284</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>285</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>256</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+      <c r="C176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>286</v>
+      </c>
+      <c r="C177" t="s">
+        <v>268</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>269</v>
+      </c>
+      <c r="C180" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" t="s">
+        <v>245</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>288</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" t="s">
+        <v>245</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" t="s">
+        <v>254</v>
+      </c>
+      <c r="D190" t="s">
+        <v>297</v>
+      </c>
+      <c r="E190" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>298</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>299</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>302</v>
+      </c>
+      <c r="D196" t="s">
+        <v>371</v>
+      </c>
+      <c r="E196" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>306</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>329</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>307</v>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>308</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>351</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>311</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>309</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>318</v>
+      </c>
+      <c r="C205" t="s">
+        <v>254</v>
+      </c>
+      <c r="D205" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>319</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>326</v>
+      </c>
+      <c r="E206" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>320</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>321</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>317</v>
+      </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>322</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>323</v>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>360</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>324</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>360</v>
+      </c>
+      <c r="C215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>325</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>362</v>
+      </c>
+      <c r="C217" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>361</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>319</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>310</v>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>373</v>
+      </c>
+      <c r="E223" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>301</v>
+      </c>
+      <c r="C224" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>378</v>
+      </c>
+      <c r="D226" t="s">
+        <v>377</v>
+      </c>
+      <c r="E226" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>379</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227" t="s">
+        <v>388</v>
+      </c>
+      <c r="E227" t="s">
+        <v>389</v>
+      </c>
+      <c r="F227" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>380</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>390</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>393</v>
+      </c>
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>395</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>396</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>397</v>
+      </c>
+      <c r="C233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>398</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>400</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>401</v>
+      </c>
+      <c r="C236" t="s">
+        <v>254</v>
+      </c>
+      <c r="D236" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>402</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>326</v>
+      </c>
+      <c r="E237" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238" t="s">
+        <v>403</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>405</v>
+      </c>
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>407</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>408</v>
+      </c>
+      <c r="C241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
+        <v>409</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>410</v>
+      </c>
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>411</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>412</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>411</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>413</v>
+      </c>
+      <c r="C247" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>414</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
+        <v>415</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>405</v>
+      </c>
+      <c r="C250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>416</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>402</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>413</v>
+      </c>
+      <c r="C253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>383</v>
+      </c>
+      <c r="C254" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>381</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>384</v>
+      </c>
+      <c r="D256" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>385</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>421</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>423</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>420</v>
+      </c>
+      <c r="C260" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>425</v>
+      </c>
+      <c r="E260" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="1" customFormat="1">
+      <c r="A261" s="1">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" s="1" customFormat="1">
+      <c r="A262" s="1">
+        <v>4</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="1" customFormat="1">
+      <c r="A263" s="1">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="1" customFormat="1">
+      <c r="A264" s="1">
+        <v>6</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" s="1" customFormat="1">
+      <c r="A265" s="1">
+        <v>7</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="1" customFormat="1">
+      <c r="A266" s="1">
+        <v>6</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C266" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" s="1" customFormat="1">
+      <c r="A267" s="1">
+        <v>7</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" s="1" customFormat="1">
+      <c r="A268" s="1">
+        <v>5</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C268" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="1" customFormat="1">
+      <c r="A269" s="1">
+        <v>6</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C269" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="1" customFormat="1">
+      <c r="A270" s="1">
+        <v>7</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="1" customFormat="1">
+      <c r="A271" s="1">
+        <v>6</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C271" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="1" customFormat="1">
+      <c r="A272" s="1">
+        <v>3</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C272" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="25" r:id="rId1"/>
+    <sheet name="workflowText.csv" sheetId="26" r:id="rId1"/>
     <sheet name="workflowText Edit.csv" sheetId="22" r:id="rId2"/>
     <sheet name="template" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="474">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -1428,6 +1428,21 @@
   </si>
   <si>
     <t>Let's look at another prediction. Press "Enter" to continue.</t>
+  </si>
+  <si>
+    <t>pick_team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great work making all the predictions! On the screen, you can see </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    done</t>
+  </si>
+  <si>
+    <t>Congratulations! You have completed the project!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -5535,7 +5550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9163,6 +9178,42 @@
       </c>
       <c r="E273" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>469</v>
+      </c>
+      <c r="D274" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>471</v>
+      </c>
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+      <c r="D275" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>473</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="26" r:id="rId1"/>
-    <sheet name="workflowText Edit.csv" sheetId="22" r:id="rId2"/>
+    <sheet name="workflowText.csv" sheetId="28" r:id="rId1"/>
+    <sheet name="workflowText Edit.csv" sheetId="26" r:id="rId2"/>
     <sheet name="template" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="488">
   <si>
     <t>So, what do you think? Overall do you think {{.TargetFactor.FactorName}} makes a difference to performance in space?</t>
   </si>
@@ -1283,144 +1283,39 @@
     <t>Let's take a look at Applicant #{{.TargetPrediction.RecordNo}},  {{.TargetPrediction.RecordName}}</t>
   </si>
   <si>
-    <t xml:space="preserve">        correct_perf.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        incorrect_perf.1</t>
-  </si>
-  <si>
-    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformanceLevel}}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            </t>
-  </si>
-  <si>
     <t>Here are the information about {{range $i, $v := .DisplayFactors}}{{if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}} for {{.TargetPrediction.RecordName}}. How well do you think {{.TargetPrediction.FirstName}} will perform?</t>
   </si>
   <si>
-    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.Performance}}. Which of the four factors you have data on mattered to your prediction?</t>
-  </si>
-  <si>
     <t>Be sure to choose all of the ones that mattered.</t>
   </si>
   <si>
-    <t xml:space="preserve">            correct_perf.correct_factors.2.2</t>
-  </si>
-  <si>
-    <t>Got it. Let's look at some of the charts again to double check that you considered all the factors that mattered so that you made an accurate prediction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         correct_perf.correct_factors.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    correct_perf.wrong_factor.correct.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         correct_perf.next_wrong_factors.2.1.1</t>
-  </si>
-  <si>
     <t>Let's look at this other factor.</t>
   </si>
   <si>
-    <t>So Fitness, Parents' Health and Education mattered to your prediction. Ok, got it.</t>
-  </si>
-  <si>
-    <t>Ok, looks like you have changed your mind and that {{.TargetFactor.FactorName}} mattered to your prediction. That is fine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         correct_perf.wrong_factor.wrong.correct.2.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         correct_perf.wrong_factor.wrong.wrong.2.1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                correct_perf.MC_mattered.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            correct_perf.MC_mattered.2.1</t>
-  </si>
-  <si>
-    <t>What do you think? Do we need to know about {{.TargetFactor.FactorName}} if you want to predict {{.TargetPrediction.FirstName}}'s performance in space? Would your prediction be accurate if you didn't know the level of {{.TargetFactor.FactorName} that {{.TargetPrediction.FirstName}} has?</t>
-  </si>
-  <si>
     <t>Now, you {{if .TargetFactor.IsCausal}}did not pick{{else}}picked{{end}} {{.TargetFactor.FactorName}}. Here is the chart for it.</t>
   </si>
   <si>
-    <t xml:space="preserve">            correct_perf.wrong_factors.show_chart.2.1</t>
-  </si>
-  <si>
-    <t>So you think that {{.TargetPrediction.FirstName}} would have {{if .TargetFactor.IsCausal}}a different{{else}}the same{{end}} performance if {{.TargetPrediction.FirstName}}'s {{.TargetFactor.FactorName}} has a different level.</t>
-  </si>
-  <si>
-    <t>Look at the chart more closely, do the people who have {{.TargetFactor.SelectedLevel}} and those who have {{.TargetFactor.OppositeLevel}} have similar or different performances?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
-  </si>
-  <si>
-    <t>{{.TargetPrediction.FirstName}} had {{.TargetFactor.SelectedLevel}} for {{.TargetFactor.FactorName}}. If {{.TargetPrediction.FirstName}} had {{.TargetFactor.OppositeLevel}} instead, what do you think would happen to {{.TargetPrediction.FirstName}}'s performance?</t>
-  </si>
-  <si>
     <t>Click on the button for a factor if you want to see the chart again.</t>
   </si>
   <si>
     <t>Ok. Let's look at some of the charts again to double check that you considered all the factors that mattered so that you made an accurate prediction.</t>
   </si>
   <si>
-    <t xml:space="preserve">                correct_perf.next_wrong_factors.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    correct_perf.MC_mattered.2.1</t>
-  </si>
-  <si>
     <t>Think about whether your prediction would be accurate if you didn't know the level of {{.TargetFactor.FactorName}} that {{.TargetPrediction.FirstName}}. Do we need to know about {{.TargetFactor.FactorName}} if you want to predict {{.TargetPrediction.FirstName}}'s performance in space?</t>
   </si>
   <si>
-    <t xml:space="preserve">                        correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
-  </si>
-  <si>
     <t>{{.TargetPrediction.FirstName}} had {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} for {{.TargetFactor.FactorName}}. If {{.TargetPrediction.FirstName}} had {{$factor.OppositeLevel}} instead, what do you think would happen to {{.TargetPrediction.FirstName}}'s performance?</t>
   </si>
   <si>
-    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.wrong.2.1.2.2</t>
-  </si>
-  <si>
     <t>Look at the chart more closely, do the people who have {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} and those who have {{$factor.OppositeLevel}} have similar or different performances?</t>
   </si>
   <si>
-    <t xml:space="preserve">                                correct_perf.wrong_factor.wrong.MC_is_same_perf.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            correct_perf.wrong_factor.wrong.correct.2.1.2.1</t>
-  </si>
-  <si>
     <t>So you think that {{.TargetPrediction.FirstName}} would have {{if .TargetFactor.IsCausal}}a different{{else}}the same{{end}} performance if {{.TargetPrediction.FirstName}}'s {{.TargetFactor.FactorName}} had a different level.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                correct_perf.MC_mattered.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        correct_perf.wrong_factor.correct.2.1.1</t>
-  </si>
-  <si>
     <t>Ok, looks like you have changed your mind and that {{.TargetFactor.FactorName}} {{if .TargetFactor.IsCausal}}mattered{{else}}did not mattter{{end}} to your prediction. That is fine.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            correct_perf.more_wrong_factor.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                correct_perf.next_wrong_factors.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            correct_perf.correct_factors.2.2</t>
-  </si>
-  <si>
-    <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformance}}.</t>
-  </si>
-  <si>
     <t>Ok, you think {{.TargetPrediction.FirstName}} will have {{.TargetPrediction.PredictedPerformance}}. Which of the four factors you have data on mattered to your prediction?</t>
   </si>
   <si>
@@ -1443,13 +1338,160 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            wrong_factors.show_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                next_wrong_factors.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    MC_mattered.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong_factor.wrong.MC_is_same_perf.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            wrong_factor.wrong.wrong.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                wrong_factor.wrong.MC_is_same_perf.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            wrong_factor.wrong.correct.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                MC_mattered.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong_factor.correct.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            more_wrong_factor.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                next_wrong_factors.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            correct_factors.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_what_mattered</t>
+  </si>
+  <si>
+    <t>Based on that, would you also like to change your prediction? How well do you think {{.TargetPrediction.FirstName}} will perform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            wrong_factor.correct.correct_factors.prediction.1.2.2</t>
+  </si>
+  <si>
+    <t>So, what do you think? Overall does {{.TargetFactor.FactorName}} a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>I see. Now, how would the chart look different if {{.TargetFactor.FactorName}} does make a difference to performance in space?</t>
+  </si>
+  <si>
+    <t>I see. Now, how would the chart look different if {{.TargetFactor.FactorName}} makes no difference to performance?</t>
+  </si>
+  <si>
+    <t>Here is a chart for {{.TargetFactor.FactorName}}. Does {{.TargetFactor.FactorName}} make a difference?</t>
+  </si>
+  <si>
+    <t>You want to know about {{$length := len .RequestedFactors}}{{range $i, $v := .RequestedFactors}}{{if eq $i 1}}{{if eq $length 2}} and {{else}}, {{end}}{{else if eq $i 2}}{{if eq $length 3}} and {{else}}, {{end}}{{else if eq $i 3}} and {{else if gt $i 0}}, {{end}}{{$v.Text}}{{end}}. Let's look at some of the charts again to double check that you have picked everything you need.</t>
+  </si>
+  <si>
+    <t>Now, you {{if .TargetFactor.IsCausal}}did not pick{{else}}picked{{end}} {{.TargetFactor.FactorName}}. Here is the chart for it. Do we need to know about {{.TargetFactor.FactorName}} for an applicant if you want to predict the person's performance in space?</t>
+  </si>
+  <si>
+    <t>Ok. Let's double check that you have considered all the factors that mattered so that you know your prediction is accurate.</t>
+  </si>
+  <si>
+    <t>Think about your prediction, imagine if you didn't know what {{.TargetPrediction.FirstName}} has for {{.TargetFactor.FactorName}}, could you still make a good prediction?</t>
+  </si>
+  <si>
+    <t>So, what does that tell you? Do we need to know about {{.TargetFactor.FactorName}} if you want to predict {{.TargetPrediction.FirstName}}'s performance in space?</t>
+  </si>
+  <si>
+    <t>Now, look at the chart. {{.TargetPrediction.FirstName}} had {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} for {{.TargetFactor.FactorName}}. If {{.TargetPrediction.FirstName}} had {{$factor.OppositeLevel}} instead, what would happen to {{.TargetPrediction.FirstName}}'s performance?</t>
+  </si>
+  <si>
+    <t>Will performance go up, go down, or be the same?</t>
+  </si>
+  <si>
+    <t>Look at the chart more closely again, do the people who have {{$factorId := .TargetFactor.FactorId}}{{$factor := index .TargetPrediction.FactorLevels $factorId}}{{$factor.SelectedLevel}} and those who have {{$factor.OppositeLevel}} have similar or different performances?</t>
+  </si>
+  <si>
+    <t>So you think that {{.TargetPrediction.FirstName}} would have {{if .TargetFactor.IsCausal}}a different performance {{else}}the same performance even{{end}} if {{.TargetPrediction.FirstName}}'s {{.TargetFactor.FactorName}} had a different level.</t>
+  </si>
+  <si>
+    <t>Great work making all the predictions! On the screen, you can see the predictions you made for all the new applicants.</t>
+  </si>
+  <si>
+    <t>Now, pick the 5 best applicants who you would want to be on your team. If you want to look at their records again, just click on their names.</t>
+  </si>
+  <si>
+    <t>Let's take a look at Applicant #{{.TargetPrediction.RecordNo}}, {{.TargetPrediction.RecordName}}. How well will {{.TargetPrediction.FirstName}} perform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Q_what_mattered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wrong_factors.show_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            next_wrong_factors.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MC_mattered.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong_factor.wrong.MC_is_same_perf.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong_factor.wrong.wrong.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            wrong_factor.wrong.MC_is_same_perf.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong_factor.wrong.correct.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            MC_mattered.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    wrong_factor.correct.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        more_wrong_factor.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            next_wrong_factors.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        wrong_factor.correct.correct_factors.prediction.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            next_prediction.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        correct_factors.2</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>team_summary</t>
+  </si>
+  <si>
+    <t>You have picked {{range $i, $v := .SelectedRecords}}# {{$v.RecordNo}}{{if lt $i 0}}{{if eq $i 4}} and {{else}}, {{end}}{{end}}{{end}} for your team.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1469,13 +1511,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1504,7 +1539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1855">
+  <cellStyleXfs count="1873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3360,13 +3395,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1855">
+  <cellStyles count="1873">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4294,6 +4346,15 @@
     <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1872" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5221,6 +5282,15 @@
     <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1871" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5550,11 +5620,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -7254,7 +7330,7 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7508,7 +7584,7 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7597,7 +7673,7 @@
         <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8187,7 +8263,7 @@
         <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -8580,7 +8656,7 @@
         <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8594,7 +8670,7 @@
         <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8942,7 +9018,7 @@
         <v>384</v>
       </c>
       <c r="D256" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8950,16 +9026,16 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>385</v>
+        <v>470</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E257" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8967,13 +9043,13 @@
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8981,69 +9057,72 @@
         <v>3</v>
       </c>
       <c r="B259" t="s">
+        <v>472</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" t="s">
         <v>423</v>
-      </c>
-      <c r="C259" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>420</v>
-      </c>
-      <c r="C260" t="b">
-        <v>1</v>
+        <v>473</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
       </c>
       <c r="D260" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E260" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
       </c>
       <c r="D261" t="s">
-        <v>448</v>
+        <v>463</v>
+      </c>
+      <c r="E261" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
       </c>
       <c r="D262" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
-      </c>
-      <c r="D263" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -9051,16 +9130,13 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>452</v>
-      </c>
-      <c r="C264" t="s">
-        <v>26</v>
+        <v>477</v>
+      </c>
+      <c r="C264" t="b">
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>453</v>
-      </c>
-      <c r="E264" t="s">
-        <v>57</v>
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -9068,46 +9144,46 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
-      </c>
-      <c r="D265" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>456</v>
-      </c>
-      <c r="C266" t="s">
-        <v>26</v>
+        <v>479</v>
+      </c>
+      <c r="C266" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>457</v>
-      </c>
-      <c r="C267" t="b">
-        <v>1</v>
+        <v>480</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -9118,13 +9194,16 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="C269" t="b">
         <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>432</v>
+      </c>
+      <c r="E269" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -9132,52 +9211,52 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
-      </c>
-      <c r="D270" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>463</v>
-      </c>
-      <c r="C271" t="s">
-        <v>26</v>
+        <v>484</v>
+      </c>
+      <c r="C271" t="b">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>464</v>
-      </c>
-      <c r="C272" t="b">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="D272" t="s">
+        <v>467</v>
+      </c>
+      <c r="E272" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>427</v>
-      </c>
-      <c r="C273" t="b">
-        <v>1</v>
+        <v>436</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>467</v>
-      </c>
-      <c r="E273" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -9185,35 +9264,13 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D274" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275" t="s">
-        <v>471</v>
-      </c>
-      <c r="C275" t="s">
-        <v>26</v>
-      </c>
-      <c r="D275" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276">
-        <v>2</v>
-      </c>
-      <c r="B276" t="s">
-        <v>473</v>
-      </c>
-      <c r="C276" t="s">
-        <v>26</v>
+        <v>487</v>
+      </c>
+      <c r="E274" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9228,15 +9285,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12628,122 +12686,122 @@
         <v>419</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257">
+    <row r="257" spans="1:5" s="1" customFormat="1">
+      <c r="A257" s="1">
         <v>1</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C257" t="s">
-        <v>26</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="C257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258">
+    <row r="258" spans="1:5" s="1" customFormat="1">
+      <c r="A258" s="1">
         <v>2</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C258" t="s">
-        <v>26</v>
-      </c>
-      <c r="D258" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259">
+    </row>
+    <row r="259" spans="1:5" s="1" customFormat="1">
+      <c r="A259" s="1">
         <v>3</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" s="1" customFormat="1">
+      <c r="A260" s="1">
+        <v>4</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C259" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260">
-        <v>2</v>
-      </c>
-      <c r="B260" t="s">
-        <v>420</v>
-      </c>
-      <c r="C260" t="b">
-        <v>1</v>
-      </c>
-      <c r="D260" t="s">
-        <v>425</v>
-      </c>
-      <c r="E260" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="1" customFormat="1">
       <c r="A261" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="1" customFormat="1">
       <c r="A262" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>440</v>
+        <v>57</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="1" customFormat="1">
       <c r="A263" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>57</v>
+        <v>428</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="1" customFormat="1">
       <c r="A264" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="1" customFormat="1">
@@ -12753,55 +12811,61 @@
       <c r="B265" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="C265" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="266" spans="1:5" s="1" customFormat="1">
       <c r="A266" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C266" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="1" customFormat="1">
       <c r="A267" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+      <c r="C267" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="1" customFormat="1">
       <c r="A268" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C268" s="1" t="b">
-        <v>1</v>
+        <v>448</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="1" customFormat="1">
       <c r="A269" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C269" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>432</v>
+        <v>449</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="1" customFormat="1">
@@ -12809,32 +12873,69 @@
         <v>7</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>439</v>
+        <v>453</v>
+      </c>
+      <c r="C270" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="1" customFormat="1">
       <c r="A271" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="C271" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" s="1" customFormat="1">
-      <c r="A272" s="1">
-        <v>3</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C272" s="1" t="b">
+      <c r="D271" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>434</v>
+      </c>
+      <c r="D272" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
         <v>1</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>433</v>
+      <c r="B273" t="s">
+        <v>436</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+      <c r="D273" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
+        <v>438</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="20" yWindow="20" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="33" r:id="rId1"/>
-    <sheet name="workflowText.csv Edit" sheetId="29" r:id="rId2"/>
-    <sheet name="template" sheetId="5" r:id="rId3"/>
+    <sheet name="workflowText.csv" sheetId="34" r:id="rId1"/>
+    <sheet name="workflowText Old.csv" sheetId="33" r:id="rId2"/>
+    <sheet name="workflowText.csv Edit" sheetId="29" r:id="rId3"/>
+    <sheet name="template" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="594">
   <si>
     <t>Ok, I see. Based on the chart, you think that people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} and those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}} have the same performance.</t>
   </si>
@@ -1626,6 +1627,183 @@
   </si>
   <si>
     <t>two_records.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        noncausal.uncontrolled.MC_are_sure.2.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.controlled.Q_whatif.2.2.1.3</t>
+  </si>
+  <si>
+    <t>show chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        causal.Q_why.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            causal.help.Q_what_about_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.wrong.correct.MC_is_same_perf_or_unsure.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.wrong.help.same_perf.MC_is_diff.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.wrong.help.wrong.Q_does_level_matter.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.wrong.help.wrong.MC_is_diff.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.wrong.help.correct.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.wrong.help.correct.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    non-causal.correct.correct.MC_is_causal.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        non-causal.correct.correct.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.correct.correct.MC_is_causal.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.wrong.wrong.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.correct.correct.Q_someone_disagree.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.wrong.wrong.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.wrong.help.Q_best_worst.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                causal.correct.Q_is_special_level_zero.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.correct.MC_which_best_level.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.correct.correct.Q_someone_disagree.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.correct.correct.Q_how_chart_look_if_non-causal.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    memo done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.correct.wrong.Q_what_best_perf_level_one_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.correct.MC_which_best_level.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            causal.assume_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            causal.record.see_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            non-causal.help.Q_what_about_chart.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                non-causal.wrong.Q_is_special_level_zero.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    non-causal.wrong.help.MC_is_and_which_best_level.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        non-causal.wrong.help.correct.best_level.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.wrong.help.correct.MC_is_causal.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                non-causal.wrong.help.correct.wrong.Q_best_worst.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    help.MC_is_causal.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                help.Q_best_worst.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        non-causal.wrong.help.wrong.Q_best_worst.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            non-causal.wrong.help.wrong.help.have_diff_perf.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                MC_is_causal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                non-causal.correct.Q_is_diff.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            non-causal.assume_chart.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        help.Q_best_worst.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            help.MC_is_causal.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                help.Q_why.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.assume_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.wrong.Q_is_diff.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.correct.Q_is_special_level_zero.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    causal.record.see_chart.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                help.help.MC_is_same_perf.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    help.help.same_perf.MC_is_diff.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.Q_why.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        non-causal.Q_why.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    help.help.not_same_perf.MC_is_diff.3.3.2</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1883,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2029">
+  <cellStyleXfs count="2129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3743,7 +4021,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2029">
+  <cellStyles count="2129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4758,6 +5036,56 @@
     <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5772,6 +6100,56 @@
     <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6101,15 +6479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane ySplit="9560" topLeftCell="A64"/>
+      <selection activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6939,10 +7319,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
@@ -6956,236 +7336,236 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
-      </c>
-      <c r="C54" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
         <v>475</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>532</v>
+        <v>499</v>
+      </c>
+      <c r="C56" t="s">
+        <v>475</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C57" t="s">
-        <v>475</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
+        <v>532</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>503</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
+        <v>502</v>
+      </c>
+      <c r="C58" t="s">
+        <v>475</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>504</v>
-      </c>
-      <c r="C59" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>483</v>
+        <v>505</v>
+      </c>
+      <c r="C61" t="s">
+        <v>475</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>506</v>
-      </c>
-      <c r="C62" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C64" t="s">
-        <v>475</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
+        <v>473</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C65" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
-      </c>
-      <c r="F65" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>266</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>518</v>
+        <v>514</v>
+      </c>
+      <c r="C67" t="s">
+        <v>472</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7193,38 +7573,38 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>511</v>
-      </c>
-      <c r="C69" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>524</v>
+        <v>511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>475</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7232,27 +7612,21 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>530</v>
-      </c>
-      <c r="C71" t="s">
-        <v>475</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>103</v>
+        <v>524</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>525</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
+        <v>536</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7992,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>537</v>
       </c>
       <c r="C121" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -8006,16 +8380,16 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>538</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -8023,16 +8397,16 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>539</v>
       </c>
       <c r="C123" t="s">
-        <v>474</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>357</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -8040,16 +8414,16 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>540</v>
       </c>
       <c r="C124" t="s">
         <v>475</v>
       </c>
-      <c r="D124" t="b">
-        <v>1</v>
+      <c r="D124" t="s">
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -8057,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>541</v>
       </c>
       <c r="C125" t="s">
         <v>475</v>
@@ -8066,7 +8440,7 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -8074,16 +8448,16 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>542</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -8091,16 +8465,16 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D127" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -8108,260 +8482,260 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>543</v>
       </c>
       <c r="C128" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D128" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>544</v>
       </c>
       <c r="C129" t="s">
-        <v>474</v>
-      </c>
-      <c r="D129" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>545</v>
       </c>
       <c r="C130" t="s">
-        <v>475</v>
-      </c>
-      <c r="D130" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D130" t="s">
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
-      </c>
-      <c r="C131" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>546</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>547</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>548</v>
+      </c>
+      <c r="C133" t="s">
+        <v>476</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
-      </c>
-      <c r="C134" t="s">
-        <v>476</v>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>549</v>
+      </c>
+      <c r="D134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>189</v>
+      </c>
+      <c r="C135" t="s">
+        <v>475</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
-      </c>
-      <c r="C136" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
       </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>8</v>
-      </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>550</v>
+      </c>
+      <c r="C137" t="s">
+        <v>476</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>551</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
-      </c>
-      <c r="C139" t="s">
-        <v>474</v>
-      </c>
-      <c r="D139" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>552</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>288</v>
+        <v>553</v>
+      </c>
+      <c r="C140" t="s">
+        <v>475</v>
       </c>
       <c r="D140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>554</v>
       </c>
       <c r="C141" t="s">
         <v>475</v>
       </c>
-      <c r="D141" t="b">
-        <v>0</v>
+      <c r="D141" t="s">
+        <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
-      </c>
-      <c r="C142" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="D142" t="s">
         <v>24</v>
       </c>
-      <c r="E142" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="D143" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:5">
       <c r="A144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>556</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
-      </c>
-      <c r="D145" t="s">
-        <v>121</v>
+        <v>557</v>
+      </c>
+      <c r="C145" t="s">
+        <v>475</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -8369,16 +8743,16 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>558</v>
       </c>
       <c r="C146" t="s">
-        <v>475</v>
-      </c>
-      <c r="D146" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D146" t="s">
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8386,16 +8760,16 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>559</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8403,16 +8777,16 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>193</v>
+        <v>560</v>
       </c>
       <c r="C148" t="s">
         <v>475</v>
       </c>
       <c r="D148" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8420,16 +8794,16 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
         <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8437,33 +8811,33 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>94</v>
+        <v>561</v>
       </c>
       <c r="C150" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D150" t="s">
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>562</v>
       </c>
       <c r="C151" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D151" t="s">
         <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8471,38 +8845,41 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
-      </c>
-      <c r="C152" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>564</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>565</v>
+      </c>
+      <c r="C154" t="s">
+        <v>476</v>
       </c>
       <c r="D154" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8510,30 +8887,27 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>202</v>
-      </c>
-      <c r="C155" t="s">
-        <v>476</v>
+        <v>566</v>
       </c>
       <c r="D155" t="s">
-        <v>203</v>
-      </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
-      </c>
-      <c r="D156" t="s">
-        <v>24</v>
+        <v>567</v>
+      </c>
+      <c r="C156" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8541,16 +8915,16 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>568</v>
       </c>
       <c r="C157" t="s">
         <v>475</v>
       </c>
-      <c r="D157" t="b">
-        <v>0</v>
+      <c r="D157" t="s">
+        <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8558,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="C158" t="s">
         <v>475</v>
@@ -8567,7 +8941,7 @@
         <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8575,16 +8949,16 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>207</v>
+        <v>570</v>
       </c>
       <c r="C159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D159" t="s">
         <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8592,16 +8966,16 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>571</v>
       </c>
       <c r="C160" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E160" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -8609,16 +8983,16 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>209</v>
+        <v>572</v>
       </c>
       <c r="C161" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D161" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -8626,27 +9000,27 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>210</v>
-      </c>
-      <c r="C162" t="s">
-        <v>474</v>
-      </c>
-      <c r="D162" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" t="s">
-        <v>275</v>
+        <v>199</v>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>211</v>
+        <v>573</v>
+      </c>
+      <c r="C163" t="s">
+        <v>475</v>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -8654,38 +9028,38 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>212</v>
-      </c>
-      <c r="C164" t="s">
-        <v>475</v>
-      </c>
-      <c r="D164" t="b">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
+        <v>574</v>
+      </c>
+      <c r="D164" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>575</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>576</v>
+      </c>
+      <c r="C166" t="s">
+        <v>475</v>
       </c>
       <c r="D166" t="s">
-        <v>178</v>
+        <v>24</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8693,16 +9067,16 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D167" t="s">
         <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -8710,27 +9084,27 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" t="s">
-        <v>476</v>
+        <v>578</v>
       </c>
       <c r="D168" t="s">
         <v>24</v>
-      </c>
-      <c r="E168" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
-      </c>
-      <c r="D169" t="s">
-        <v>24</v>
+        <v>579</v>
+      </c>
+      <c r="C169" t="s">
+        <v>475</v>
+      </c>
+      <c r="D169" t="b">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -8738,49 +9112,49 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>218</v>
-      </c>
-      <c r="C170" t="s">
-        <v>475</v>
-      </c>
-      <c r="D170" t="b">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1</v>
+        <v>542</v>
+      </c>
+      <c r="D170" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>555</v>
       </c>
       <c r="D171" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>556</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>190</v>
+        <v>580</v>
+      </c>
+      <c r="C173" t="s">
+        <v>476</v>
       </c>
       <c r="D173" t="s">
-        <v>121</v>
+        <v>201</v>
+      </c>
+      <c r="E173" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -8788,49 +9162,49 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
-      </c>
-      <c r="C174" t="s">
-        <v>476</v>
+        <v>569</v>
       </c>
       <c r="D174" t="s">
-        <v>201</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
-      </c>
-      <c r="D175" t="s">
-        <v>24</v>
+        <v>579</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
-      </c>
-      <c r="D176" t="b">
-        <v>0</v>
+        <v>565</v>
+      </c>
+      <c r="D176" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>581</v>
+      </c>
+      <c r="C177" t="s">
+        <v>475</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>178</v>
+      </c>
+      <c r="E177" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8838,16 +9212,16 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="C178" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D178" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="E178" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8855,16 +9229,16 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>221</v>
+        <v>583</v>
       </c>
       <c r="C179" t="s">
-        <v>474</v>
-      </c>
-      <c r="D179" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8872,16 +9246,16 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>222</v>
+        <v>584</v>
       </c>
       <c r="C180" t="s">
-        <v>475</v>
-      </c>
-      <c r="D180" t="b">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="D180" t="s">
+        <v>24</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8889,60 +9263,60 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>223</v>
-      </c>
-      <c r="C181" t="s">
-        <v>476</v>
+        <v>585</v>
       </c>
       <c r="D181" t="s">
         <v>24</v>
-      </c>
-      <c r="E181" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>224</v>
-      </c>
-      <c r="D182" t="s">
-        <v>24</v>
+        <v>586</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>225</v>
-      </c>
-      <c r="D183" t="b">
-        <v>1</v>
+        <v>587</v>
+      </c>
+      <c r="D183" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>226</v>
-      </c>
-      <c r="D184" t="s">
-        <v>203</v>
+        <v>588</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>227</v>
-      </c>
-      <c r="D185" t="b">
-        <v>0</v>
+        <v>589</v>
+      </c>
+      <c r="C185" t="s">
+        <v>474</v>
+      </c>
+      <c r="D185" t="s">
+        <v>178</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8950,16 +9324,19 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>228</v>
+        <v>590</v>
       </c>
       <c r="C186" t="s">
         <v>474</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>15</v>
+        <v>230</v>
+      </c>
+      <c r="F186" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8967,41 +9344,41 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>229</v>
-      </c>
-      <c r="C187" t="s">
-        <v>474</v>
-      </c>
-      <c r="D187" t="s">
-        <v>187</v>
-      </c>
-      <c r="E187" t="s">
-        <v>230</v>
-      </c>
-      <c r="F187" t="s">
-        <v>275</v>
+        <v>591</v>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="D188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>232</v>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
+        <v>593</v>
+      </c>
+      <c r="C189" t="s">
+        <v>474</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9009,253 +9386,244 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>233</v>
-      </c>
-      <c r="C190" t="s">
-        <v>474</v>
-      </c>
-      <c r="D190" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" t="s">
-        <v>275</v>
+        <v>591</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="D191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>232</v>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="C192" t="s">
+        <v>472</v>
+      </c>
+      <c r="E192" t="s">
+        <v>302</v>
+      </c>
+      <c r="F192" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C193" t="s">
-        <v>472</v>
+        <v>476</v>
+      </c>
+      <c r="D193" t="s">
+        <v>24</v>
       </c>
       <c r="E193" t="s">
-        <v>302</v>
-      </c>
-      <c r="F193" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
       </c>
       <c r="E194" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s">
-        <v>474</v>
-      </c>
-      <c r="D195" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>240</v>
-      </c>
-      <c r="C197" t="s">
-        <v>476</v>
-      </c>
-      <c r="D197" t="b">
-        <v>0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>282</v>
-      </c>
-      <c r="D198" t="s">
-        <v>24</v>
+        <v>243</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="C199" t="s">
+        <v>475</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C200" t="s">
-        <v>475</v>
-      </c>
-      <c r="D200" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D200" t="s">
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D201" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E201" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>476</v>
-      </c>
-      <c r="D202" t="s">
-        <v>187</v>
+        <v>475</v>
+      </c>
+      <c r="D202" t="b">
+        <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="F202" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>475</v>
-      </c>
-      <c r="D203" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D203" t="s">
+        <v>24</v>
       </c>
       <c r="E203" t="s">
-        <v>258</v>
-      </c>
-      <c r="F203" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C204" t="s">
-        <v>474</v>
-      </c>
-      <c r="D204" t="s">
-        <v>24</v>
+        <v>476</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
-      </c>
-      <c r="C205" t="s">
-        <v>476</v>
+        <v>249</v>
       </c>
       <c r="D205" t="b">
-        <v>1</v>
-      </c>
-      <c r="E205" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -9263,128 +9631,128 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="C207" t="s">
+        <v>476</v>
       </c>
       <c r="D207" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C208" t="s">
         <v>476</v>
       </c>
       <c r="D208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
-      </c>
-      <c r="C209" t="s">
-        <v>476</v>
-      </c>
-      <c r="D209" t="b">
-        <v>1</v>
-      </c>
-      <c r="E209" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
-      </c>
-      <c r="D210" t="s">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="C210" t="s">
+        <v>476</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
-      </c>
-      <c r="C211" t="s">
-        <v>476</v>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>320</v>
+        <v>291</v>
+      </c>
+      <c r="D211" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
-      </c>
-      <c r="D212" t="s">
-        <v>24</v>
+        <v>257</v>
+      </c>
+      <c r="C212" t="s">
+        <v>476</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="C213" t="s">
-        <v>476</v>
-      </c>
-      <c r="D213" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>293</v>
-      </c>
-      <c r="C214" t="s">
-        <v>474</v>
-      </c>
-      <c r="D214" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" t="s">
-        <v>275</v>
+        <v>292</v>
+      </c>
+      <c r="D214" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -9392,38 +9760,38 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>253</v>
-      </c>
-      <c r="D216" t="b">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>284</v>
-      </c>
-      <c r="C217" t="s">
-        <v>476</v>
-      </c>
-      <c r="D217" t="s">
-        <v>24</v>
-      </c>
-      <c r="E217" t="s">
-        <v>260</v>
+        <v>251</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9431,298 +9799,298 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>257</v>
+        <v>242</v>
+      </c>
+      <c r="C219" t="s">
+        <v>472</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
       </c>
+      <c r="E219" t="s">
+        <v>304</v>
+      </c>
+      <c r="F219" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C220" t="s">
-        <v>472</v>
-      </c>
-      <c r="D220" t="b">
-        <v>1</v>
+        <v>473</v>
+      </c>
+      <c r="D220" t="s">
+        <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>304</v>
-      </c>
-      <c r="F220" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221">
-        <v>2</v>
-      </c>
-      <c r="B221" t="s">
-        <v>234</v>
-      </c>
-      <c r="C221" t="s">
-        <v>473</v>
-      </c>
-      <c r="D221" t="s">
-        <v>24</v>
-      </c>
-      <c r="E221" t="s">
-        <v>283</v>
+      <c r="A221" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" t="s">
-        <v>307</v>
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>309</v>
+      </c>
+      <c r="C222" t="s">
+        <v>476</v>
+      </c>
+      <c r="E222" t="s">
+        <v>308</v>
+      </c>
+      <c r="F222" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C223" t="s">
-        <v>476</v>
+        <v>472</v>
+      </c>
+      <c r="D223" t="s">
+        <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F223" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="G223" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C224" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D224" t="s">
         <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>317</v>
-      </c>
-      <c r="F224" t="s">
-        <v>318</v>
-      </c>
-      <c r="G224" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C225" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D225" t="s">
         <v>24</v>
       </c>
       <c r="E225" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C226" t="s">
-        <v>474</v>
-      </c>
-      <c r="D226" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C227" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>323</v>
-      </c>
-      <c r="C228" t="s">
-        <v>476</v>
-      </c>
-      <c r="D228" t="b">
-        <v>0</v>
-      </c>
-      <c r="E228" t="s">
-        <v>281</v>
+        <v>324</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>324</v>
-      </c>
-      <c r="D229" t="s">
-        <v>24</v>
+        <v>325</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="C230" t="s">
+        <v>475</v>
       </c>
       <c r="D230" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C231" t="s">
-        <v>475</v>
-      </c>
-      <c r="D231" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C232" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E232" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B233" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C233" t="s">
-        <v>476</v>
-      </c>
-      <c r="D233" t="s">
-        <v>187</v>
+        <v>475</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="F233" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C234" t="s">
-        <v>475</v>
-      </c>
-      <c r="D234" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D234" t="s">
+        <v>24</v>
       </c>
       <c r="E234" t="s">
-        <v>258</v>
-      </c>
-      <c r="F234" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C235" t="s">
-        <v>474</v>
-      </c>
-      <c r="D235" t="s">
-        <v>24</v>
+        <v>476</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>333</v>
-      </c>
-      <c r="C236" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="D236" t="b">
-        <v>1</v>
-      </c>
-      <c r="E236" t="s">
-        <v>334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9730,128 +10098,128 @@
         <v>10</v>
       </c>
       <c r="B237" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="C238" t="s">
+        <v>476</v>
       </c>
       <c r="D238" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C239" t="s">
         <v>476</v>
       </c>
       <c r="D239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>338</v>
-      </c>
-      <c r="C240" t="s">
-        <v>476</v>
-      </c>
-      <c r="D240" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>295</v>
+        <v>339</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>339</v>
-      </c>
-      <c r="D241" t="s">
-        <v>24</v>
+        <v>340</v>
+      </c>
+      <c r="C241" t="s">
+        <v>476</v>
+      </c>
+      <c r="D241" t="b">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
-        <v>340</v>
-      </c>
-      <c r="C242" t="s">
-        <v>476</v>
-      </c>
-      <c r="D242" t="b">
-        <v>0</v>
-      </c>
-      <c r="E242" t="s">
-        <v>320</v>
+        <v>339</v>
+      </c>
+      <c r="D242" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>339</v>
-      </c>
-      <c r="D243" t="s">
-        <v>24</v>
+        <v>341</v>
+      </c>
+      <c r="C243" t="s">
+        <v>476</v>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C244" t="s">
-        <v>476</v>
-      </c>
-      <c r="D244" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D244" t="s">
+        <v>24</v>
       </c>
       <c r="E244" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>342</v>
-      </c>
-      <c r="C245" t="s">
-        <v>474</v>
-      </c>
-      <c r="D245" t="s">
-        <v>24</v>
-      </c>
-      <c r="E245" t="s">
-        <v>332</v>
+        <v>343</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9859,38 +10227,38 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
-      </c>
-      <c r="D247" t="b">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="C247" t="s">
+        <v>476</v>
+      </c>
+      <c r="D247" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B248" t="s">
-        <v>344</v>
-      </c>
-      <c r="C248" t="s">
-        <v>476</v>
-      </c>
-      <c r="D248" t="s">
-        <v>24</v>
-      </c>
-      <c r="E248" t="s">
-        <v>260</v>
+        <v>330</v>
+      </c>
+      <c r="D248" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9898,97 +10266,103 @@
         <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B250" t="s">
-        <v>341</v>
+        <v>313</v>
+      </c>
+      <c r="C250" t="s">
+        <v>476</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
       </c>
+      <c r="E250" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C251" t="s">
-        <v>476</v>
-      </c>
-      <c r="D251" t="b">
-        <v>1</v>
+        <v>473</v>
+      </c>
+      <c r="D251" t="s">
+        <v>24</v>
       </c>
       <c r="E251" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C252" t="s">
-        <v>473</v>
-      </c>
-      <c r="D252" t="s">
-        <v>24</v>
+        <v>474</v>
       </c>
       <c r="E252" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="C253" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="D253" t="s">
+        <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>372</v>
+        <v>351</v>
+      </c>
+      <c r="F253" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C254" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D254" t="s">
         <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>351</v>
-      </c>
-      <c r="F254" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C255" t="s">
         <v>476</v>
@@ -9997,32 +10371,35 @@
         <v>24</v>
       </c>
       <c r="E255" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C256" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D256" t="s">
         <v>24</v>
       </c>
       <c r="E256" t="s">
-        <v>349</v>
+        <v>364</v>
+      </c>
+      <c r="F256" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C257" t="s">
         <v>474</v>
@@ -10031,229 +10408,209 @@
         <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F257" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C258" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D258" t="s">
         <v>24</v>
       </c>
       <c r="E258" t="s">
-        <v>366</v>
-      </c>
-      <c r="F258" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>378</v>
-      </c>
-      <c r="C259" t="s">
-        <v>475</v>
+        <v>379</v>
       </c>
       <c r="D259" t="s">
         <v>24</v>
-      </c>
-      <c r="E259" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>379</v>
-      </c>
-      <c r="D260" t="s">
-        <v>24</v>
+        <v>380</v>
+      </c>
+      <c r="C260" t="s">
+        <v>476</v>
+      </c>
+      <c r="D260" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>380</v>
-      </c>
-      <c r="C261" t="s">
-        <v>476</v>
-      </c>
-      <c r="D261" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" t="s">
-        <v>369</v>
+        <v>381</v>
+      </c>
+      <c r="D261" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>381</v>
-      </c>
-      <c r="D262" t="s">
-        <v>24</v>
+        <v>382</v>
+      </c>
+      <c r="C262" t="s">
+        <v>476</v>
+      </c>
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C263" t="s">
         <v>476</v>
       </c>
-      <c r="D263" t="b">
-        <v>1</v>
+      <c r="D263" t="s">
+        <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>383</v>
-      </c>
-      <c r="C264" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="D264" t="s">
         <v>24</v>
-      </c>
-      <c r="E264" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
-      </c>
-      <c r="D265" t="s">
-        <v>24</v>
+        <v>385</v>
+      </c>
+      <c r="C265" t="s">
+        <v>474</v>
+      </c>
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>352</v>
+      </c>
+      <c r="F265" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>385</v>
-      </c>
-      <c r="C266" t="s">
-        <v>474</v>
-      </c>
-      <c r="D266" t="b">
-        <v>1</v>
-      </c>
-      <c r="E266" t="s">
-        <v>352</v>
-      </c>
-      <c r="F266" t="s">
-        <v>356</v>
+        <v>386</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>386</v>
-      </c>
-      <c r="D267" t="s">
-        <v>24</v>
+        <v>387</v>
+      </c>
+      <c r="C267" t="s">
+        <v>476</v>
+      </c>
+      <c r="D267" t="b">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C268" t="s">
-        <v>476</v>
-      </c>
-      <c r="D268" t="b">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="E268" t="s">
-        <v>352</v>
+        <v>370</v>
+      </c>
+      <c r="F268" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C269" t="s">
-        <v>472</v>
+        <v>476</v>
+      </c>
+      <c r="D269" t="s">
+        <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>370</v>
-      </c>
-      <c r="F269" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="C270" t="s">
-        <v>476</v>
-      </c>
-      <c r="D270" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="E270" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271">
-        <v>0</v>
-      </c>
-      <c r="B271" t="s">
-        <v>389</v>
-      </c>
-      <c r="C271" t="s">
-        <v>472</v>
-      </c>
-      <c r="E271" t="s">
         <v>390</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F270" t="s">
         <v>355</v>
       </c>
     </row>
@@ -10268,6 +10625,4177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G271"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <pane ySplit="4460" topLeftCell="A59" activePane="bottomLeft"/>
+      <selection activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>517</v>
+      </c>
+      <c r="C18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" t="s">
+        <v>472</v>
+      </c>
+      <c r="D24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>483</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" t="s">
+        <v>474</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>485</v>
+      </c>
+      <c r="C34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>475</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>532</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" t="s">
+        <v>475</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" t="s">
+        <v>474</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" t="s">
+        <v>475</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" t="s">
+        <v>472</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>461</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" t="s">
+        <v>475</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>495</v>
+      </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>483</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C54" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>499</v>
+      </c>
+      <c r="C55" t="s">
+        <v>475</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>532</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>503</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59" t="s">
+        <v>476</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>506</v>
+      </c>
+      <c r="C62" t="s">
+        <v>474</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>510</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>512</v>
+      </c>
+      <c r="C65" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>514</v>
+      </c>
+      <c r="C66" t="s">
+        <v>472</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>518</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>521</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>530</v>
+      </c>
+      <c r="C71" t="s">
+        <v>475</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>525</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>508</v>
+      </c>
+      <c r="C73" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>526</v>
+      </c>
+      <c r="C74" t="s">
+        <v>475</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>528</v>
+      </c>
+      <c r="C75" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>514</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>475</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>529</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>531</v>
+      </c>
+      <c r="C79" t="s">
+        <v>475</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>490</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>509</v>
+      </c>
+      <c r="C81" t="s">
+        <v>475</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>533</v>
+      </c>
+      <c r="C82" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>462</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>475</v>
+      </c>
+      <c r="E85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>473</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>475</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>476</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>475</v>
+      </c>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>476</v>
+      </c>
+      <c r="D92" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" t="s">
+        <v>472</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>474</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>475</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" t="s">
+        <v>476</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" t="s">
+        <v>472</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" t="s">
+        <v>475</v>
+      </c>
+      <c r="D105" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
+        <v>475</v>
+      </c>
+      <c r="D108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" t="s">
+        <v>475</v>
+      </c>
+      <c r="D110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>272</v>
+      </c>
+      <c r="F114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" t="s">
+        <v>476</v>
+      </c>
+      <c r="D116" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s">
+        <v>475</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>298</v>
+      </c>
+      <c r="F117" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" t="s">
+        <v>475</v>
+      </c>
+      <c r="D119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>472</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" t="s">
+        <v>474</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" t="s">
+        <v>475</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" t="s">
+        <v>475</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" t="s">
+        <v>475</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D128" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" t="s">
+        <v>474</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" t="s">
+        <v>476</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136" t="s">
+        <v>475</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" t="s">
+        <v>476</v>
+      </c>
+      <c r="D138" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>474</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" t="s">
+        <v>475</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>475</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>189</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>190</v>
+      </c>
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" t="s">
+        <v>475</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>474</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" t="s">
+        <v>475</v>
+      </c>
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" t="s">
+        <v>475</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" t="s">
+        <v>472</v>
+      </c>
+      <c r="D150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" t="s">
+        <v>473</v>
+      </c>
+      <c r="D151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" t="s">
+        <v>476</v>
+      </c>
+      <c r="D155" t="s">
+        <v>203</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>204</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>205</v>
+      </c>
+      <c r="C157" t="s">
+        <v>475</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" t="s">
+        <v>475</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="s">
+        <v>475</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" t="s">
+        <v>474</v>
+      </c>
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>476</v>
+      </c>
+      <c r="D161" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" t="s">
+        <v>474</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" t="s">
+        <v>475</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>214</v>
+      </c>
+      <c r="D166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" t="s">
+        <v>475</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168" t="s">
+        <v>476</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" t="s">
+        <v>475</v>
+      </c>
+      <c r="D170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>189</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" t="s">
+        <v>476</v>
+      </c>
+      <c r="D174" t="s">
+        <v>201</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>202</v>
+      </c>
+      <c r="D177" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>475</v>
+      </c>
+      <c r="D178" t="s">
+        <v>178</v>
+      </c>
+      <c r="E178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" t="s">
+        <v>474</v>
+      </c>
+      <c r="D179" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" t="s">
+        <v>475</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>223</v>
+      </c>
+      <c r="C181" t="s">
+        <v>476</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>227</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>228</v>
+      </c>
+      <c r="C186" t="s">
+        <v>474</v>
+      </c>
+      <c r="D186" t="s">
+        <v>178</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>229</v>
+      </c>
+      <c r="C187" t="s">
+        <v>474</v>
+      </c>
+      <c r="D187" t="s">
+        <v>187</v>
+      </c>
+      <c r="E187" t="s">
+        <v>230</v>
+      </c>
+      <c r="F187" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>231</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" t="s">
+        <v>474</v>
+      </c>
+      <c r="D190" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>231</v>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>232</v>
+      </c>
+      <c r="D192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" t="s">
+        <v>472</v>
+      </c>
+      <c r="E193" t="s">
+        <v>302</v>
+      </c>
+      <c r="F193" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>238</v>
+      </c>
+      <c r="C194" t="s">
+        <v>476</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" t="s">
+        <v>474</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" t="s">
+        <v>475</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" t="s">
+        <v>476</v>
+      </c>
+      <c r="D197" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>282</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>243</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>241</v>
+      </c>
+      <c r="C200" t="s">
+        <v>475</v>
+      </c>
+      <c r="D200" t="b">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>245</v>
+      </c>
+      <c r="C201" t="s">
+        <v>474</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>250</v>
+      </c>
+      <c r="C202" t="s">
+        <v>476</v>
+      </c>
+      <c r="D202" t="s">
+        <v>187</v>
+      </c>
+      <c r="E202" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" t="s">
+        <v>475</v>
+      </c>
+      <c r="D203" t="b">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>258</v>
+      </c>
+      <c r="F203" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>252</v>
+      </c>
+      <c r="C204" t="s">
+        <v>474</v>
+      </c>
+      <c r="D204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>253</v>
+      </c>
+      <c r="C205" t="s">
+        <v>476</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>249</v>
+      </c>
+      <c r="D206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>248</v>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>254</v>
+      </c>
+      <c r="C208" t="s">
+        <v>476</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>255</v>
+      </c>
+      <c r="C209" t="s">
+        <v>476</v>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>291</v>
+      </c>
+      <c r="D210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>256</v>
+      </c>
+      <c r="C211" t="s">
+        <v>476</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>291</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>257</v>
+      </c>
+      <c r="C213" t="s">
+        <v>476</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" t="s">
+        <v>474</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>292</v>
+      </c>
+      <c r="D215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>253</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>284</v>
+      </c>
+      <c r="C217" t="s">
+        <v>476</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>251</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>257</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" t="s">
+        <v>472</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>304</v>
+      </c>
+      <c r="F220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" t="s">
+        <v>473</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>309</v>
+      </c>
+      <c r="C223" t="s">
+        <v>476</v>
+      </c>
+      <c r="E223" t="s">
+        <v>308</v>
+      </c>
+      <c r="F223" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>310</v>
+      </c>
+      <c r="C224" t="s">
+        <v>472</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>317</v>
+      </c>
+      <c r="F224" t="s">
+        <v>318</v>
+      </c>
+      <c r="G224" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>311</v>
+      </c>
+      <c r="C225" t="s">
+        <v>476</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>319</v>
+      </c>
+      <c r="C226" t="s">
+        <v>474</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>321</v>
+      </c>
+      <c r="C227" t="s">
+        <v>475</v>
+      </c>
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>323</v>
+      </c>
+      <c r="C228" t="s">
+        <v>476</v>
+      </c>
+      <c r="D228" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>324</v>
+      </c>
+      <c r="D229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>326</v>
+      </c>
+      <c r="C231" t="s">
+        <v>475</v>
+      </c>
+      <c r="D231" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>328</v>
+      </c>
+      <c r="C232" t="s">
+        <v>474</v>
+      </c>
+      <c r="D232" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>329</v>
+      </c>
+      <c r="C233" t="s">
+        <v>476</v>
+      </c>
+      <c r="D233" t="s">
+        <v>187</v>
+      </c>
+      <c r="E233" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>330</v>
+      </c>
+      <c r="C234" t="s">
+        <v>475</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>258</v>
+      </c>
+      <c r="F234" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>8</v>
+      </c>
+      <c r="B235" t="s">
+        <v>331</v>
+      </c>
+      <c r="C235" t="s">
+        <v>474</v>
+      </c>
+      <c r="D235" t="s">
+        <v>24</v>
+      </c>
+      <c r="E235" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
+        <v>333</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>335</v>
+      </c>
+      <c r="D237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>336</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>337</v>
+      </c>
+      <c r="C239" t="s">
+        <v>476</v>
+      </c>
+      <c r="D239" t="b">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>338</v>
+      </c>
+      <c r="C240" t="s">
+        <v>476</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>339</v>
+      </c>
+      <c r="D241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>340</v>
+      </c>
+      <c r="C242" t="s">
+        <v>476</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>339</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>7</v>
+      </c>
+      <c r="B244" t="s">
+        <v>341</v>
+      </c>
+      <c r="C244" t="s">
+        <v>476</v>
+      </c>
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>8</v>
+      </c>
+      <c r="B245" t="s">
+        <v>342</v>
+      </c>
+      <c r="C245" t="s">
+        <v>474</v>
+      </c>
+      <c r="D245" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>9</v>
+      </c>
+      <c r="B246" t="s">
+        <v>343</v>
+      </c>
+      <c r="D246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>9</v>
+      </c>
+      <c r="B247" t="s">
+        <v>333</v>
+      </c>
+      <c r="D247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>344</v>
+      </c>
+      <c r="C248" t="s">
+        <v>476</v>
+      </c>
+      <c r="D248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>330</v>
+      </c>
+      <c r="D249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>341</v>
+      </c>
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
+        <v>313</v>
+      </c>
+      <c r="C251" t="s">
+        <v>476</v>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>312</v>
+      </c>
+      <c r="C252" t="s">
+        <v>473</v>
+      </c>
+      <c r="D252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>314</v>
+      </c>
+      <c r="C253" t="s">
+        <v>474</v>
+      </c>
+      <c r="E253" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>373</v>
+      </c>
+      <c r="C254" t="s">
+        <v>472</v>
+      </c>
+      <c r="D254" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" t="s">
+        <v>351</v>
+      </c>
+      <c r="F254" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>374</v>
+      </c>
+      <c r="C255" t="s">
+        <v>476</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>375</v>
+      </c>
+      <c r="C256" t="s">
+        <v>476</v>
+      </c>
+      <c r="D256" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>376</v>
+      </c>
+      <c r="C257" t="s">
+        <v>474</v>
+      </c>
+      <c r="D257" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257" t="s">
+        <v>364</v>
+      </c>
+      <c r="F257" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>377</v>
+      </c>
+      <c r="C258" t="s">
+        <v>474</v>
+      </c>
+      <c r="D258" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258" t="s">
+        <v>366</v>
+      </c>
+      <c r="F258" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>378</v>
+      </c>
+      <c r="C259" t="s">
+        <v>475</v>
+      </c>
+      <c r="D259" t="s">
+        <v>24</v>
+      </c>
+      <c r="E259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260" t="s">
+        <v>379</v>
+      </c>
+      <c r="D260" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
+        <v>380</v>
+      </c>
+      <c r="C261" t="s">
+        <v>476</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>7</v>
+      </c>
+      <c r="B262" t="s">
+        <v>381</v>
+      </c>
+      <c r="D262" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>382</v>
+      </c>
+      <c r="C263" t="s">
+        <v>476</v>
+      </c>
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>383</v>
+      </c>
+      <c r="C264" t="s">
+        <v>476</v>
+      </c>
+      <c r="D264" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>384</v>
+      </c>
+      <c r="D265" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>385</v>
+      </c>
+      <c r="C266" t="s">
+        <v>474</v>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>352</v>
+      </c>
+      <c r="F266" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>386</v>
+      </c>
+      <c r="D267" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>387</v>
+      </c>
+      <c r="C268" t="s">
+        <v>476</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>353</v>
+      </c>
+      <c r="C269" t="s">
+        <v>472</v>
+      </c>
+      <c r="E269" t="s">
+        <v>370</v>
+      </c>
+      <c r="F269" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>354</v>
+      </c>
+      <c r="C270" t="s">
+        <v>476</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>389</v>
+      </c>
+      <c r="C271" t="s">
+        <v>472</v>
+      </c>
+      <c r="E271" t="s">
+        <v>390</v>
+      </c>
+      <c r="F271" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
@@ -15294,7 +19822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="20" yWindow="20" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="workflowText.csv" sheetId="34" r:id="rId1"/>
+    <sheet name="workflowText.csv" sheetId="35" r:id="rId1"/>
     <sheet name="workflowText Old.csv" sheetId="33" r:id="rId2"/>
     <sheet name="workflowText.csv Edit" sheetId="29" r:id="rId3"/>
     <sheet name="template" sheetId="5" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="599">
   <si>
     <t>Ok, I see. Based on the chart, you think that people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} and those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}} have the same performance.</t>
   </si>
@@ -1629,181 +1629,196 @@
     <t>two_records.2</t>
   </si>
   <si>
-    <t xml:space="preserve">                        noncausal.uncontrolled.MC_are_sure.2.2.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    causal.controlled.Q_whatif.2.2.1.3</t>
-  </si>
-  <si>
-    <t>show chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MC_is_causal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        causal.Q_why.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            causal.help.Q_what_about_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                causal.wrong.Q_is_diff.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.wrong.correct.MC_is_same_perf_or_unsure.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            causal.wrong.help.same_perf.MC_is_diff.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                causal.wrong.help.wrong.Q_does_level_matter.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    causal.wrong.help.wrong.MC_is_diff.1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        causal.wrong.Q_is_diff.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        causal.wrong.help.correct.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                causal.wrong.help.correct.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    non-causal.correct.correct.MC_is_causal.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        non-causal.correct.correct.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            non-causal.correct.correct.MC_is_causal.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                causal.wrong.wrong.Q_best_worst.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                non-causal.correct.correct.Q_someone_disagree.2.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    non-causal.correct.correct.Q_how_chart_look_if_non-causal.2.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.wrong.wrong.Q_best_worst.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.wrong.help.Q_best_worst.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                causal.correct.Q_is_special_level_zero.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.correct.MC_which_best_level.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        causal.correct.correct.Q_someone_disagree.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            causal.correct.correct.Q_how_chart_look_if_non-causal.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    memo done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        causal.correct.wrong.Q_what_best_perf_level_one_1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            causal.correct.MC_which_best_level.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            causal.assume_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            causal.record.see_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                MC_is_causal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        non-causal.Q_why.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            non-causal.help.Q_what_about_chart.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                non-causal.wrong.Q_is_special_level_zero.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    non-causal.wrong.help.MC_is_and_which_best_level.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        non-causal.wrong.help.correct.best_level.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            non-causal.wrong.help.correct.MC_is_causal.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                non-causal.wrong.help.correct.wrong.Q_best_worst.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    help.MC_is_causal.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                help.Q_best_worst.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        non-causal.wrong.help.wrong.Q_best_worst.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            non-causal.wrong.help.wrong.help.have_diff_perf.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                MC_is_causal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                non-causal.correct.Q_is_diff.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            non-causal.assume_chart.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        help.Q_best_worst.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            help.MC_is_causal.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                help.Q_why.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.assume_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        causal.wrong.Q_is_diff.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        causal.correct.Q_is_special_level_zero.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    causal.record.see_chart.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                non-causal.Q_why.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                help.help.MC_is_same_perf.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    help.help.same_perf.MC_is_diff.3.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        causal.Q_why.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        non-causal.Q_why.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    help.help.not_same_perf.MC_is_diff.3.3.2</t>
+    <t>select_target_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MC_one_or_two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        single_record.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            single_record.hide_performance.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                single_record.show_performance.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    single_record.MC_enough_info.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        single_record.think_enough_info.Q_whatif.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                single_record.think_enough_info.Q_are_sure.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    single_record.think_enough_info.to_test.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        single_record.think_enough_info.Q_2nd_record.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                single_record.think_enough_info.Q_2nd_record.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                two_records.MC_is_diff.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        single_record.think_not_enough_info.Q_whatif.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        choose two records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            two_records.same_record.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            two_records.hide_performance.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                two_records.show_performance.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    two_records.MC_is_diff.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        causal.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.target_nonvarying.2.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                single_record.think_enough_info.Q_is_same_perf.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.uncontrolled.MC_are_sure.2.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.uncontrolled.sure.2.2.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.uncontrolled.unsure.find_better.2.2.1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    maybe_causal.uncontrolled.Q_2nd_record.2.2.3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            causal.controlled.Q_whatif.2.2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.controlled.wrong.2.2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.controlled.unsure.try_again.2.2.1.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                causal.controlled.correct.challenge.2.2.1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.controlled.correct.MC_are_sure.2.2.1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.controlled.correct.sure.Q_someone_disagree.2.2.1.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            causal.controlled.correct.memo.2.2.1.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                causal.controlled.correct.memo_done.2.2.1.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.controlled.correct.unsure.2.2.1.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            causal.controlled.unsure.try_again.2.2.1.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                two_records.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        noncausal.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            noncausal.target_nonvarying.2.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            noncausal.uncontrolled.MC_are_sure.2.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                single_record.think_enough_info.Q_whatif.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            noncausal.controlled.2.2.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                noncausal.controlled.wrong.2.2.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                noncausal.controlled.correct.Q_someone_disagree.2.2.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    causal.controlled.correct.memo.2.2.1.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        unsure.2.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            unsure.target_nonvarying.2.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            unsure.target_varying.2.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                maybe_causal.2.2.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    maybe_causal.uncontrolled.2.2.3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        maybe_causal.uncontrolled.find_better.2.2.3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            maybe_causal.uncontrolled.Q_2nd_record.2.2.3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                single_record.think_enough_info.same_2nd_record.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                single_record.think_enough_info.2nd_record.show_performance.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    maybe_causal.controlled.2.2.3.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        causal.controlled.wrong.2.2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                maybe_noncausal.2.2.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    maybe_noncausal.uncontrolled.2.2.3.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        maybe_noncausal.uncontrolled.find_better.2.2.3.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    maybe_noncausal.controlled.2.2.3.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        noncausal.controlled.wrong.2.2.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        maybe_noncausal.controlled.correct.challenge.2.2.3.2.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                unsure.dont_know.2.2.3.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    unsure.try_again.2.2.3.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        two_records.2</t>
   </si>
 </sst>
 </file>
@@ -6479,18 +6494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <pane ySplit="9560" topLeftCell="A64"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="66" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -6610,16 +6618,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6627,19 +6632,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6647,16 +6652,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6664,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
         <v>475</v>
@@ -6673,7 +6681,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6681,16 +6689,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6698,16 +6706,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6715,16 +6723,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6732,16 +6740,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6749,16 +6757,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6766,16 +6774,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6783,19 +6791,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6803,27 +6808,30 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="C19" t="s">
+        <v>473</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
-      </c>
-      <c r="C20" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,30 +6839,27 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="C21" t="s">
+        <v>475</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6862,30 +6867,30 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>547</v>
+      </c>
+      <c r="C23" t="s">
+        <v>475</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
-      </c>
-      <c r="C24" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6893,19 +6898,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>534</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6913,27 +6918,30 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>549</v>
+      </c>
+      <c r="C26" t="s">
+        <v>475</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
-      </c>
-      <c r="C27" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6941,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="C28" t="s">
         <v>475</v>
@@ -6950,7 +6958,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6958,16 +6966,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6975,16 +6983,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6992,16 +7000,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>475</v>
       </c>
-      <c r="D31" t="s">
-        <v>71</v>
+      <c r="D31" t="b">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7009,27 +7017,27 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>554</v>
+      </c>
+      <c r="C32" t="s">
+        <v>475</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>484</v>
-      </c>
-      <c r="C33" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7037,16 +7045,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7054,30 +7062,27 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>460</v>
+        <v>557</v>
+      </c>
+      <c r="C35" t="s">
+        <v>473</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>513</v>
-      </c>
-      <c r="C36" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7085,27 +7090,30 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>558</v>
+      </c>
+      <c r="C37" t="s">
+        <v>473</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C38" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7113,16 +7121,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="C39" t="s">
         <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7130,27 +7138,27 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>561</v>
+      </c>
+      <c r="C40" t="s">
+        <v>475</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C41" t="s">
-        <v>475</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
+        <v>562</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7158,16 +7166,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
+        <v>475</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7175,16 +7183,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7192,19 +7200,16 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7212,33 +7217,36 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>346</v>
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7246,16 +7254,16 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="C47" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7263,27 +7271,27 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>569</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>493</v>
-      </c>
-      <c r="C49" t="s">
-        <v>475</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
+        <v>570</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7291,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="C50" t="s">
         <v>475</v>
       </c>
-      <c r="D50" t="s">
-        <v>71</v>
+      <c r="D50" t="b">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7308,27 +7316,27 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>483</v>
+        <v>572</v>
+      </c>
+      <c r="C51" t="s">
+        <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>535</v>
-      </c>
-      <c r="C52" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7336,38 +7344,38 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>485</v>
+        <v>573</v>
+      </c>
+      <c r="C53" t="s">
+        <v>474</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
-      </c>
-      <c r="C55" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7375,16 +7383,16 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="C56" t="s">
         <v>475</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7392,27 +7400,27 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>532</v>
+        <v>576</v>
+      </c>
+      <c r="C57" t="s">
+        <v>475</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>502</v>
-      </c>
-      <c r="C58" t="s">
-        <v>475</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>93</v>
+        <v>562</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7420,27 +7428,27 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>503</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
+        <v>577</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>504</v>
-      </c>
-      <c r="C60" t="s">
-        <v>476</v>
+        <v>578</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
-      </c>
-      <c r="E60" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7448,19 +7456,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="C61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7468,30 +7473,30 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>483</v>
+        <v>580</v>
+      </c>
+      <c r="C62" t="s">
+        <v>475</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>506</v>
-      </c>
-      <c r="C63" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7499,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="C64" t="s">
-        <v>473</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7519,16 +7524,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>475</v>
-      </c>
-      <c r="D65" t="s">
-        <v>73</v>
+        <v>473</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7536,19 +7544,16 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7556,16 +7561,19 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="C67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>266</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7573,38 +7581,38 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>518</v>
+        <v>585</v>
+      </c>
+      <c r="C68" t="s">
+        <v>472</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
-      </c>
-      <c r="C70" t="s">
-        <v>475</v>
+        <v>587</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7612,41 +7620,38 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>524</v>
+        <v>588</v>
+      </c>
+      <c r="C71" t="s">
+        <v>475</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
+        <v>589</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
-      </c>
-      <c r="C73" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7654,16 +7659,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>475</v>
-      </c>
-      <c r="D74" t="s">
-        <v>73</v>
+        <v>473</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>104</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7671,22 +7679,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="C75" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7694,27 +7696,33 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>514</v>
+        <v>592</v>
+      </c>
+      <c r="C76" t="s">
+        <v>473</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>527</v>
-      </c>
-      <c r="C77" t="s">
-        <v>475</v>
+        <v>585</v>
       </c>
       <c r="D77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7722,27 +7730,27 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>529</v>
+        <v>593</v>
+      </c>
+      <c r="C78" t="s">
+        <v>475</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>531</v>
-      </c>
-      <c r="C79" t="s">
-        <v>475</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>46</v>
+        <v>594</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7750,30 +7758,27 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>490</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
+        <v>595</v>
+      </c>
+      <c r="C80" t="s">
+        <v>475</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>509</v>
-      </c>
-      <c r="C81" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
-      </c>
-      <c r="E81" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7781,16 +7786,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="C82" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F82" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7798,184 +7806,184 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>462</v>
+        <v>597</v>
+      </c>
+      <c r="C83" t="s">
+        <v>473</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
       </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>598</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" t="s">
-        <v>475</v>
-      </c>
-      <c r="E85" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>473</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
+        <v>475</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>115</v>
+      </c>
+      <c r="F87" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
+        <v>476</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" t="s">
-        <v>475</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>475</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" t="s">
-        <v>476</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
-      </c>
-      <c r="E92" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
         <v>474</v>
@@ -7984,119 +7992,125 @@
         <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="C97" t="s">
+        <v>475</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" t="s">
-        <v>474</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C103" t="s">
+        <v>472</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -8104,100 +8118,91 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" t="s">
-        <v>475</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
         <v>475</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="C107" t="s">
+        <v>475</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" t="s">
-        <v>475</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
         <v>475</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
-      </c>
-      <c r="F109" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C110" t="s">
         <v>475</v>
@@ -8206,320 +8211,320 @@
         <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="F110" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="C111" t="s">
+        <v>475</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" t="s">
-        <v>475</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
         <v>475</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>272</v>
-      </c>
-      <c r="F114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>473</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="E115" t="s">
+        <v>272</v>
+      </c>
+      <c r="F115" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
-      </c>
-      <c r="C116" t="s">
-        <v>476</v>
+        <v>164</v>
       </c>
       <c r="D116" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>298</v>
-      </c>
-      <c r="F117" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C118" t="s">
+        <v>475</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>167</v>
+      </c>
+      <c r="C120" t="s">
+        <v>475</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>168</v>
+      </c>
+      <c r="E120" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>537</v>
-      </c>
-      <c r="C121" t="s">
-        <v>476</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C122" t="s">
-        <v>474</v>
-      </c>
-      <c r="D122" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="E122" t="s">
-        <v>357</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>539</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>475</v>
-      </c>
-      <c r="D123" t="b">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>540</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
         <v>475</v>
       </c>
-      <c r="D125" t="s">
-        <v>24</v>
+      <c r="D125" t="b">
+        <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>542</v>
+        <v>173</v>
       </c>
       <c r="C126" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C127" t="s">
         <v>475</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>543</v>
+        <v>175</v>
       </c>
       <c r="C128" t="s">
         <v>474</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
         <v>8</v>
       </c>
-      <c r="B129" t="s">
-        <v>544</v>
-      </c>
-      <c r="C129" t="s">
-        <v>475</v>
-      </c>
-      <c r="D129" t="b">
-        <v>1</v>
-      </c>
-      <c r="E129" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
-        <v>9</v>
-      </c>
       <c r="B130" t="s">
-        <v>545</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
         <v>474</v>
@@ -8528,358 +8533,364 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>546</v>
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>475</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="E131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>547</v>
-      </c>
-      <c r="D132" t="b">
+        <v>181</v>
+      </c>
+      <c r="C132" t="s">
+        <v>474</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>183</v>
+      </c>
+      <c r="D134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" t="s">
+        <v>476</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>289</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
         <v>8</v>
       </c>
-      <c r="B133" t="s">
-        <v>548</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" t="s">
         <v>476</v>
       </c>
-      <c r="D133" t="b">
+      <c r="D139" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" t="s">
         <v>0</v>
       </c>
-      <c r="E133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>9</v>
-      </c>
-      <c r="B134" t="s">
-        <v>549</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>6</v>
-      </c>
-      <c r="B135" t="s">
-        <v>189</v>
-      </c>
-      <c r="C135" t="s">
-        <v>475</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>7</v>
-      </c>
-      <c r="B136" t="s">
-        <v>543</v>
-      </c>
-      <c r="D136" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <v>6</v>
-      </c>
-      <c r="B137" t="s">
-        <v>550</v>
-      </c>
-      <c r="C137" t="s">
-        <v>476</v>
-      </c>
-      <c r="D137" t="s">
-        <v>187</v>
-      </c>
-      <c r="E137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>7</v>
-      </c>
-      <c r="B138" t="s">
-        <v>551</v>
-      </c>
-      <c r="C138" t="s">
-        <v>474</v>
-      </c>
-      <c r="D138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>552</v>
-      </c>
-      <c r="D139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>285</v>
       </c>
       <c r="C140" t="s">
-        <v>475</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>554</v>
-      </c>
-      <c r="C141" t="s">
-        <v>475</v>
-      </c>
-      <c r="D141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s">
+        <v>475</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" t="s">
+        <v>475</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>10</v>
-      </c>
-      <c r="B142" t="s">
-        <v>425</v>
-      </c>
-      <c r="D142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>5</v>
-      </c>
-      <c r="B143" t="s">
-        <v>555</v>
-      </c>
-      <c r="D143" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>556</v>
+        <v>84</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>557</v>
-      </c>
-      <c r="C145" t="s">
-        <v>475</v>
-      </c>
-      <c r="D145" t="b">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
+        <v>189</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>558</v>
-      </c>
-      <c r="C146" t="s">
-        <v>474</v>
+        <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>559</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
         <v>475</v>
       </c>
-      <c r="D147" t="s">
-        <v>194</v>
+      <c r="D147" t="b">
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>560</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D148" t="s">
         <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" t="s">
+        <v>475</v>
+      </c>
+      <c r="D149" t="s">
+        <v>194</v>
+      </c>
+      <c r="E149" t="s">
         <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" t="s">
-        <v>472</v>
-      </c>
-      <c r="D149" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>561</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D150" t="s">
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>562</v>
+        <v>94</v>
       </c>
       <c r="C151" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
         <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>563</v>
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>473</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
+      </c>
+      <c r="E152" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>564</v>
+        <v>198</v>
+      </c>
+      <c r="C153" t="s">
+        <v>475</v>
       </c>
       <c r="D153" t="s">
-        <v>201</v>
+        <v>24</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>565</v>
-      </c>
-      <c r="C154" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
       <c r="D154" t="s">
-        <v>203</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8887,103 +8898,100 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>566</v>
+        <v>200</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>567</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>475</v>
-      </c>
-      <c r="D156" t="b">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="D156" t="s">
+        <v>203</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>568</v>
-      </c>
-      <c r="C157" t="s">
-        <v>475</v>
+        <v>204</v>
       </c>
       <c r="D157" t="s">
         <v>24</v>
-      </c>
-      <c r="E157" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>569</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>475</v>
       </c>
-      <c r="D158" t="s">
-        <v>24</v>
+      <c r="D158" t="b">
+        <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>570</v>
+        <v>206</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D159" t="s">
         <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D160" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>572</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
         <v>474</v>
@@ -8992,18 +9000,24 @@
         <v>24</v>
       </c>
       <c r="E161" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
-      </c>
-      <c r="D162" t="b">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="C162" t="s">
+        <v>476</v>
+      </c>
+      <c r="D162" t="s">
+        <v>194</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9011,16 +9025,16 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>573</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
-      </c>
-      <c r="D163" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D163" t="s">
+        <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9028,94 +9042,94 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
-      </c>
-      <c r="D164" t="s">
-        <v>24</v>
+        <v>211</v>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
-      </c>
-      <c r="D165" t="s">
-        <v>178</v>
+        <v>212</v>
+      </c>
+      <c r="C165" t="s">
+        <v>475</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
-      </c>
-      <c r="C166" t="s">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="D166" t="s">
         <v>24</v>
-      </c>
-      <c r="E166" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
-      </c>
-      <c r="C167" t="s">
-        <v>476</v>
+        <v>214</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>215</v>
+      </c>
+      <c r="C168" t="s">
+        <v>475</v>
       </c>
       <c r="D168" t="s">
         <v>24</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s">
-        <v>475</v>
-      </c>
-      <c r="D169" t="b">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>542</v>
+        <v>217</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -9123,49 +9137,49 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>555</v>
-      </c>
-      <c r="D171" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="C171" t="s">
+        <v>475</v>
+      </c>
+      <c r="D171" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>556</v>
+        <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>580</v>
-      </c>
-      <c r="C173" t="s">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>201</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>569</v>
+        <v>190</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9173,100 +9187,100 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>579</v>
-      </c>
-      <c r="D175" t="b">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="C175" t="s">
+        <v>476</v>
+      </c>
+      <c r="D175" t="s">
+        <v>201</v>
+      </c>
+      <c r="E175" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>565</v>
+        <v>207</v>
       </c>
       <c r="D176" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>581</v>
-      </c>
-      <c r="C177" t="s">
-        <v>475</v>
-      </c>
-      <c r="D177" t="s">
-        <v>178</v>
-      </c>
-      <c r="E177" t="s">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>582</v>
-      </c>
-      <c r="C178" t="s">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>220</v>
       </c>
       <c r="C179" t="s">
         <v>475</v>
       </c>
-      <c r="D179" t="b">
-        <v>1</v>
+      <c r="D179" t="s">
+        <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>584</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D180" t="s">
         <v>24</v>
       </c>
       <c r="E180" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>585</v>
-      </c>
-      <c r="D181" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="C181" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -9274,49 +9288,49 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D182" t="b">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="C182" t="s">
+        <v>476</v>
+      </c>
+      <c r="D182" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>587</v>
+        <v>224</v>
       </c>
       <c r="D183" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>588</v>
+        <v>225</v>
       </c>
       <c r="D184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>589</v>
-      </c>
-      <c r="C185" t="s">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="D185" t="s">
-        <v>178</v>
-      </c>
-      <c r="E185" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -9324,30 +9338,27 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>590</v>
-      </c>
-      <c r="C186" t="s">
-        <v>474</v>
-      </c>
-      <c r="D186" t="s">
-        <v>187</v>
-      </c>
-      <c r="E186" t="s">
-        <v>230</v>
-      </c>
-      <c r="F186" t="s">
-        <v>275</v>
+        <v>227</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>591</v>
-      </c>
-      <c r="D187" t="b">
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="C187" t="s">
+        <v>474</v>
+      </c>
+      <c r="D187" t="s">
+        <v>178</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -9355,41 +9366,41 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>592</v>
-      </c>
-      <c r="D188" t="b">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="C188" t="s">
+        <v>474</v>
+      </c>
+      <c r="D188" t="s">
+        <v>187</v>
+      </c>
+      <c r="E188" t="s">
+        <v>230</v>
+      </c>
+      <c r="F188" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>593</v>
-      </c>
-      <c r="C189" t="s">
-        <v>474</v>
-      </c>
-      <c r="D189" t="s">
-        <v>24</v>
-      </c>
-      <c r="E189" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" t="s">
-        <v>275</v>
+        <v>231</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>591</v>
+        <v>232</v>
       </c>
       <c r="D190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9397,106 +9408,109 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>592</v>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="C191" t="s">
+        <v>474</v>
+      </c>
+      <c r="D191" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
-      </c>
-      <c r="C192" t="s">
-        <v>472</v>
-      </c>
-      <c r="E192" t="s">
-        <v>302</v>
-      </c>
-      <c r="F192" t="s">
-        <v>303</v>
+        <v>231</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>238</v>
-      </c>
-      <c r="C193" t="s">
-        <v>476</v>
-      </c>
-      <c r="D193" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="D193" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C194" t="s">
-        <v>474</v>
-      </c>
-      <c r="D194" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="E194" t="s">
-        <v>360</v>
+        <v>302</v>
+      </c>
+      <c r="F194" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C195" t="s">
-        <v>475</v>
-      </c>
-      <c r="D195" t="b">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
       </c>
       <c r="E195" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C196" t="s">
-        <v>476</v>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D196" t="s">
+        <v>24</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>282</v>
-      </c>
-      <c r="D197" t="s">
-        <v>24</v>
+        <v>239</v>
+      </c>
+      <c r="C197" t="s">
+        <v>475</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9504,27 +9518,27 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="C198" t="s">
+        <v>476</v>
       </c>
       <c r="D198" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>241</v>
-      </c>
-      <c r="C199" t="s">
-        <v>475</v>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>237</v>
+        <v>282</v>
+      </c>
+      <c r="D199" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9532,126 +9546,126 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
-      </c>
-      <c r="C200" t="s">
-        <v>474</v>
-      </c>
-      <c r="D200" t="s">
-        <v>24</v>
-      </c>
-      <c r="E200" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C201" t="s">
-        <v>476</v>
-      </c>
-      <c r="D201" t="s">
-        <v>187</v>
+        <v>475</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C202" t="s">
-        <v>475</v>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="D202" t="s">
+        <v>24</v>
       </c>
       <c r="E202" t="s">
-        <v>258</v>
-      </c>
-      <c r="F202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C203" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D203" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E203" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>247</v>
+        <v>258</v>
+      </c>
+      <c r="F204" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
-      </c>
-      <c r="D205" t="b">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="C205" t="s">
+        <v>474</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="C206" t="s">
+        <v>476</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
       </c>
+      <c r="E206" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>254</v>
-      </c>
-      <c r="C207" t="s">
-        <v>476</v>
+        <v>249</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -9659,47 +9673,47 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
-      </c>
-      <c r="C208" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
       </c>
-      <c r="E208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>291</v>
-      </c>
-      <c r="D209" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>254</v>
+      </c>
+      <c r="C209" t="s">
+        <v>476</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C210" t="s">
         <v>476</v>
       </c>
       <c r="D210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>10</v>
       </c>
@@ -9710,443 +9724,443 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:6">
       <c r="A212">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C212" t="s">
         <v>476</v>
       </c>
       <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>291</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" t="s">
+        <v>476</v>
+      </c>
+      <c r="D214" t="b">
         <v>1</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E214" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213">
+    <row r="215" spans="1:6">
+      <c r="A215">
         <v>7</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B215" t="s">
         <v>293</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C215" t="s">
         <v>474</v>
       </c>
-      <c r="D213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214">
+    <row r="216" spans="1:6">
+      <c r="A216">
         <v>8</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B216" t="s">
         <v>292</v>
       </c>
-      <c r="D214" t="b">
+      <c r="D216" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="A215">
+    <row r="217" spans="1:6">
+      <c r="A217">
         <v>8</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B217" t="s">
         <v>253</v>
       </c>
-      <c r="D215" t="b">
+      <c r="D217" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
-      <c r="A216">
+    <row r="218" spans="1:6">
+      <c r="A218">
         <v>5</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B218" t="s">
         <v>284</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C218" t="s">
         <v>476</v>
       </c>
-      <c r="D216" t="s">
-        <v>24</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="A217">
+    <row r="219" spans="1:6">
+      <c r="A219">
         <v>6</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B219" t="s">
         <v>251</v>
       </c>
-      <c r="D217" t="b">
+      <c r="D219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
-      <c r="A218">
+    <row r="220" spans="1:6">
+      <c r="A220">
         <v>6</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B220" t="s">
         <v>257</v>
       </c>
-      <c r="D218" t="b">
+      <c r="D220" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
-      <c r="A219">
+    <row r="221" spans="1:6">
+      <c r="A221">
         <v>1</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B221" t="s">
         <v>242</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>472</v>
       </c>
-      <c r="D219" t="b">
+      <c r="D221" t="b">
         <v>1</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E221" t="s">
         <v>304</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F221" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
-      <c r="A220">
+    <row r="222" spans="1:6">
+      <c r="A222">
         <v>2</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B222" t="s">
         <v>234</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>473</v>
       </c>
-      <c r="D220" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" t="s">
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
-      <c r="A222">
+    <row r="224" spans="1:6">
+      <c r="A224">
         <v>0</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B224" t="s">
         <v>309</v>
-      </c>
-      <c r="C222" t="s">
-        <v>476</v>
-      </c>
-      <c r="E222" t="s">
-        <v>308</v>
-      </c>
-      <c r="F222" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" t="s">
-        <v>310</v>
-      </c>
-      <c r="C223" t="s">
-        <v>472</v>
-      </c>
-      <c r="D223" t="s">
-        <v>24</v>
-      </c>
-      <c r="E223" t="s">
-        <v>317</v>
-      </c>
-      <c r="F223" t="s">
-        <v>318</v>
-      </c>
-      <c r="G223" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224">
-        <v>2</v>
-      </c>
-      <c r="B224" t="s">
-        <v>311</v>
       </c>
       <c r="C224" t="s">
         <v>476</v>
       </c>
-      <c r="D224" t="s">
-        <v>24</v>
-      </c>
       <c r="E224" t="s">
+        <v>308</v>
+      </c>
+      <c r="F224" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>310</v>
+      </c>
+      <c r="C225" t="s">
+        <v>472</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>317</v>
+      </c>
+      <c r="F225" t="s">
+        <v>318</v>
+      </c>
+      <c r="G225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>311</v>
+      </c>
+      <c r="C226" t="s">
+        <v>476</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
+    <row r="227" spans="1:7">
+      <c r="A227">
         <v>3</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B227" t="s">
         <v>319</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C227" t="s">
         <v>474</v>
       </c>
-      <c r="D225" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
+    <row r="228" spans="1:7">
+      <c r="A228">
         <v>4</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B228" t="s">
         <v>321</v>
       </c>
-      <c r="C226" t="s">
-        <v>475</v>
-      </c>
-      <c r="D226" t="b">
+      <c r="C228" t="s">
+        <v>475</v>
+      </c>
+      <c r="D228" t="b">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E228" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>5</v>
-      </c>
-      <c r="B227" t="s">
-        <v>323</v>
-      </c>
-      <c r="C227" t="s">
-        <v>476</v>
-      </c>
-      <c r="D227" t="b">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>324</v>
-      </c>
-      <c r="D228" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="C229" t="s">
+        <v>476</v>
       </c>
       <c r="D229" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>326</v>
-      </c>
-      <c r="C230" t="s">
-        <v>475</v>
-      </c>
-      <c r="D230" t="b">
-        <v>0</v>
-      </c>
-      <c r="E230" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>324</v>
+      </c>
+      <c r="D230" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>5</v>
       </c>
       <c r="B231" t="s">
+        <v>325</v>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>326</v>
+      </c>
+      <c r="C232" t="s">
+        <v>475</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
         <v>328</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C233" t="s">
         <v>474</v>
       </c>
-      <c r="D231" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="D233" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
+    <row r="234" spans="1:7">
+      <c r="A234">
         <v>6</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B234" t="s">
         <v>329</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C234" t="s">
         <v>476</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D234" t="s">
         <v>187</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E234" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
+    <row r="235" spans="1:7">
+      <c r="A235">
         <v>7</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B235" t="s">
         <v>330</v>
       </c>
-      <c r="C233" t="s">
-        <v>475</v>
-      </c>
-      <c r="D233" t="b">
+      <c r="C235" t="s">
+        <v>475</v>
+      </c>
+      <c r="D235" t="b">
         <v>0</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E235" t="s">
         <v>258</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F235" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
+    <row r="236" spans="1:7">
+      <c r="A236">
         <v>8</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B236" t="s">
         <v>331</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C236" t="s">
         <v>474</v>
       </c>
-      <c r="D234" t="s">
-        <v>24</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="D236" t="s">
+        <v>24</v>
+      </c>
+      <c r="E236" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
+    <row r="237" spans="1:7">
+      <c r="A237">
         <v>9</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B237" t="s">
         <v>333</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C237" t="s">
         <v>476</v>
-      </c>
-      <c r="D235" t="b">
-        <v>1</v>
-      </c>
-      <c r="E235" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>10</v>
-      </c>
-      <c r="B236" t="s">
-        <v>335</v>
-      </c>
-      <c r="D236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>10</v>
-      </c>
-      <c r="B237" t="s">
-        <v>336</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="E237" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
-      </c>
-      <c r="C238" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
-      <c r="E238" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>338</v>
-      </c>
-      <c r="C239" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
       </c>
-      <c r="E239" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>339</v>
-      </c>
-      <c r="D240" t="s">
-        <v>24</v>
+        <v>337</v>
+      </c>
+      <c r="C240" t="s">
+        <v>476</v>
+      </c>
+      <c r="D240" t="b">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -10154,16 +10168,16 @@
         <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C241" t="s">
         <v>476</v>
       </c>
       <c r="D241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -10179,267 +10193,267 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C243" t="s">
         <v>476</v>
       </c>
       <c r="D243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>342</v>
-      </c>
-      <c r="C244" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D244" t="s">
         <v>24</v>
-      </c>
-      <c r="E244" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="C245" t="s">
+        <v>476</v>
       </c>
       <c r="D245" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
-      </c>
-      <c r="D246" t="b">
-        <v>1</v>
+        <v>342</v>
+      </c>
+      <c r="C246" t="s">
+        <v>474</v>
+      </c>
+      <c r="D246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>344</v>
-      </c>
-      <c r="C247" t="s">
-        <v>476</v>
-      </c>
-      <c r="D247" t="s">
-        <v>24</v>
-      </c>
-      <c r="E247" t="s">
-        <v>260</v>
+        <v>343</v>
+      </c>
+      <c r="D247" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>341</v>
-      </c>
-      <c r="D249" t="b">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="C249" t="s">
+        <v>476</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>313</v>
-      </c>
-      <c r="C250" t="s">
-        <v>476</v>
+        <v>330</v>
       </c>
       <c r="D250" t="b">
-        <v>1</v>
-      </c>
-      <c r="E250" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>312</v>
-      </c>
-      <c r="C251" t="s">
-        <v>473</v>
-      </c>
-      <c r="D251" t="s">
-        <v>24</v>
-      </c>
-      <c r="E251" t="s">
-        <v>315</v>
+        <v>341</v>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C252" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="C253" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D253" t="s">
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>351</v>
-      </c>
-      <c r="F253" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="C254" t="s">
-        <v>476</v>
-      </c>
-      <c r="D254" t="s">
-        <v>24</v>
+        <v>474</v>
       </c>
       <c r="E254" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C255" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D255" t="s">
         <v>24</v>
       </c>
       <c r="E255" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="F255" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C256" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D256" t="s">
         <v>24</v>
       </c>
       <c r="E256" t="s">
-        <v>364</v>
-      </c>
-      <c r="F256" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C257" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D257" t="s">
         <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>366</v>
-      </c>
-      <c r="F257" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C258" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D258" t="s">
         <v>24</v>
       </c>
       <c r="E258" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="F258" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B259" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="C259" t="s">
+        <v>474</v>
       </c>
       <c r="D259" t="s">
         <v>24</v>
+      </c>
+      <c r="E259" t="s">
+        <v>366</v>
+      </c>
+      <c r="F259" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -10447,16 +10461,16 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C260" t="s">
-        <v>476</v>
-      </c>
-      <c r="D260" t="b">
-        <v>1</v>
+        <v>475</v>
+      </c>
+      <c r="D260" t="s">
+        <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -10464,7 +10478,7 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D261" t="s">
         <v>24</v>
@@ -10472,10 +10486,10 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C262" t="s">
         <v>476</v>
@@ -10484,35 +10498,35 @@
         <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>383</v>
-      </c>
-      <c r="C263" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="D263" t="s">
         <v>24</v>
-      </c>
-      <c r="E263" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
-      </c>
-      <c r="D264" t="s">
-        <v>24</v>
+        <v>382</v>
+      </c>
+      <c r="C264" t="s">
+        <v>476</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -10520,19 +10534,16 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>474</v>
-      </c>
-      <c r="D265" t="b">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="D265" t="s">
+        <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>352</v>
-      </c>
-      <c r="F265" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -10540,7 +10551,7 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D266" t="s">
         <v>24</v>
@@ -10548,13 +10559,13 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D267" t="b">
         <v>1</v>
@@ -10562,39 +10573,36 @@
       <c r="E267" t="s">
         <v>352</v>
       </c>
+      <c r="F267" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>353</v>
-      </c>
-      <c r="C268" t="s">
-        <v>472</v>
-      </c>
-      <c r="E268" t="s">
-        <v>370</v>
-      </c>
-      <c r="F268" t="s">
-        <v>371</v>
+        <v>386</v>
+      </c>
+      <c r="D268" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C269" t="s">
         <v>476</v>
       </c>
-      <c r="D269" t="s">
-        <v>24</v>
+      <c r="D269" t="b">
+        <v>1</v>
       </c>
       <c r="E269" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -10602,15 +10610,49 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C270" t="s">
         <v>472</v>
       </c>
       <c r="E270" t="s">
+        <v>370</v>
+      </c>
+      <c r="F270" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>354</v>
+      </c>
+      <c r="C271" t="s">
+        <v>476</v>
+      </c>
+      <c r="D271" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>389</v>
+      </c>
+      <c r="C272" t="s">
+        <v>472</v>
+      </c>
+      <c r="E272" t="s">
         <v>390</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F272" t="s">
         <v>355</v>
       </c>
     </row>
@@ -14799,7 +14841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="501">
   <si>
     <t>Ok, I see. Based on the chart, you think that people who have {{$factor := index .ContentFactors .TargetFactor.FactorId}}{{$bestlevel := index $factor.Levels 0}}{{$bestlevel.Text}} and those who have {{$alevel := index $factor.Levels 1}}{{$alevel.Text}} for {{.TargetFactor.FactorName}} have the same performance.</t>
   </si>
@@ -1515,6 +1515,15 @@
   </si>
   <si>
     <t>Now, Suppose someone disagrees with you and thinks that {{.TargetFactor.FactorName}} really does make a difference to performance in space. What would you say to them?</t>
+  </si>
+  <si>
+    <t>I have a list of records about the applicants. If you study them carefully, you can see which factors matter to performance and which don't.</t>
+  </si>
+  <si>
+    <t>Let's try it. On the screen, you can find any applicant to look at. Just select a level for each factor, and the computer will find you an applicant with those levels and tell you his/her performance.</t>
+  </si>
+  <si>
+    <t>You selected Record #{{.RecordNoOne.RecordNo}}, {{.RecordNoOne.RecordName}}. You can see that performance can be from A to E. And {{.RecordNoOne.FirstName}}'s performance was {{.RecordNoOne.Performance}}.</t>
   </si>
 </sst>
 </file>
@@ -1563,8 +1572,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2171">
+  <cellStyleXfs count="2173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3739,7 +3750,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2171">
+  <cellStyles count="2173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4825,6 +4836,7 @@
     <cellStyle name="Followed Hyperlink" xfId="2166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5910,6 +5922,7 @@
     <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6241,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6349,10 +6362,10 @@
         <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>498</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -6372,7 +6385,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -10711,6 +10724,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/auto-agent/workflow.xlsx
+++ b/auto-agent/workflow.xlsx
@@ -19,6 +19,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Toi Sin Arvidsson</author>
+  </authors>
+  <commentList>
+    <comment ref="B147" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Toi Sin Arvidsson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong id. Ignored.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="473">
   <si>
@@ -1445,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1469,13 +1503,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1487,7 +1540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2177">
+  <cellStyleXfs count="2403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3665,11 +3718,238 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2177">
+  <cellStyles count="2403">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4758,6 +5038,119 @@
     <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5846,6 +6239,119 @@
     <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6174,16 +6680,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="2" max="2" width="81.1640625" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8551,20 +9059,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
+    <row r="147" spans="1:6" s="1" customFormat="1">
+      <c r="A147" s="1">
         <v>7</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D147" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="D147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10613,6 +11121,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
